--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X319"/>
+  <dimension ref="A1:X324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21759,7 +21759,9 @@
       <c r="N319" t="n">
         <v>348.9454545454545</v>
       </c>
-      <c r="O319" t="inlineStr"/>
+      <c r="O319" t="n">
+        <v>351.4254545454546</v>
+      </c>
       <c r="P319" t="n">
         <v>357.5854545454546</v>
       </c>
@@ -21785,6 +21787,380 @@
         <v>336.0254545454546</v>
       </c>
       <c r="X319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>341.4733333333333</v>
+      </c>
+      <c r="C320" t="n">
+        <v>344.2658823529412</v>
+      </c>
+      <c r="D320" t="n">
+        <v>346.58</v>
+      </c>
+      <c r="E320" t="n">
+        <v>345.235</v>
+      </c>
+      <c r="F320" t="n">
+        <v>339.3633333333333</v>
+      </c>
+      <c r="G320" t="n">
+        <v>329.17</v>
+      </c>
+      <c r="H320" t="n">
+        <v>327.281052631579</v>
+      </c>
+      <c r="I320" t="n">
+        <v>324.075</v>
+      </c>
+      <c r="J320" t="n">
+        <v>323.19</v>
+      </c>
+      <c r="K320" t="n">
+        <v>325.0857142857143</v>
+      </c>
+      <c r="L320" t="n">
+        <v>334.02</v>
+      </c>
+      <c r="M320" t="n">
+        <v>337.89</v>
+      </c>
+      <c r="N320" t="n">
+        <v>341.8618181818182</v>
+      </c>
+      <c r="O320" t="n">
+        <v>344.0918181818182</v>
+      </c>
+      <c r="P320" t="n">
+        <v>345.3018181818182</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>336.5700000000001</v>
+      </c>
+      <c r="R320" t="n">
+        <v>340.44</v>
+      </c>
+      <c r="S320" t="inlineStr"/>
+      <c r="T320" t="inlineStr"/>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr"/>
+      <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>344.9833333333333</v>
+      </c>
+      <c r="C321" t="n">
+        <v>343.6394117647059</v>
+      </c>
+      <c r="D321" t="n">
+        <v>353.35</v>
+      </c>
+      <c r="E321" t="n">
+        <v>345.78</v>
+      </c>
+      <c r="F321" t="n">
+        <v>346.0033333333333</v>
+      </c>
+      <c r="G321" t="n">
+        <v>330.96</v>
+      </c>
+      <c r="H321" t="n">
+        <v>325.4957894736842</v>
+      </c>
+      <c r="I321" t="n">
+        <v>328.86</v>
+      </c>
+      <c r="J321" t="n">
+        <v>327.1517391304347</v>
+      </c>
+      <c r="K321" t="n">
+        <v>335.06</v>
+      </c>
+      <c r="L321" t="n">
+        <v>342.03</v>
+      </c>
+      <c r="M321" t="n">
+        <v>349.68</v>
+      </c>
+      <c r="N321" t="n">
+        <v>355.2981818181818</v>
+      </c>
+      <c r="O321" t="n">
+        <v>353.4381818181818</v>
+      </c>
+      <c r="P321" t="n">
+        <v>348.4281818181818</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>342</v>
+      </c>
+      <c r="R321" t="n">
+        <v>350.88</v>
+      </c>
+      <c r="S321" t="n">
+        <v>346.3277777777778</v>
+      </c>
+      <c r="T321" t="n">
+        <v>349.8881818181818</v>
+      </c>
+      <c r="U321" t="n">
+        <v>352.4833333333333</v>
+      </c>
+      <c r="V321" t="n">
+        <v>348.6781818181818</v>
+      </c>
+      <c r="W321" t="n">
+        <v>343.1081818181818</v>
+      </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>360.8333333333333</v>
+      </c>
+      <c r="C322" t="n">
+        <v>346.2341176470588</v>
+      </c>
+      <c r="D322" t="n">
+        <v>350.84</v>
+      </c>
+      <c r="E322" t="n">
+        <v>351.345</v>
+      </c>
+      <c r="F322" t="n">
+        <v>342.5433333333333</v>
+      </c>
+      <c r="G322" t="n">
+        <v>339.06</v>
+      </c>
+      <c r="H322" t="n">
+        <v>348.041052631579</v>
+      </c>
+      <c r="I322" t="n">
+        <v>343.375</v>
+      </c>
+      <c r="J322" t="n">
+        <v>348.1869565217391</v>
+      </c>
+      <c r="K322" t="n">
+        <v>335.98</v>
+      </c>
+      <c r="L322" t="n">
+        <v>327.42</v>
+      </c>
+      <c r="M322" t="n">
+        <v>344.48</v>
+      </c>
+      <c r="N322" t="n">
+        <v>364.1445454545454</v>
+      </c>
+      <c r="O322" t="n">
+        <v>359.8545454545454</v>
+      </c>
+      <c r="P322" t="n">
+        <v>353.9245454545455</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>358.45</v>
+      </c>
+      <c r="R322" t="n">
+        <v>367.69</v>
+      </c>
+      <c r="S322" t="n">
+        <v>373.4077777777778</v>
+      </c>
+      <c r="T322" t="n">
+        <v>380.1045454545454</v>
+      </c>
+      <c r="U322" t="n">
+        <v>351.5733333333333</v>
+      </c>
+      <c r="V322" t="n">
+        <v>377.0945454545454</v>
+      </c>
+      <c r="W322" t="inlineStr"/>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>348.51</v>
+      </c>
+      <c r="C323" t="n">
+        <v>334</v>
+      </c>
+      <c r="D323" t="n">
+        <v>354.99</v>
+      </c>
+      <c r="E323" t="n">
+        <v>344.635</v>
+      </c>
+      <c r="F323" t="n">
+        <v>343.42</v>
+      </c>
+      <c r="G323" t="n">
+        <v>334.55</v>
+      </c>
+      <c r="H323" t="n">
+        <v>334.2452631578947</v>
+      </c>
+      <c r="I323" t="n">
+        <v>331.225</v>
+      </c>
+      <c r="J323" t="n">
+        <v>326.464347826087</v>
+      </c>
+      <c r="K323" t="n">
+        <v>333.1471428571429</v>
+      </c>
+      <c r="L323" t="n">
+        <v>343.23</v>
+      </c>
+      <c r="M323" t="n">
+        <v>353.01</v>
+      </c>
+      <c r="N323" t="n">
+        <v>351.2881818181818</v>
+      </c>
+      <c r="O323" t="n">
+        <v>356.3781818181818</v>
+      </c>
+      <c r="P323" t="n">
+        <v>343.2381818181818</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="R323" t="n">
+        <v>351.95</v>
+      </c>
+      <c r="S323" t="n">
+        <v>342.35</v>
+      </c>
+      <c r="T323" t="n">
+        <v>342.0981818181818</v>
+      </c>
+      <c r="U323" t="n">
+        <v>349.83</v>
+      </c>
+      <c r="V323" t="n">
+        <v>351.5881818181818</v>
+      </c>
+      <c r="W323" t="n">
+        <v>350.6381818181818</v>
+      </c>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="n">
+        <v>336.81</v>
+      </c>
+      <c r="E324" t="n">
+        <v>328.76</v>
+      </c>
+      <c r="F324" t="n">
+        <v>332.3133333333333</v>
+      </c>
+      <c r="G324" t="n">
+        <v>323.87</v>
+      </c>
+      <c r="H324" t="n">
+        <v>323.3726315789473</v>
+      </c>
+      <c r="I324" t="n">
+        <v>324.06</v>
+      </c>
+      <c r="J324" t="n">
+        <v>319.4282608695652</v>
+      </c>
+      <c r="K324" t="n">
+        <v>320.8457142857143</v>
+      </c>
+      <c r="L324" t="n">
+        <v>333.97</v>
+      </c>
+      <c r="M324" t="n">
+        <v>338.34</v>
+      </c>
+      <c r="N324" t="n">
+        <v>327.8563636363637</v>
+      </c>
+      <c r="O324" t="n">
+        <v>331.8463636363636</v>
+      </c>
+      <c r="P324" t="n">
+        <v>333.1263636363636</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="R324" t="n">
+        <v>341.69</v>
+      </c>
+      <c r="S324" t="n">
+        <v>343.0211111111111</v>
+      </c>
+      <c r="T324" t="n">
+        <v>349.6863636363636</v>
+      </c>
+      <c r="U324" t="n">
+        <v>349.5933333333333</v>
+      </c>
+      <c r="V324" t="n">
+        <v>344.7863636363636</v>
+      </c>
+      <c r="W324" t="n">
+        <v>350.3363636363636</v>
+      </c>
+      <c r="X324" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21801,7 +22177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25209,6 +25585,56 @@
       </c>
       <c r="B340" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -25377,28 +25803,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5515185446532577</v>
+        <v>-0.4938309184507934</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05246375926795721</v>
+        <v>0.04269785751401045</v>
       </c>
       <c r="M2" t="n">
-        <v>12.87583586100204</v>
+        <v>12.95646817572524</v>
       </c>
       <c r="N2" t="n">
-        <v>298.9482209646795</v>
+        <v>301.3388986598548</v>
       </c>
       <c r="O2" t="n">
-        <v>17.29011917150022</v>
+        <v>17.35911572228997</v>
       </c>
       <c r="P2" t="n">
-        <v>342.6400636842118</v>
+        <v>342.0614963422181</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25454,28 +25880,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3511490340721994</v>
+        <v>-0.2948657863383939</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K3" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01358031650829394</v>
+        <v>0.0097634783355528</v>
       </c>
       <c r="M3" t="n">
-        <v>16.52994035789429</v>
+        <v>16.52643841348975</v>
       </c>
       <c r="N3" t="n">
-        <v>477.6767209582322</v>
+        <v>476.3024061698738</v>
       </c>
       <c r="O3" t="n">
-        <v>21.85581663901471</v>
+        <v>21.82435351092613</v>
       </c>
       <c r="P3" t="n">
-        <v>331.3283312520284</v>
+        <v>330.7553620568598</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25531,28 +25957,28 @@
         <v>0.0587</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2923686476145503</v>
+        <v>-0.2155973561742864</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K4" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005870142527300226</v>
+        <v>0.003299087326907091</v>
       </c>
       <c r="M4" t="n">
-        <v>19.77184770135096</v>
+        <v>19.6658889232463</v>
       </c>
       <c r="N4" t="n">
-        <v>755.4472501813126</v>
+        <v>748.0652983514841</v>
       </c>
       <c r="O4" t="n">
-        <v>27.48540067347232</v>
+        <v>27.3507824083971</v>
       </c>
       <c r="P4" t="n">
-        <v>336.4598512710179</v>
+        <v>335.6843820678477</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25608,28 +26034,28 @@
         <v>0.101</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6062877927648455</v>
+        <v>-0.5237833290680727</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K5" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02931360774587399</v>
+        <v>0.0226308108994997</v>
       </c>
       <c r="M5" t="n">
-        <v>19.2947451892618</v>
+        <v>19.19875145361527</v>
       </c>
       <c r="N5" t="n">
-        <v>611.9815650515009</v>
+        <v>608.3798314184891</v>
       </c>
       <c r="O5" t="n">
-        <v>24.73826115658699</v>
+        <v>24.6653569083946</v>
       </c>
       <c r="P5" t="n">
-        <v>338.370824635791</v>
+        <v>337.5151865752211</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25685,28 +26111,28 @@
         <v>0.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9772663453979247</v>
+        <v>-0.8748812915468677</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K6" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05134994530100345</v>
+        <v>0.04272062021265621</v>
       </c>
       <c r="M6" t="n">
-        <v>21.23562769712851</v>
+        <v>21.19697292012357</v>
       </c>
       <c r="N6" t="n">
-        <v>862.6229965143469</v>
+        <v>856.7702022206297</v>
       </c>
       <c r="O6" t="n">
-        <v>29.37044426824945</v>
+        <v>29.27063720216268</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1013904257924</v>
+        <v>340.0198040664077</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25762,28 +26188,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02619787742748223</v>
+        <v>0.08524780851170538</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K7" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L7" t="n">
-        <v>5.808711543509038e-05</v>
+        <v>0.0006346050290415572</v>
       </c>
       <c r="M7" t="n">
-        <v>18.91478405632149</v>
+        <v>18.77417963350978</v>
       </c>
       <c r="N7" t="n">
-        <v>601.3199637107546</v>
+        <v>594.638382393712</v>
       </c>
       <c r="O7" t="n">
-        <v>24.52182627193078</v>
+        <v>24.38520827046003</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2590743560663</v>
+        <v>314.657293095326</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25839,28 +26265,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5067802869941834</v>
+        <v>-0.4221691653091995</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K8" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02292352064135672</v>
+        <v>0.01641785533041218</v>
       </c>
       <c r="M8" t="n">
-        <v>18.84227197374317</v>
+        <v>18.73754778084051</v>
       </c>
       <c r="N8" t="n">
-        <v>564.5438892888105</v>
+        <v>561.9741107516367</v>
       </c>
       <c r="O8" t="n">
-        <v>23.76013234998514</v>
+        <v>23.70599313995591</v>
       </c>
       <c r="P8" t="n">
-        <v>324.6672625555145</v>
+        <v>323.7940242758299</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25916,28 +26342,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2701477596539283</v>
+        <v>-0.2199143636914324</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K9" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007233169819435559</v>
+        <v>0.0049838645413256</v>
       </c>
       <c r="M9" t="n">
-        <v>16.78611316873632</v>
+        <v>16.5712020875145</v>
       </c>
       <c r="N9" t="n">
-        <v>519.5760847608344</v>
+        <v>512.2639468108085</v>
       </c>
       <c r="O9" t="n">
-        <v>22.79421165034743</v>
+        <v>22.63324870209331</v>
       </c>
       <c r="P9" t="n">
-        <v>325.219088725866</v>
+        <v>324.7121573816074</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25993,28 +26419,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3459853394517061</v>
+        <v>-0.2654281859019174</v>
       </c>
       <c r="J10" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K10" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009390399400112104</v>
+        <v>0.005683515368266168</v>
       </c>
       <c r="M10" t="n">
-        <v>22.27951151285771</v>
+        <v>22.15342810000389</v>
       </c>
       <c r="N10" t="n">
-        <v>667.4962285627851</v>
+        <v>663.5342158292365</v>
       </c>
       <c r="O10" t="n">
-        <v>25.83594837746014</v>
+        <v>25.759157902176</v>
       </c>
       <c r="P10" t="n">
-        <v>317.4237932356599</v>
+        <v>316.6015240806688</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26070,28 +26496,28 @@
         <v>0.0885</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.326590663178919</v>
+        <v>-0.2614656640778583</v>
       </c>
       <c r="J11" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K11" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01212607344404282</v>
+        <v>0.008018584019704567</v>
       </c>
       <c r="M11" t="n">
-        <v>17.68078204884646</v>
+        <v>17.61280114276757</v>
       </c>
       <c r="N11" t="n">
-        <v>458.8648260921895</v>
+        <v>455.461079171126</v>
       </c>
       <c r="O11" t="n">
-        <v>21.42113036448333</v>
+        <v>21.34153413349486</v>
       </c>
       <c r="P11" t="n">
-        <v>321.680721716154</v>
+        <v>321.0237827062732</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26147,28 +26573,28 @@
         <v>0.0554</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5099938197223238</v>
+        <v>-0.4774030627770585</v>
       </c>
       <c r="J12" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K12" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05536648471364436</v>
+        <v>0.05010312901968184</v>
       </c>
       <c r="M12" t="n">
-        <v>11.41232149790608</v>
+        <v>11.35024175894181</v>
       </c>
       <c r="N12" t="n">
-        <v>242.2372278029955</v>
+        <v>239.9302951589372</v>
       </c>
       <c r="O12" t="n">
-        <v>15.56397210878365</v>
+        <v>15.48968350738443</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6321477807516</v>
+        <v>339.3101882129608</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26224,28 +26650,28 @@
         <v>0.0626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6019857856203198</v>
+        <v>-0.5040491445726641</v>
       </c>
       <c r="J13" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K13" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01948009964206598</v>
+        <v>0.01426458026155886</v>
       </c>
       <c r="M13" t="n">
-        <v>22.87173839137007</v>
+        <v>22.59839742185049</v>
       </c>
       <c r="N13" t="n">
-        <v>911.8446787427229</v>
+        <v>901.6640654839492</v>
       </c>
       <c r="O13" t="n">
-        <v>30.19676603119484</v>
+        <v>30.02772161659871</v>
       </c>
       <c r="P13" t="n">
-        <v>338.6269030855904</v>
+        <v>337.6322462880235</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26301,28 +26727,28 @@
         <v>0.0672</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.7400370778495896</v>
+        <v>-0.6576120649817996</v>
       </c>
       <c r="J14" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K14" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05321324458403209</v>
+        <v>0.04314746316689733</v>
       </c>
       <c r="M14" t="n">
-        <v>17.4805136285881</v>
+        <v>17.41088225484559</v>
       </c>
       <c r="N14" t="n">
-        <v>512.9571249448088</v>
+        <v>514.5563179667296</v>
       </c>
       <c r="O14" t="n">
-        <v>22.64855679607</v>
+        <v>22.68383384630406</v>
       </c>
       <c r="P14" t="n">
-        <v>345.3910537209964</v>
+        <v>344.5569085945487</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -26378,28 +26804,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5859986115999947</v>
+        <v>-0.5114224875455088</v>
       </c>
       <c r="J15" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K15" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04572141423818454</v>
+        <v>0.03602524087009318</v>
       </c>
       <c r="M15" t="n">
-        <v>14.79572044254636</v>
+        <v>14.71978698835229</v>
       </c>
       <c r="N15" t="n">
-        <v>388.3254126033506</v>
+        <v>387.624178283235</v>
       </c>
       <c r="O15" t="n">
-        <v>19.70597403335726</v>
+        <v>19.68817356392499</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2911077068097</v>
+        <v>346.5558537601248</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -26455,28 +26881,28 @@
         <v>0.0634</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.766058306422697</v>
+        <v>-0.7007396098451807</v>
       </c>
       <c r="J16" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K16" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05753945643830172</v>
+        <v>0.04997634042544086</v>
       </c>
       <c r="M16" t="n">
-        <v>17.45255383994635</v>
+        <v>17.31708604377392</v>
       </c>
       <c r="N16" t="n">
-        <v>480.0884021073237</v>
+        <v>475.7737173395085</v>
       </c>
       <c r="O16" t="n">
-        <v>21.91091970017059</v>
+        <v>21.81223778844134</v>
       </c>
       <c r="P16" t="n">
-        <v>348.5295525031434</v>
+        <v>347.8439719547399</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -26532,28 +26958,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5318455977802472</v>
+        <v>-0.4951403079891303</v>
       </c>
       <c r="J17" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K17" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04601889385716784</v>
+        <v>0.04123166122906607</v>
       </c>
       <c r="M17" t="n">
-        <v>13.52611936833244</v>
+        <v>13.41825316303559</v>
       </c>
       <c r="N17" t="n">
-        <v>304.3185886839385</v>
+        <v>301.3310427488104</v>
       </c>
       <c r="O17" t="n">
-        <v>17.44472953885896</v>
+        <v>17.35888944457019</v>
       </c>
       <c r="P17" t="n">
-        <v>348.2785211227002</v>
+        <v>347.9024776469824</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -26609,28 +27035,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.6152847874402885</v>
+        <v>-0.5543298806341759</v>
       </c>
       <c r="J18" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K18" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L18" t="n">
-        <v>0.051628243014333</v>
+        <v>0.04319894541102798</v>
       </c>
       <c r="M18" t="n">
-        <v>15.15583067326268</v>
+        <v>15.11378026154351</v>
       </c>
       <c r="N18" t="n">
-        <v>370.9943244927067</v>
+        <v>370.3137207526818</v>
       </c>
       <c r="O18" t="n">
-        <v>19.26121295486623</v>
+        <v>19.24353711646281</v>
       </c>
       <c r="P18" t="n">
-        <v>350.168383059923</v>
+        <v>349.5609336089414</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -26686,28 +27112,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2404654823861844</v>
+        <v>-0.1922885763909284</v>
       </c>
       <c r="J19" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K19" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008839422969311173</v>
+        <v>0.00575614899643595</v>
       </c>
       <c r="M19" t="n">
-        <v>14.75970196852035</v>
+        <v>14.73840776764459</v>
       </c>
       <c r="N19" t="n">
-        <v>345.7909091933931</v>
+        <v>346.6641604299168</v>
       </c>
       <c r="O19" t="n">
-        <v>18.59545399266695</v>
+        <v>18.61891942165057</v>
       </c>
       <c r="P19" t="n">
-        <v>341.6701841164315</v>
+        <v>341.1983031954783</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -26763,28 +27189,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.04348520097228092</v>
+        <v>0.004349384102110172</v>
       </c>
       <c r="J20" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K20" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002715963316597403</v>
+        <v>2.756602726861068e-06</v>
       </c>
       <c r="M20" t="n">
-        <v>15.04996673932727</v>
+        <v>15.03481322620724</v>
       </c>
       <c r="N20" t="n">
-        <v>371.3106255486374</v>
+        <v>372.2769027260265</v>
       </c>
       <c r="O20" t="n">
-        <v>19.26942203462879</v>
+        <v>19.29447855543203</v>
       </c>
       <c r="P20" t="n">
-        <v>341.471398824956</v>
+        <v>340.9953473049437</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -26840,28 +27266,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.05670948367336626</v>
+        <v>-0.0299738405896529</v>
       </c>
       <c r="J21" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K21" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000623109825660717</v>
+        <v>0.0001789786400205884</v>
       </c>
       <c r="M21" t="n">
-        <v>12.58734147628204</v>
+        <v>12.52035858421135</v>
       </c>
       <c r="N21" t="n">
-        <v>267.5153796052373</v>
+        <v>264.5079188153866</v>
       </c>
       <c r="O21" t="n">
-        <v>16.35589739528948</v>
+        <v>16.26369941973186</v>
       </c>
       <c r="P21" t="n">
-        <v>343.4867262073862</v>
+        <v>343.2153367994516</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -26917,28 +27343,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.5382642026318459</v>
+        <v>-0.4957299664401625</v>
       </c>
       <c r="J22" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K22" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06473241926447815</v>
+        <v>0.0559011928222406</v>
       </c>
       <c r="M22" t="n">
-        <v>11.11493448283496</v>
+        <v>11.13321691628022</v>
       </c>
       <c r="N22" t="n">
-        <v>221.4820136557968</v>
+        <v>223.1949936652633</v>
       </c>
       <c r="O22" t="n">
-        <v>14.88227179081866</v>
+        <v>14.93971196727913</v>
       </c>
       <c r="P22" t="n">
-        <v>356.4070047663282</v>
+        <v>355.9762429748282</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -26994,28 +27420,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2879866738332854</v>
+        <v>-0.2896660697179708</v>
       </c>
       <c r="J23" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K23" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02175690263422747</v>
+        <v>0.02252563034104471</v>
       </c>
       <c r="M23" t="n">
-        <v>10.49726168668641</v>
+        <v>10.40626454929271</v>
       </c>
       <c r="N23" t="n">
-        <v>201.0528176857161</v>
+        <v>198.7183578906005</v>
       </c>
       <c r="O23" t="n">
-        <v>14.17930949255697</v>
+        <v>14.09674990522995</v>
       </c>
       <c r="P23" t="n">
-        <v>356.1137211607224</v>
+        <v>356.1301797156886</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -27052,7 +27478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X319"/>
+  <dimension ref="A1:X324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58787,7 +59213,11 @@
           <t>-37.748770690229335,174.82714222533446</t>
         </is>
       </c>
-      <c r="O319" t="inlineStr"/>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-37.748099491304075,174.8268474871349</t>
+        </is>
+      </c>
       <c r="P319" t="inlineStr">
         <is>
           <t>-37.7474399499725,174.826508697355</t>
@@ -58829,6 +59259,584 @@
         </is>
       </c>
       <c r="X319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-37.75700695947286,174.82994236212497</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-37.756314846771346,174.8297401810783</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-37.75562185308092,174.82954331729468</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-37.754919530359516,174.82938650618675</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-37.754211517540405,174.8292380980941</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-37.75349874462531,174.8291100549451</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-37.75280885008155,174.82889215322825</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-37.75211553551138,174.8286859415708</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>-37.751429169595404,174.82845115135552</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>-37.75074988500786,174.8281860933716</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>-37.75008734383785,174.82784003859553</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>-37.74941777252577,174.82752942753686</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>-37.74875090019293,174.8272186463156</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>-37.74807883906514,174.82692653694795</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>-37.74740463044389,174.8266407974051</t>
+        </is>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>-37.746703742634104,174.82645457074108</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>-37.746040024719385,174.8261332085308</t>
+        </is>
+      </c>
+      <c r="S320" t="inlineStr"/>
+      <c r="T320" t="inlineStr"/>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr"/>
+      <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-37.75701337415193,174.8299033555345</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-37.756313701877104,174.8297471429763</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-37.75563422533729,174.829468083693</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-37.754920636862735,174.82938048027802</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-37.75422722635379,174.82916538812782</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-37.753503217480066,174.82909053817784</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-37.75280436737247,174.82891161026208</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>-37.7521276899758,174.82863384312842</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>-37.75143930023098,174.82840804187714</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>-37.750775572009616,174.82807762756084</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>-37.75010892154321,174.8277532998513</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>-37.74945071127613,174.82740223145782</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>-37.748788438234,174.8270736896442</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>-37.748105159332304,174.82682579178956</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>-37.747413619790024,174.8266071760386</t>
+        </is>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>-37.746719555850504,174.82639626175512</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>-37.746070427776885,174.82602110151132</t>
+        </is>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>-37.745388664812396,174.8257924219302</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>-37.74470667175968,174.82558532722044</t>
+        </is>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>-37.74401029558063,174.8254137642716</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>-37.74330289688049,174.82530693328656</t>
+        </is>
+      </c>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t>-37.74259393598448,174.82520609833827</t>
+        </is>
+      </c>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-37.7570423405639,174.82972721457284</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-37.756318443779094,174.82971830829686</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-37.75562963828765,174.82949597680403</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-37.75493193535987,174.82931894965776</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-37.75421904074268,174.82920327615648</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-37.75352345773283,174.82900222204935</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-37.752860977201586,174.82866589619474</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-37.7521645596495,174.82847580563288</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>-37.75149308951052,174.82817914793958</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>-37.75077794130132,174.82806762297622</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>-37.75006956440809,174.82791150868215</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>-37.749436183599606,174.82745833152418</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>-37.74881315279877,174.82697825157896</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>-37.74812322838619,174.82675662927895</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>-37.74742942365984,174.8265480673289</t>
+        </is>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>-37.74676746127835,174.82621961651083</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>-37.74611938113943,174.8258405918278</t>
+        </is>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>-37.745452786277355,174.82549594181503</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>-37.74475737749352,174.82524846013624</t>
+        </is>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>-37.74400886195445,174.82542393090483</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>-37.74335050785672,174.82499012176265</t>
+        </is>
+      </c>
+      <c r="W322" t="inlineStr"/>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-37.75701981927722,174.8298641637203</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-37.75629608550504,174.82985426465814</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-37.755637222449856,174.82944985871012</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-37.75491831219048,174.82939314021448</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-37.754221114747395,174.82919367639667</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-37.75351218816802,174.82905139560367</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-37.75282633684579,174.828816252417</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-37.75213369734641,174.82860809331692</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>-37.75143754249122,174.82841552169424</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>-37.75077064579331,174.82809842901648</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>-37.750112154152845,174.82774030527835</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>-37.74946001456292,174.82736630582636</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>-37.74877723525506,174.8271169510863</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>-37.7481134386402,174.82679410129245</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>-37.74739869679068,174.82666299004424</t>
+        </is>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>-37.74673557289171,174.8263372010616</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>-37.74607354379316,174.82600961161026</t>
+        </is>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>-37.745379245956734,174.82583597181133</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr">
+        <is>
+          <t>-37.74469359929555,174.82567217394285</t>
+        </is>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>-37.74400611548138,174.8254434076406</t>
+        </is>
+      </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>-37.743307772558545,174.82527448997425</t>
+        </is>
+      </c>
+      <c r="W323" t="inlineStr">
+        <is>
+          <t>-37.742607061232974,174.8251222716741</t>
+        </is>
+      </c>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-15 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-37.75560399820488,174.8296518892247</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-37.75488608133434,174.8295686654472</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-37.75419483870683,174.82931529764625</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-37.75348550095853,174.82916784200677</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-37.752799036221994,174.82893474990345</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-37.75211549740957,174.8286861048888</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>-37.751419550369164,174.82849208453186</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>-37.750738965611056,174.82823220141515</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>-37.750087209145356,174.82784058003568</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>-37.74941902973245,174.82752457272684</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>-37.74871177205955,174.82736974239614</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>-37.74804435454882,174.82705853151302</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>-37.74736962183073,174.82677173392253</t>
+        </is>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>-37.74670907195329,174.82643491964927</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>-37.7460436649377,174.8261197857605</t>
+        </is>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>-37.74538083506087,174.82582862429032</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>-37.74470633308769,174.82558757718846</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>-37.74400574263298,174.82544605170975</t>
+        </is>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>-37.74329637616137,174.82535032278886</t>
+        </is>
+      </c>
+      <c r="W324" t="inlineStr">
+        <is>
+          <t>-37.742606535146635,174.8251256316231</t>
+        </is>
+      </c>
+      <c r="X324" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -25648,7 +25648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25739,35 +25739,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25826,27 +25831,28 @@
       <c r="P2" t="n">
         <v>342.0614963422181</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.83373711676597 -37.75638284101326, 174.8235516998162 -37.75805772533648)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.833737116766</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.75638284101326</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8235516998162</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.75805772533648</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8286444082911</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.75722028317487</v>
       </c>
     </row>
@@ -25903,27 +25909,28 @@
       <c r="P3" t="n">
         <v>330.7553620568598</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.83356593473454 -37.75568562909355, 174.823380576859 -37.757360507416145)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8335659347345</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.75568562909355</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.823380576859</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.75736050741614</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8284732557968</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.75652306825485</v>
       </c>
     </row>
@@ -25980,27 +25987,28 @@
       <c r="P4" t="n">
         <v>335.6843820678477</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.83339475270355 -37.754988410603104, 174.82320945390094 -37.75666328292522)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8333947527036</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.7549884106031</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8232094539009</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.75666328292522</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8283021033022</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.75582584676416</v>
       </c>
     </row>
@@ -26057,27 +26065,28 @@
       <c r="P5" t="n">
         <v>337.5151865752211</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.83320363207716 -37.75421854519849, 174.82306982809422 -37.756079239820544)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8332036320772</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.75421854519849</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8230698280942</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.75607923982054</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8281367300857</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.75514889250952</v>
       </c>
     </row>
@@ -26134,27 +26143,28 @@
       <c r="P6" t="n">
         <v>340.0198040664077</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.83295418383773 -37.75340859805059, 174.82291812868453 -37.75557674076468)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8329541838377</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.75340859805059</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8229181286845</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.75557674076468</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8279361562611</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.75449266940764</v>
       </c>
     </row>
@@ -26211,27 +26221,28 @@
       <c r="P7" t="n">
         <v>314.657293095326</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.83269902645412 -37.752676160130214, 174.82270618383112 -37.75496618360416)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8326990264541</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.75267616013021</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8227061838311</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.75496618360416</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8277026051426</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.75382117186719</v>
       </c>
     </row>
@@ -26288,27 +26299,28 @@
       <c r="P8" t="n">
         <v>323.7940242758299</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.83245904742668 -37.75198701050537, 174.8224703322256 -37.75428817090401)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8324590474267</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.75198701050537</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8224703322256</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.75428817090401</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8274646898261</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.75313759070469</v>
       </c>
     </row>
@@ -26365,27 +26377,28 @@
       <c r="P9" t="n">
         <v>324.7121573816074</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.83221438527386 -37.751292294131034, 174.8222355849911 -37.753620187253674)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.8322143852739</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.75129229413103</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.8222355849911</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.75362018725367</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.8272249851325</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.75245624069235</v>
       </c>
     </row>
@@ -26442,27 +26455,28 @@
       <c r="P10" t="n">
         <v>316.6015240806688</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.8319678865516 -37.75060268236814, 174.82199494657306 -37.752946159081425)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.8319678865516</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.75060268236814</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8219949465731</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.75294615908143</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8269814165623</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.75177442072479</v>
       </c>
     </row>
@@ -26519,27 +26533,28 @@
       <c r="P11" t="n">
         <v>321.0237827062732</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.83172120920628 -37.749912630807366, 174.82175458902378 -37.75227279979585)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8317212092063</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.74991263080737</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.8217545890238</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.75227279979585</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.826737899115</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.75109271530161</v>
       </c>
     </row>
@@ -26596,27 +26611,28 @@
       <c r="P12" t="n">
         <v>339.3101882129608</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.83145702972385 -37.749187489675364, 174.82153240754056 -37.75165627439412)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.8314570297239</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.74918748967536</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.8215324075406</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.75165627439412</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.8264947186322</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.75042188203474</v>
       </c>
     </row>
@@ -26673,27 +26689,28 @@
       <c r="P13" t="n">
         <v>337.6322462880235</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.83117469407063 -37.74847372258663, 174.8212871050873 -37.75103409218374)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.8311746940706</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-37.74847372258663</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.8212871050873</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-37.75103409218374</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.8262308995789</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-37.74975390738518</v>
       </c>
     </row>
@@ -26750,27 +26767,28 @@
       <c r="P14" t="n">
         <v>344.5569085945487</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.8309067319122 -37.74779575984126, 174.82101919445682 -37.75035612133208)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.8309067319122</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-37.74779575984126</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.8210191944568</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-37.75035612133208</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.8259629631845</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-37.74907594058667</v>
       </c>
     </row>
@@ -26827,27 +26845,28 @@
       <c r="P15" t="n">
         <v>346.5558537601248</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.83063547669164 -37.74710978434142, 174.82075646230123 -37.749690615791565)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.8306354766916</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-37.74710978434142</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.8207564623012</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-37.74969061579156</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.8256959694965</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-37.74840020006649</v>
       </c>
     </row>
@@ -26904,27 +26923,28 @@
       <c r="P16" t="n">
         <v>347.8439719547399</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.83035417082746 -37.74641171383007, 174.82049802995155 -37.749046828748426)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.8303541708275</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-37.74641171383007</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.8204980299516</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-37.74904682874843</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.8254261003895</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-37.74772927128924</v>
       </c>
     </row>
@@ -26981,27 +27001,28 @@
       <c r="P17" t="n">
         <v>347.9024776469824</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.83006871090723 -37.74572353015436, 174.82022708775673 -37.74839241741776)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.8300687109072</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-37.74572353015436</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.8202270877567</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-37.74839241741776</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.825147899332</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-37.74705797378606</v>
       </c>
     </row>
@@ -27058,27 +27079,28 @@
       <c r="P18" t="n">
         <v>349.5609336089414</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.8297888758136 -37.74504854823398, 174.81994730305925 -37.74771742715708)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.8297888758136</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-37.74504854823398</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.8199473030593</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-37.74771742715708</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.8248680894364</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-37.74638298769553</v>
       </c>
     </row>
@@ -27135,27 +27157,28 @@
       <c r="P19" t="n">
         <v>341.1983031954783</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.82958407662738 -37.744568546788265, 174.81954944926184 -37.7467386889371)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.8295840766274</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-37.74456854678827</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.8195494492618</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-37.7467386889371</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.8245667629446</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-37.74565361786269</v>
       </c>
     </row>
@@ -27212,27 +27235,28 @@
       <c r="P20" t="n">
         <v>340.9953473049437</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.8294860188017 -37.74411945908486, 174.8192673966572 -37.74565748508872)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.8294860188017</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-37.74411945908486</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.8192673966572</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-37.74565748508872</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.8243767077295</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-37.74488847208679</v>
       </c>
     </row>
@@ -27289,27 +27313,28 @@
       <c r="P21" t="n">
         <v>343.2153367994516</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.82935171995098 -37.74345492370632, 174.81911134648405 -37.744898839051174)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.829351719951</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-37.74345492370632</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.819111346484</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-37.74489883905117</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.8242315332175</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-37.74417688137875</v>
       </c>
     </row>
@@ -27366,27 +27391,28 @@
       <c r="P22" t="n">
         <v>355.9762429748282</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.8291942796646 -37.742718625910925, 174.81897521000164 -37.74425426678837)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.8291942796646</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-37.74271862591092</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.8189752100016</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-37.74425426678837</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.8240847448331</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-37.74348644634965</v>
       </c>
     </row>
@@ -27443,27 +27469,28 @@
       <c r="P23" t="n">
         <v>356.1301797156886</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (174.82902566790352 -37.74199581503451, 174.8188217679079 -37.74359338631692)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>174.8290256679035</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-37.74199581503451</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>174.8188217679079</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-37.74359338631692</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>174.8239237179057</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-37.74279460067571</v>
       </c>
     </row>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X324"/>
+  <dimension ref="A1:X326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22166,6 +22166,160 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>341.05</v>
+      </c>
+      <c r="C325" t="n">
+        <v>341.6882352941176</v>
+      </c>
+      <c r="D325" t="n">
+        <v>350.48</v>
+      </c>
+      <c r="E325" t="n">
+        <v>354.96</v>
+      </c>
+      <c r="F325" t="n">
+        <v>332.75</v>
+      </c>
+      <c r="G325" t="n">
+        <v>338.4</v>
+      </c>
+      <c r="H325" t="n">
+        <v>333.0968421052632</v>
+      </c>
+      <c r="I325" t="n">
+        <v>339.11</v>
+      </c>
+      <c r="J325" t="n">
+        <v>331.4065217391304</v>
+      </c>
+      <c r="K325" t="n">
+        <v>331.2457142857143</v>
+      </c>
+      <c r="L325" t="n">
+        <v>330.9</v>
+      </c>
+      <c r="M325" t="n">
+        <v>352.24</v>
+      </c>
+      <c r="N325" t="n">
+        <v>366.6181818181818</v>
+      </c>
+      <c r="O325" t="n">
+        <v>357.1881818181818</v>
+      </c>
+      <c r="P325" t="n">
+        <v>356.9881818181818</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>360.17</v>
+      </c>
+      <c r="R325" t="n">
+        <v>360.02</v>
+      </c>
+      <c r="S325" t="n">
+        <v>356.4333333333333</v>
+      </c>
+      <c r="T325" t="n">
+        <v>363.2781818181818</v>
+      </c>
+      <c r="U325" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="V325" t="n">
+        <v>356.9581818181818</v>
+      </c>
+      <c r="W325" t="n">
+        <v>349.3681818181818</v>
+      </c>
+      <c r="X325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>349.3133333333333</v>
+      </c>
+      <c r="C326" t="n">
+        <v>330.7317647058824</v>
+      </c>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="n">
+        <v>332.805</v>
+      </c>
+      <c r="F326" t="n">
+        <v>330.8733333333333</v>
+      </c>
+      <c r="G326" t="n">
+        <v>325.43</v>
+      </c>
+      <c r="H326" t="n">
+        <v>307.2894736842105</v>
+      </c>
+      <c r="I326" t="n">
+        <v>325.245</v>
+      </c>
+      <c r="J326" t="n">
+        <v>305.8813043478261</v>
+      </c>
+      <c r="K326" t="n">
+        <v>318.6942857142857</v>
+      </c>
+      <c r="L326" t="n">
+        <v>330.12</v>
+      </c>
+      <c r="M326" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="N326" t="n">
+        <v>330.9981818181818</v>
+      </c>
+      <c r="O326" t="n">
+        <v>349.4981818181818</v>
+      </c>
+      <c r="P326" t="n">
+        <v>343.7081818181818</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>346.58</v>
+      </c>
+      <c r="R326" t="n">
+        <v>341.92</v>
+      </c>
+      <c r="S326" t="n">
+        <v>343.5111111111111</v>
+      </c>
+      <c r="T326" t="n">
+        <v>343.7781818181818</v>
+      </c>
+      <c r="U326" t="n">
+        <v>345.9033333333333</v>
+      </c>
+      <c r="V326" t="n">
+        <v>341.7881818181818</v>
+      </c>
+      <c r="W326" t="n">
+        <v>352.8781818181818</v>
+      </c>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22177,7 +22331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25635,6 +25789,26 @@
       </c>
       <c r="B345" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -25808,28 +25982,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4938309184507934</v>
+        <v>-0.4714531979364034</v>
       </c>
       <c r="J2" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04269785751401045</v>
+        <v>0.03934386234580045</v>
       </c>
       <c r="M2" t="n">
-        <v>12.95646817572524</v>
+        <v>12.96377995465568</v>
       </c>
       <c r="N2" t="n">
-        <v>301.3388986598548</v>
+        <v>301.0243250561701</v>
       </c>
       <c r="O2" t="n">
-        <v>17.35911572228997</v>
+        <v>17.35005259519896</v>
       </c>
       <c r="P2" t="n">
-        <v>342.0614963422181</v>
+        <v>341.834360240386</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25886,28 +26060,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2948657863383939</v>
+        <v>-0.2762650904447171</v>
       </c>
       <c r="J3" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K3" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0097634783355528</v>
+        <v>0.008675298381342733</v>
       </c>
       <c r="M3" t="n">
-        <v>16.52643841348975</v>
+        <v>16.48160071791013</v>
       </c>
       <c r="N3" t="n">
-        <v>476.3024061698738</v>
+        <v>474.0842076381927</v>
       </c>
       <c r="O3" t="n">
-        <v>21.82435351092613</v>
+        <v>21.77347486365446</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7553620568598</v>
+        <v>330.5640240411689</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25964,28 +26138,28 @@
         <v>0.0587</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2155973561742864</v>
+        <v>-0.1996020924595214</v>
       </c>
       <c r="J4" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003299087326907091</v>
+        <v>0.002845551908146948</v>
       </c>
       <c r="M4" t="n">
-        <v>19.6658889232463</v>
+        <v>19.64968351958423</v>
       </c>
       <c r="N4" t="n">
-        <v>748.0652983514841</v>
+        <v>746.6589011333078</v>
       </c>
       <c r="O4" t="n">
-        <v>27.3507824083971</v>
+        <v>27.32505994747876</v>
       </c>
       <c r="P4" t="n">
-        <v>335.6843820678477</v>
+        <v>335.5217724107445</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26042,28 +26216,28 @@
         <v>0.101</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5237833290680727</v>
+        <v>-0.4917419937040439</v>
       </c>
       <c r="J5" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K5" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0226308108994997</v>
+        <v>0.02018931281363823</v>
       </c>
       <c r="M5" t="n">
-        <v>19.19875145361527</v>
+        <v>19.1571870203529</v>
       </c>
       <c r="N5" t="n">
-        <v>608.3798314184891</v>
+        <v>607.513588216489</v>
       </c>
       <c r="O5" t="n">
-        <v>24.6653569083946</v>
+        <v>24.64779073703136</v>
       </c>
       <c r="P5" t="n">
-        <v>337.5151865752211</v>
+        <v>337.1802090903315</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26120,28 +26294,28 @@
         <v>0.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8748812915468677</v>
+        <v>-0.8512484175055309</v>
       </c>
       <c r="J6" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K6" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04272062021265621</v>
+        <v>0.0411162758550685</v>
       </c>
       <c r="M6" t="n">
-        <v>21.19697292012357</v>
+        <v>21.11105295289848</v>
       </c>
       <c r="N6" t="n">
-        <v>856.7702022206297</v>
+        <v>851.24094141297</v>
       </c>
       <c r="O6" t="n">
-        <v>29.27063720216268</v>
+        <v>29.17603368199608</v>
       </c>
       <c r="P6" t="n">
-        <v>340.0198040664077</v>
+        <v>339.7679266018492</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26198,28 +26372,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08524780851170538</v>
+        <v>0.1078940580089977</v>
       </c>
       <c r="J7" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006346050290415572</v>
+        <v>0.001028779194543694</v>
       </c>
       <c r="M7" t="n">
-        <v>18.77417963350978</v>
+        <v>18.71889151757852</v>
       </c>
       <c r="N7" t="n">
-        <v>594.638382393712</v>
+        <v>592.1045138067088</v>
       </c>
       <c r="O7" t="n">
-        <v>24.38520827046003</v>
+        <v>24.33319777190636</v>
       </c>
       <c r="P7" t="n">
-        <v>314.657293095326</v>
+        <v>314.4247146572534</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26276,28 +26450,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4221691653091995</v>
+        <v>-0.4101168087220682</v>
       </c>
       <c r="J8" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K8" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01641785533041218</v>
+        <v>0.01571454756703861</v>
       </c>
       <c r="M8" t="n">
-        <v>18.73754778084051</v>
+        <v>18.67032872233229</v>
       </c>
       <c r="N8" t="n">
-        <v>561.9741107516367</v>
+        <v>558.8506161863164</v>
       </c>
       <c r="O8" t="n">
-        <v>23.70599313995591</v>
+        <v>23.64002149293263</v>
       </c>
       <c r="P8" t="n">
-        <v>323.7940242758299</v>
+        <v>323.6692015970901</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26354,28 +26528,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2199143636914324</v>
+        <v>-0.1981851567619591</v>
       </c>
       <c r="J9" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K9" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0049838645413256</v>
+        <v>0.004107209451999272</v>
       </c>
       <c r="M9" t="n">
-        <v>16.5712020875145</v>
+        <v>16.49187984614754</v>
       </c>
       <c r="N9" t="n">
-        <v>512.2639468108085</v>
+        <v>509.6931726163208</v>
       </c>
       <c r="O9" t="n">
-        <v>22.63324870209331</v>
+        <v>22.57638528676194</v>
       </c>
       <c r="P9" t="n">
-        <v>324.7121573816074</v>
+        <v>324.4912438036862</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26432,28 +26606,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2654281859019174</v>
+        <v>-0.2515636558373344</v>
       </c>
       <c r="J10" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K10" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005683515368266168</v>
+        <v>0.005173110315245477</v>
       </c>
       <c r="M10" t="n">
-        <v>22.15342810000389</v>
+        <v>22.05804305759372</v>
       </c>
       <c r="N10" t="n">
-        <v>663.5342158292365</v>
+        <v>659.8424982338214</v>
       </c>
       <c r="O10" t="n">
-        <v>25.759157902176</v>
+        <v>25.68739960046212</v>
       </c>
       <c r="P10" t="n">
-        <v>316.6015240806688</v>
+        <v>316.4592783035912</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26510,28 +26684,28 @@
         <v>0.0885</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2614656640778583</v>
+        <v>-0.2449632394694453</v>
       </c>
       <c r="J11" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K11" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008018584019704567</v>
+        <v>0.007138380764290297</v>
       </c>
       <c r="M11" t="n">
-        <v>17.61280114276757</v>
+        <v>17.54415024476852</v>
       </c>
       <c r="N11" t="n">
-        <v>455.461079171126</v>
+        <v>452.9159332643125</v>
       </c>
       <c r="O11" t="n">
-        <v>21.34153413349486</v>
+        <v>21.28182166226173</v>
       </c>
       <c r="P11" t="n">
-        <v>321.0237827062732</v>
+        <v>320.8560071599308</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26588,28 +26762,28 @@
         <v>0.0554</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4774030627770585</v>
+        <v>-0.4726855355025932</v>
       </c>
       <c r="J12" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K12" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05010312901968184</v>
+        <v>0.04981645019648262</v>
       </c>
       <c r="M12" t="n">
-        <v>11.35024175894181</v>
+        <v>11.28750072661204</v>
       </c>
       <c r="N12" t="n">
-        <v>239.9302951589372</v>
+        <v>238.2278931066956</v>
       </c>
       <c r="O12" t="n">
-        <v>15.48968350738443</v>
+        <v>15.43463291130358</v>
       </c>
       <c r="P12" t="n">
-        <v>339.3101882129608</v>
+        <v>339.2631561574332</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26666,28 +26840,28 @@
         <v>0.0626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5040491445726641</v>
+        <v>-0.4656835985218548</v>
       </c>
       <c r="J13" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K13" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01426458026155886</v>
+        <v>0.01237779862222033</v>
       </c>
       <c r="M13" t="n">
-        <v>22.59839742185049</v>
+        <v>22.49415487047258</v>
       </c>
       <c r="N13" t="n">
-        <v>901.6640654839492</v>
+        <v>897.8602828094989</v>
       </c>
       <c r="O13" t="n">
-        <v>30.02772161659871</v>
+        <v>29.96431682534242</v>
       </c>
       <c r="P13" t="n">
-        <v>337.6322462880235</v>
+        <v>337.2397137007328</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26744,28 +26918,28 @@
         <v>0.0672</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6576120649817996</v>
+        <v>-0.6256025065502959</v>
       </c>
       <c r="J14" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04314746316689733</v>
+        <v>0.03934786481572305</v>
       </c>
       <c r="M14" t="n">
-        <v>17.41088225484559</v>
+        <v>17.38504313608375</v>
       </c>
       <c r="N14" t="n">
-        <v>514.5563179667296</v>
+        <v>516.4930020050172</v>
       </c>
       <c r="O14" t="n">
-        <v>22.68383384630406</v>
+        <v>22.72648239400495</v>
       </c>
       <c r="P14" t="n">
-        <v>344.5569085945487</v>
+        <v>344.2305466551909</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26822,28 +26996,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5114224875455088</v>
+        <v>-0.4825605525785956</v>
       </c>
       <c r="J15" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K15" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03602524087009318</v>
+        <v>0.03241543188858342</v>
       </c>
       <c r="M15" t="n">
-        <v>14.71978698835229</v>
+        <v>14.70867042099801</v>
       </c>
       <c r="N15" t="n">
-        <v>387.624178283235</v>
+        <v>387.7389582888235</v>
       </c>
       <c r="O15" t="n">
-        <v>19.68817356392499</v>
+        <v>19.691088296202</v>
       </c>
       <c r="P15" t="n">
-        <v>346.5558537601248</v>
+        <v>346.2679165741893</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26900,28 +27074,28 @@
         <v>0.0634</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7007396098451807</v>
+        <v>-0.6670734959894792</v>
       </c>
       <c r="J16" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K16" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04997634042544086</v>
+        <v>0.04586425422682505</v>
       </c>
       <c r="M16" t="n">
-        <v>17.31708604377392</v>
+        <v>17.29452821220292</v>
       </c>
       <c r="N16" t="n">
-        <v>475.7737173395085</v>
+        <v>475.5784481906259</v>
       </c>
       <c r="O16" t="n">
-        <v>21.81223778844134</v>
+        <v>21.80776119161767</v>
       </c>
       <c r="P16" t="n">
-        <v>347.8439719547399</v>
+        <v>347.4873960413483</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26978,28 +27152,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4951403079891303</v>
+        <v>-0.4682706443594613</v>
       </c>
       <c r="J17" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K17" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04123166122906607</v>
+        <v>0.03723240641775116</v>
       </c>
       <c r="M17" t="n">
-        <v>13.41825316303559</v>
+        <v>13.42716432664707</v>
       </c>
       <c r="N17" t="n">
-        <v>301.3310427488104</v>
+        <v>301.8627758941963</v>
       </c>
       <c r="O17" t="n">
-        <v>17.35888944457019</v>
+        <v>17.37419856840011</v>
       </c>
       <c r="P17" t="n">
-        <v>347.9024776469824</v>
+        <v>347.6250211194104</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27056,28 +27230,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5543298806341759</v>
+        <v>-0.530790326497787</v>
       </c>
       <c r="J18" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K18" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04319894541102798</v>
+        <v>0.04008666885031298</v>
       </c>
       <c r="M18" t="n">
-        <v>15.11378026154351</v>
+        <v>15.09563384724814</v>
       </c>
       <c r="N18" t="n">
-        <v>370.3137207526818</v>
+        <v>369.9085762143584</v>
       </c>
       <c r="O18" t="n">
-        <v>19.24353711646281</v>
+        <v>19.23300746670573</v>
       </c>
       <c r="P18" t="n">
-        <v>349.5609336089414</v>
+        <v>349.3245790879822</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27134,28 +27308,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1922885763909284</v>
+        <v>-0.1715212125188151</v>
       </c>
       <c r="J19" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K19" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00575614899643595</v>
+        <v>0.004637379254557539</v>
       </c>
       <c r="M19" t="n">
-        <v>14.73840776764459</v>
+        <v>14.71405786836069</v>
       </c>
       <c r="N19" t="n">
-        <v>346.6641604299168</v>
+        <v>345.7140941932037</v>
       </c>
       <c r="O19" t="n">
-        <v>18.61891942165057</v>
+        <v>18.59338845378119</v>
       </c>
       <c r="P19" t="n">
-        <v>341.1983031954783</v>
+        <v>340.9934033690448</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27212,28 +27386,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004349384102110172</v>
+        <v>0.02380570859019796</v>
       </c>
       <c r="J20" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K20" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L20" t="n">
-        <v>2.756602726861068e-06</v>
+        <v>8.348866572049918e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>15.03481322620724</v>
+        <v>15.00561142748738</v>
       </c>
       <c r="N20" t="n">
-        <v>372.2769027260265</v>
+        <v>371.2211261717412</v>
       </c>
       <c r="O20" t="n">
-        <v>19.29447855543203</v>
+        <v>19.26709957860137</v>
       </c>
       <c r="P20" t="n">
-        <v>340.9953473049437</v>
+        <v>340.8004354304812</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27290,28 +27464,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0299738405896529</v>
+        <v>-0.01331960386980154</v>
       </c>
       <c r="J21" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K21" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001789786400205884</v>
+        <v>3.571510989208715e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>12.52035858421135</v>
+        <v>12.50297805979812</v>
       </c>
       <c r="N21" t="n">
-        <v>264.5079188153866</v>
+        <v>263.8493849868969</v>
       </c>
       <c r="O21" t="n">
-        <v>16.26369941973186</v>
+        <v>16.24344129139195</v>
       </c>
       <c r="P21" t="n">
-        <v>343.2153367994516</v>
+        <v>343.0452820355175</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27368,28 +27542,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4957299664401625</v>
+        <v>-0.485762107190933</v>
       </c>
       <c r="J22" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K22" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0559011928222406</v>
+        <v>0.05446371769083069</v>
       </c>
       <c r="M22" t="n">
-        <v>11.13321691628022</v>
+        <v>11.1002581004637</v>
       </c>
       <c r="N22" t="n">
-        <v>223.1949936652633</v>
+        <v>222.0479785958059</v>
       </c>
       <c r="O22" t="n">
-        <v>14.93971196727913</v>
+        <v>14.90127439502427</v>
       </c>
       <c r="P22" t="n">
-        <v>355.9762429748282</v>
+        <v>355.8747564838941</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27446,28 +27620,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2896660697179708</v>
+        <v>-0.2859018448136342</v>
       </c>
       <c r="J23" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K23" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02252563034104471</v>
+        <v>0.02230011433379353</v>
       </c>
       <c r="M23" t="n">
-        <v>10.40626454929271</v>
+        <v>10.33750157417367</v>
       </c>
       <c r="N23" t="n">
-        <v>198.7183578906005</v>
+        <v>197.162490972225</v>
       </c>
       <c r="O23" t="n">
-        <v>14.09674990522995</v>
+        <v>14.04145615569215</v>
       </c>
       <c r="P23" t="n">
-        <v>356.1301797156886</v>
+        <v>356.0924367617831</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27505,7 +27679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X324"/>
+  <dimension ref="A1:X326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59869,6 +60043,246 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-37.757006185811754,174.82994706662305</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-37.75631013603961,174.82976882618195</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-37.75562898038357,174.82949997740928</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-37.754939274797934,174.82927897962153</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-37.75419587177078,174.82931051602017</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-37.75352180852949,174.82900941818022</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-37.752823453224586,174.82882876871116</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-37.7521537261087,174.82852224243388</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>-37.75145018019613,174.82836174364616</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>-37.75076574900564,174.8281191061887</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>-37.750078939021805,174.82787382445912</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>-37.74945786335343,174.8273746129552</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>-37.74882006351697,174.8269515650009</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>-37.74811571967254,174.82678537023583</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>-37.747438232618656,174.82651512051768</t>
+        </is>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>-37.746772470219966,174.82620114659923</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>-37.746097044927296,174.82592295409967</t>
+        </is>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>-37.74541259337037,174.8256817832831</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr">
+        <is>
+          <t>-37.744729141482814,174.82543604888718</t>
+        </is>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>-37.7440241066601,174.82531582195878</t>
+        </is>
+      </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>-37.74331676992062,174.82521462034458</t>
+        </is>
+      </c>
+      <c r="W325" t="inlineStr">
+        <is>
+          <t>-37.74260484754977,174.8251364097724</t>
+        </is>
+      </c>
+      <c r="X325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-37.75702128739944,174.8298552362833</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-37.75629011266554,174.82989058417124</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-37.75489429388247,174.82952394108048</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-37.75419143196024,174.8293310660609</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-37.75348939909732,174.8291508329871</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-37.7527586520175,174.82911003515466</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-37.75211850745147,174.82867320276836</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>-37.75138490903163,174.82863949496985</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>-37.750733424966946,174.82825559720263</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>-37.750076837816316,174.82788227092377</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>-37.74942254991013,174.8275109792579</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>-37.74872054961918,174.82733584730127</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>-37.74809406392018,174.82686826135574</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>-37.74740004820017,174.82665793559767</t>
+        </is>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>-37.74673289367957,174.8263470803067</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>-37.746044334737725,174.82611731597066</t>
+        </is>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>-37.74538199531709,174.8258232596266</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr">
+        <is>
+          <t>-37.74469641852293,174.82565344448562</t>
+        </is>
+      </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>-37.74399992934108,174.8254872768408</t>
+        </is>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>-37.74329135271412,174.82538374922066</t>
+        </is>
+      </c>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t>-37.742610965678,174.82509733518347</t>
+        </is>
+      </c>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X326"/>
+  <dimension ref="A1:X327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22320,6 +22320,84 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>347.4333333333333</v>
+      </c>
+      <c r="C327" t="n">
+        <v>329.03</v>
+      </c>
+      <c r="D327" t="n">
+        <v>336.01</v>
+      </c>
+      <c r="E327" t="n">
+        <v>327.82</v>
+      </c>
+      <c r="F327" t="n">
+        <v>332.9933333333333</v>
+      </c>
+      <c r="G327" t="n">
+        <v>315.05</v>
+      </c>
+      <c r="H327" t="n">
+        <v>308.2947368421052</v>
+      </c>
+      <c r="I327" t="n">
+        <v>318.91</v>
+      </c>
+      <c r="J327" t="n">
+        <v>294.8826086956522</v>
+      </c>
+      <c r="K327" t="n">
+        <v>314.7657142857143</v>
+      </c>
+      <c r="L327" t="n">
+        <v>339.61</v>
+      </c>
+      <c r="M327" t="n">
+        <v>307.15</v>
+      </c>
+      <c r="N327" t="n">
+        <v>328.8890909090909</v>
+      </c>
+      <c r="O327" t="n">
+        <v>341.0190909090909</v>
+      </c>
+      <c r="P327" t="n">
+        <v>345.0790909090909</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>347.8</v>
+      </c>
+      <c r="R327" t="n">
+        <v>334.59</v>
+      </c>
+      <c r="S327" t="n">
+        <v>330.3977777777778</v>
+      </c>
+      <c r="T327" t="n">
+        <v>332.5490909090909</v>
+      </c>
+      <c r="U327" t="n">
+        <v>343.2333333333333</v>
+      </c>
+      <c r="V327" t="n">
+        <v>343.9290909090909</v>
+      </c>
+      <c r="W327" t="n">
+        <v>357.6290909090909</v>
+      </c>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22331,7 +22409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25809,6 +25887,16 @@
       </c>
       <c r="B347" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -25982,28 +26070,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4714531979364034</v>
+        <v>-0.4589025085061801</v>
       </c>
       <c r="J2" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03934386234580045</v>
+        <v>0.03746499211647636</v>
       </c>
       <c r="M2" t="n">
-        <v>12.96377995465568</v>
+        <v>12.97452164778819</v>
       </c>
       <c r="N2" t="n">
-        <v>301.0243250561701</v>
+        <v>301.0661613532741</v>
       </c>
       <c r="O2" t="n">
-        <v>17.35005259519896</v>
+        <v>17.35125820663372</v>
       </c>
       <c r="P2" t="n">
-        <v>341.834360240386</v>
+        <v>341.7063308703567</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26060,28 +26148,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2762650904447171</v>
+        <v>-0.2722636915857377</v>
       </c>
       <c r="J3" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008675298381342733</v>
+        <v>0.00848576439089499</v>
       </c>
       <c r="M3" t="n">
-        <v>16.48160071791013</v>
+        <v>16.43535437301552</v>
       </c>
       <c r="N3" t="n">
-        <v>474.0842076381927</v>
+        <v>472.3393123641342</v>
       </c>
       <c r="O3" t="n">
-        <v>21.77347486365446</v>
+        <v>21.73336863820549</v>
       </c>
       <c r="P3" t="n">
-        <v>330.5640240411689</v>
+        <v>330.5225584010579</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26138,28 +26226,28 @@
         <v>0.0587</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1996020924595214</v>
+        <v>-0.1951455009499395</v>
       </c>
       <c r="J4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002845551908146948</v>
+        <v>0.002742196630291516</v>
       </c>
       <c r="M4" t="n">
-        <v>19.64968351958423</v>
+        <v>19.58671817407263</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6589011333078</v>
+        <v>743.7152469098974</v>
       </c>
       <c r="O4" t="n">
-        <v>27.32505994747876</v>
+        <v>27.27114311703669</v>
       </c>
       <c r="P4" t="n">
-        <v>335.5217724107445</v>
+        <v>335.4760707874165</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26216,28 +26304,28 @@
         <v>0.101</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4917419937040439</v>
+        <v>-0.4890545601337263</v>
       </c>
       <c r="J5" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K5" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02018931281363823</v>
+        <v>0.02013446520617246</v>
       </c>
       <c r="M5" t="n">
-        <v>19.1571870203529</v>
+        <v>19.0871659017366</v>
       </c>
       <c r="N5" t="n">
-        <v>607.513588216489</v>
+        <v>605.0275507349296</v>
       </c>
       <c r="O5" t="n">
-        <v>24.64779073703136</v>
+        <v>24.59730779445038</v>
       </c>
       <c r="P5" t="n">
-        <v>337.1802090903315</v>
+        <v>337.1519129960495</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26294,28 +26382,28 @@
         <v>0.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8512484175055309</v>
+        <v>-0.8386840357387418</v>
       </c>
       <c r="J6" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K6" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0411162758550685</v>
+        <v>0.04023834902256973</v>
       </c>
       <c r="M6" t="n">
-        <v>21.11105295289848</v>
+        <v>21.07091833300821</v>
       </c>
       <c r="N6" t="n">
-        <v>851.24094141297</v>
+        <v>848.6301643402207</v>
       </c>
       <c r="O6" t="n">
-        <v>29.17603368199608</v>
+        <v>29.13125751388396</v>
       </c>
       <c r="P6" t="n">
-        <v>339.7679266018492</v>
+        <v>339.6332971833258</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26372,28 +26460,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1078940580089977</v>
+        <v>0.106271252499958</v>
       </c>
       <c r="J7" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K7" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001028779194543694</v>
+        <v>0.001005939674213918</v>
       </c>
       <c r="M7" t="n">
-        <v>18.71889151757852</v>
+        <v>18.65742774118989</v>
       </c>
       <c r="N7" t="n">
-        <v>592.1045138067088</v>
+        <v>589.8621113964196</v>
       </c>
       <c r="O7" t="n">
-        <v>24.33319777190636</v>
+        <v>24.28707704513698</v>
       </c>
       <c r="P7" t="n">
-        <v>314.4247146572534</v>
+        <v>314.4414905165596</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26450,28 +26538,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4101168087220682</v>
+        <v>-0.4141557368165106</v>
       </c>
       <c r="J8" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K8" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01571454756703861</v>
+        <v>0.01615123960003406</v>
       </c>
       <c r="M8" t="n">
-        <v>18.67032872233229</v>
+        <v>18.61197179592111</v>
       </c>
       <c r="N8" t="n">
-        <v>558.8506161863164</v>
+        <v>556.4357968033581</v>
       </c>
       <c r="O8" t="n">
-        <v>23.64002149293263</v>
+        <v>23.58889138563655</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6692015970901</v>
+        <v>323.7115290229194</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26528,28 +26616,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1981851567619591</v>
+        <v>-0.1985767810741718</v>
       </c>
       <c r="J9" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K9" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004107209451999272</v>
+        <v>0.004159077730405136</v>
       </c>
       <c r="M9" t="n">
-        <v>16.49187984614754</v>
+        <v>16.42368045592833</v>
       </c>
       <c r="N9" t="n">
-        <v>509.6931726163208</v>
+        <v>507.4971676213257</v>
       </c>
       <c r="O9" t="n">
-        <v>22.57638528676194</v>
+        <v>22.52769778786385</v>
       </c>
       <c r="P9" t="n">
-        <v>324.4912438036862</v>
+        <v>324.4952537102664</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26606,28 +26694,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2515636558373344</v>
+        <v>-0.263477247682821</v>
       </c>
       <c r="J10" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K10" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005173110315245477</v>
+        <v>0.005708149567935861</v>
       </c>
       <c r="M10" t="n">
-        <v>22.05804305759372</v>
+        <v>22.03848072972549</v>
       </c>
       <c r="N10" t="n">
-        <v>659.8424982338214</v>
+        <v>657.9599860716952</v>
       </c>
       <c r="O10" t="n">
-        <v>25.68739960046212</v>
+        <v>25.65073071223694</v>
       </c>
       <c r="P10" t="n">
-        <v>316.4592783035912</v>
+        <v>316.5828631602639</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26684,28 +26772,28 @@
         <v>0.0885</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2449632394694453</v>
+        <v>-0.2447888069053891</v>
       </c>
       <c r="J11" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K11" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007138380764290297</v>
+        <v>0.007184928310059457</v>
       </c>
       <c r="M11" t="n">
-        <v>17.54415024476852</v>
+        <v>17.47216279175953</v>
       </c>
       <c r="N11" t="n">
-        <v>452.9159332643125</v>
+        <v>451.0368211303573</v>
       </c>
       <c r="O11" t="n">
-        <v>21.28182166226173</v>
+        <v>21.23762748355751</v>
       </c>
       <c r="P11" t="n">
-        <v>320.8560071599308</v>
+        <v>320.8542201627643</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26762,28 +26850,28 @@
         <v>0.0554</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4726855355025932</v>
+        <v>-0.4641247355827914</v>
       </c>
       <c r="J12" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K12" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04981645019648262</v>
+        <v>0.04832828880086926</v>
       </c>
       <c r="M12" t="n">
-        <v>11.28750072661204</v>
+        <v>11.28515679606578</v>
       </c>
       <c r="N12" t="n">
-        <v>238.2278931066956</v>
+        <v>237.919884807489</v>
       </c>
       <c r="O12" t="n">
-        <v>15.43463291130358</v>
+        <v>15.42465185368827</v>
       </c>
       <c r="P12" t="n">
-        <v>339.2631561574332</v>
+        <v>339.177281907145</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26840,28 +26928,28 @@
         <v>0.0626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4656835985218548</v>
+        <v>-0.4819971966433078</v>
       </c>
       <c r="J13" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K13" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01237779862222033</v>
+        <v>0.01335333170014419</v>
       </c>
       <c r="M13" t="n">
-        <v>22.49415487047258</v>
+        <v>22.51182542250652</v>
       </c>
       <c r="N13" t="n">
-        <v>897.8602828094989</v>
+        <v>895.2916324289687</v>
       </c>
       <c r="O13" t="n">
-        <v>29.96431682534242</v>
+        <v>29.92142430481826</v>
       </c>
       <c r="P13" t="n">
-        <v>337.2397137007328</v>
+        <v>337.4076106188034</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26918,28 +27006,28 @@
         <v>0.0672</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6256025065502959</v>
+        <v>-0.6250043233790983</v>
       </c>
       <c r="J14" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03934786481572305</v>
+        <v>0.0395702526788686</v>
       </c>
       <c r="M14" t="n">
-        <v>17.38504313608375</v>
+        <v>17.31656007348188</v>
       </c>
       <c r="N14" t="n">
-        <v>516.4930020050172</v>
+        <v>514.3959207909994</v>
       </c>
       <c r="O14" t="n">
-        <v>22.72648239400495</v>
+        <v>22.68029807544423</v>
       </c>
       <c r="P14" t="n">
-        <v>344.2305466551909</v>
+        <v>344.2243956196566</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26996,28 +27084,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4825605525785956</v>
+        <v>-0.4773475707086082</v>
       </c>
       <c r="J15" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03241543188858342</v>
+        <v>0.03195708453123325</v>
       </c>
       <c r="M15" t="n">
-        <v>14.70867042099801</v>
+        <v>14.66944039838602</v>
       </c>
       <c r="N15" t="n">
-        <v>387.7389582888235</v>
+        <v>386.413710878668</v>
       </c>
       <c r="O15" t="n">
-        <v>19.691088296202</v>
+        <v>19.65740854941637</v>
       </c>
       <c r="P15" t="n">
-        <v>346.2679165741893</v>
+        <v>346.2155744879188</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27074,28 +27162,28 @@
         <v>0.0634</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6670734959894792</v>
+        <v>-0.6549171964083831</v>
       </c>
       <c r="J16" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K16" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04586425422682505</v>
+        <v>0.04454761006399832</v>
       </c>
       <c r="M16" t="n">
-        <v>17.29452821220292</v>
+        <v>17.26657282508697</v>
       </c>
       <c r="N16" t="n">
-        <v>475.5784481906259</v>
+        <v>474.4690707669276</v>
       </c>
       <c r="O16" t="n">
-        <v>21.80776119161767</v>
+        <v>21.7823109602018</v>
       </c>
       <c r="P16" t="n">
-        <v>347.4873960413483</v>
+        <v>347.3578092115898</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27152,28 +27240,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4682706443594613</v>
+        <v>-0.4592048882511543</v>
       </c>
       <c r="J17" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K17" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03723240641775116</v>
+        <v>0.03604970852611888</v>
       </c>
       <c r="M17" t="n">
-        <v>13.42716432664707</v>
+        <v>13.41248200849995</v>
       </c>
       <c r="N17" t="n">
-        <v>301.8627758941963</v>
+        <v>301.2604764871271</v>
       </c>
       <c r="O17" t="n">
-        <v>17.37419856840011</v>
+        <v>17.35685675711841</v>
       </c>
       <c r="P17" t="n">
-        <v>347.6250211194104</v>
+        <v>347.530768929135</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27230,28 +27318,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.530790326497787</v>
+        <v>-0.5315832340646239</v>
       </c>
       <c r="J18" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K18" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04008666885031298</v>
+        <v>0.04050572242353412</v>
       </c>
       <c r="M18" t="n">
-        <v>15.09563384724814</v>
+        <v>15.03986967177508</v>
       </c>
       <c r="N18" t="n">
-        <v>369.9085762143584</v>
+        <v>368.4273834593232</v>
       </c>
       <c r="O18" t="n">
-        <v>19.23300746670573</v>
+        <v>19.19446231232652</v>
       </c>
       <c r="P18" t="n">
-        <v>349.3245790879822</v>
+        <v>349.3326007797858</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27308,28 +27396,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1715212125188151</v>
+        <v>-0.1762021243759841</v>
       </c>
       <c r="J19" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K19" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004637379254557539</v>
+        <v>0.004930631463861412</v>
       </c>
       <c r="M19" t="n">
-        <v>14.71405786836069</v>
+        <v>14.68416776882823</v>
       </c>
       <c r="N19" t="n">
-        <v>345.7140941932037</v>
+        <v>344.5154355401955</v>
       </c>
       <c r="O19" t="n">
-        <v>18.59338845378119</v>
+        <v>18.56112700080993</v>
       </c>
       <c r="P19" t="n">
-        <v>340.9934033690448</v>
+        <v>341.0399024657929</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27386,28 +27474,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02380570859019796</v>
+        <v>0.01684075772418498</v>
       </c>
       <c r="J20" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K20" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L20" t="n">
-        <v>8.348866572049918e-05</v>
+        <v>4.209260279319782e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>15.00561142748738</v>
+        <v>14.98222068197321</v>
       </c>
       <c r="N20" t="n">
-        <v>371.2211261717412</v>
+        <v>370.0028680285739</v>
       </c>
       <c r="O20" t="n">
-        <v>19.26709957860137</v>
+        <v>19.23545861237974</v>
       </c>
       <c r="P20" t="n">
-        <v>340.8004354304812</v>
+        <v>340.8707814182133</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27464,28 +27552,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01331960386980154</v>
+        <v>-0.01292070200453436</v>
       </c>
       <c r="J21" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K21" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L21" t="n">
-        <v>3.571510989208715e-05</v>
+        <v>3.387143396205161e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>12.50297805979812</v>
+        <v>12.45641280991407</v>
       </c>
       <c r="N21" t="n">
-        <v>263.8493849868969</v>
+        <v>262.8277948476464</v>
       </c>
       <c r="O21" t="n">
-        <v>16.24344129139195</v>
+        <v>16.21196455854892</v>
       </c>
       <c r="P21" t="n">
-        <v>343.0452820355175</v>
+        <v>343.0411779096888</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27542,28 +27630,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.485762107190933</v>
+        <v>-0.4852894259791228</v>
       </c>
       <c r="J22" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K22" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05446371769083069</v>
+        <v>0.05479451580867001</v>
       </c>
       <c r="M22" t="n">
-        <v>11.1002581004637</v>
+        <v>11.05382755117307</v>
       </c>
       <c r="N22" t="n">
-        <v>222.0479785958059</v>
+        <v>221.071242145204</v>
       </c>
       <c r="O22" t="n">
-        <v>14.90127439502427</v>
+        <v>14.86846468688694</v>
       </c>
       <c r="P22" t="n">
-        <v>355.8747564838941</v>
+        <v>355.869895761806</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27620,28 +27708,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2859018448136342</v>
+        <v>-0.2790427272418042</v>
       </c>
       <c r="J23" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K23" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02230011433379353</v>
+        <v>0.02140035175408805</v>
       </c>
       <c r="M23" t="n">
-        <v>10.33750157417367</v>
+        <v>10.3253633360392</v>
       </c>
       <c r="N23" t="n">
-        <v>197.162490972225</v>
+        <v>196.6776470851735</v>
       </c>
       <c r="O23" t="n">
-        <v>14.04145615569215</v>
+        <v>14.02418079907605</v>
       </c>
       <c r="P23" t="n">
-        <v>356.0924367617831</v>
+        <v>356.0234488180256</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27679,7 +27767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X326"/>
+  <dimension ref="A1:X327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60283,6 +60371,128 @@
         </is>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-37.75701785162692,174.8298761287078</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-37.75628700261352,174.8299094956791</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-37.75560253618405,174.8296607794519</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-37.754884172853515,174.8295790587472</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-37.75419644744755,174.82930785144987</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-37.75346346143624,174.82926400835194</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-37.75276117620295,174.8290990791153</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-37.75210241577675,174.82874217738245</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>-37.751356783796815,174.82875917654567</t>
+        </is>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>-37.75072330757717,174.82829831858473</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>-37.75010240244283,174.82777950556988</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>-37.74933189087618,174.8278610645966</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>-37.748714657276984,174.82735860095386</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>-37.74807018594845,174.82695965809063</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>-37.74740399002777,174.82664319264606</t>
+        </is>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>-37.74673644654767,174.82633397956843</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>-37.74602298847769,174.8261960270775</t>
+        </is>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>-37.74535094456805,174.82596682818573</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr">
+        <is>
+          <t>-37.74467757479994,174.82577863182422</t>
+        </is>
+      </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>-37.74399572296649,174.82551710640277</t>
+        </is>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>-37.743294939803704,174.82535988043801</t>
+        </is>
+      </c>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>-37.74261924676044,174.82504444633489</t>
+        </is>
+      </c>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X327"/>
+  <dimension ref="A1:X328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22398,6 +22398,66 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>326.2066666666667</v>
+      </c>
+      <c r="C328" t="n">
+        <v>310.8294117647059</v>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="n">
+        <v>286.46</v>
+      </c>
+      <c r="H328" t="n">
+        <v>270.0284210526316</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>274.7304347826087</v>
+      </c>
+      <c r="K328" t="n">
+        <v>328.4571428571429</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="inlineStr"/>
+      <c r="O328" t="n">
+        <v>312.5536363636364</v>
+      </c>
+      <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr"/>
+      <c r="R328" t="n">
+        <v>345.99</v>
+      </c>
+      <c r="S328" t="n">
+        <v>350.0188888888889</v>
+      </c>
+      <c r="T328" t="n">
+        <v>344.9436363636364</v>
+      </c>
+      <c r="U328" t="n">
+        <v>354.4366666666667</v>
+      </c>
+      <c r="V328" t="n">
+        <v>352.3836363636364</v>
+      </c>
+      <c r="W328" t="n">
+        <v>342.4036363636364</v>
+      </c>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22409,7 +22469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25897,6 +25957,16 @@
       </c>
       <c r="B348" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -26070,28 +26140,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4589025085061801</v>
+        <v>-0.4614604447281807</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03746499211647636</v>
+        <v>0.03812473003990935</v>
       </c>
       <c r="M2" t="n">
-        <v>12.97452164778819</v>
+        <v>12.93930564171763</v>
       </c>
       <c r="N2" t="n">
-        <v>301.0661613532741</v>
+        <v>299.9407196623023</v>
       </c>
       <c r="O2" t="n">
-        <v>17.35125820663372</v>
+        <v>17.31879671519653</v>
       </c>
       <c r="P2" t="n">
-        <v>341.7063308703567</v>
+        <v>341.7325775610713</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26148,28 +26218,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2722636915857377</v>
+        <v>-0.2813166573431085</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00848576439089499</v>
+        <v>0.009107256126056118</v>
       </c>
       <c r="M3" t="n">
-        <v>16.43535437301552</v>
+        <v>16.42794247389266</v>
       </c>
       <c r="N3" t="n">
-        <v>472.3393123641342</v>
+        <v>471.1070501552857</v>
       </c>
       <c r="O3" t="n">
-        <v>21.73336863820549</v>
+        <v>21.70500057948135</v>
       </c>
       <c r="P3" t="n">
-        <v>330.5225584010579</v>
+        <v>330.6169159033225</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26229,7 +26299,7 @@
         <v>-0.1951455009499395</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
         <v>243</v>
@@ -26307,7 +26377,7 @@
         <v>-0.4890545601337263</v>
       </c>
       <c r="J5" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
         <v>240</v>
@@ -26385,7 +26455,7 @@
         <v>-0.8386840357387418</v>
       </c>
       <c r="J6" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K6" t="n">
         <v>239</v>
@@ -26460,28 +26530,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.106271252499958</v>
+        <v>0.08316893856786732</v>
       </c>
       <c r="J7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K7" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001005939674213918</v>
+        <v>0.0006175200849306561</v>
       </c>
       <c r="M7" t="n">
-        <v>18.65742774118989</v>
+        <v>18.72762288855142</v>
       </c>
       <c r="N7" t="n">
-        <v>589.8621113964196</v>
+        <v>591.168713854192</v>
       </c>
       <c r="O7" t="n">
-        <v>24.28707704513698</v>
+        <v>24.31396129498836</v>
       </c>
       <c r="P7" t="n">
-        <v>314.4414905165596</v>
+        <v>314.6815364648838</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26538,28 +26608,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4141557368165106</v>
+        <v>-0.4502184721701217</v>
       </c>
       <c r="J8" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K8" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01615123960003406</v>
+        <v>0.01891583142077236</v>
       </c>
       <c r="M8" t="n">
-        <v>18.61197179592111</v>
+        <v>18.7620111327111</v>
       </c>
       <c r="N8" t="n">
-        <v>556.4357968033581</v>
+        <v>562.1103578588961</v>
       </c>
       <c r="O8" t="n">
-        <v>23.58889138563655</v>
+        <v>23.70886665066249</v>
       </c>
       <c r="P8" t="n">
-        <v>323.7115290229194</v>
+        <v>324.0915653417304</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26619,7 +26689,7 @@
         <v>-0.1985767810741718</v>
       </c>
       <c r="J9" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K9" t="n">
         <v>232</v>
@@ -26694,28 +26764,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.263477247682821</v>
+        <v>-0.2910963382667674</v>
       </c>
       <c r="J10" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K10" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005708149567935861</v>
+        <v>0.006958802325779723</v>
       </c>
       <c r="M10" t="n">
-        <v>22.03848072972549</v>
+        <v>22.11683908113156</v>
       </c>
       <c r="N10" t="n">
-        <v>657.9599860716952</v>
+        <v>660.3490958223373</v>
       </c>
       <c r="O10" t="n">
-        <v>25.65073071223694</v>
+        <v>25.69725852736703</v>
       </c>
       <c r="P10" t="n">
-        <v>316.5828631602639</v>
+        <v>316.8710213401849</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26772,28 +26842,28 @@
         <v>0.0885</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2447888069053891</v>
+        <v>-0.2339858819674988</v>
       </c>
       <c r="J11" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K11" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007184928310059457</v>
+        <v>0.006609726612825995</v>
       </c>
       <c r="M11" t="n">
-        <v>17.47216279175953</v>
+        <v>17.4493434948069</v>
       </c>
       <c r="N11" t="n">
-        <v>451.0368211303573</v>
+        <v>449.9663558292094</v>
       </c>
       <c r="O11" t="n">
-        <v>21.23762748355751</v>
+        <v>21.21241042006329</v>
       </c>
       <c r="P11" t="n">
-        <v>320.8542201627643</v>
+        <v>320.7429339426612</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26853,7 +26923,7 @@
         <v>-0.4641247355827914</v>
       </c>
       <c r="J12" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K12" t="n">
         <v>269</v>
@@ -26931,7 +27001,7 @@
         <v>-0.4819971966433078</v>
       </c>
       <c r="J13" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K13" t="n">
         <v>224</v>
@@ -27009,7 +27079,7 @@
         <v>-0.6250043233790983</v>
       </c>
       <c r="J14" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K14" t="n">
         <v>246</v>
@@ -27084,28 +27154,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4773475707086082</v>
+        <v>-0.492776128069486</v>
       </c>
       <c r="J15" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K15" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03195708453123325</v>
+        <v>0.03408395219363702</v>
       </c>
       <c r="M15" t="n">
-        <v>14.66944039838602</v>
+        <v>14.72269758480245</v>
       </c>
       <c r="N15" t="n">
-        <v>386.413710878668</v>
+        <v>386.657825007203</v>
       </c>
       <c r="O15" t="n">
-        <v>19.65740854941637</v>
+        <v>19.66361678347101</v>
       </c>
       <c r="P15" t="n">
-        <v>346.2155744879188</v>
+        <v>346.3713692163249</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27165,7 +27235,7 @@
         <v>-0.6549171964083831</v>
       </c>
       <c r="J16" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K16" t="n">
         <v>234</v>
@@ -27243,7 +27313,7 @@
         <v>-0.4592048882511543</v>
       </c>
       <c r="J17" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K17" t="n">
         <v>255</v>
@@ -27318,28 +27388,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5315832340646239</v>
+        <v>-0.5237332591442763</v>
       </c>
       <c r="J18" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K18" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04050572242353412</v>
+        <v>0.03962044873042991</v>
       </c>
       <c r="M18" t="n">
-        <v>15.03986967177508</v>
+        <v>15.01462899723883</v>
       </c>
       <c r="N18" t="n">
-        <v>368.4273834593232</v>
+        <v>367.3828057794257</v>
       </c>
       <c r="O18" t="n">
-        <v>19.19446231232652</v>
+        <v>19.16723260618042</v>
       </c>
       <c r="P18" t="n">
-        <v>349.3326007797858</v>
+        <v>349.2527461298918</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27396,28 +27466,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1762021243759841</v>
+        <v>-0.1659556997973692</v>
       </c>
       <c r="J19" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K19" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004930631463861412</v>
+        <v>0.004403303759158428</v>
       </c>
       <c r="M19" t="n">
-        <v>14.68416776882823</v>
+        <v>14.67206153919782</v>
       </c>
       <c r="N19" t="n">
-        <v>344.5154355401955</v>
+        <v>343.8822135409093</v>
       </c>
       <c r="O19" t="n">
-        <v>18.56112700080993</v>
+        <v>18.54406140900394</v>
       </c>
       <c r="P19" t="n">
-        <v>341.0399024657929</v>
+        <v>340.9375847697721</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27474,28 +27544,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01684075772418498</v>
+        <v>0.01969257994864573</v>
       </c>
       <c r="J20" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K20" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L20" t="n">
-        <v>4.209260279319782e-05</v>
+        <v>5.802437253243919e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>14.98222068197321</v>
+        <v>14.93431162732603</v>
       </c>
       <c r="N20" t="n">
-        <v>370.0028680285739</v>
+        <v>368.5279122956698</v>
       </c>
       <c r="O20" t="n">
-        <v>19.23545861237974</v>
+        <v>19.19708082745056</v>
       </c>
       <c r="P20" t="n">
-        <v>340.8707814182133</v>
+        <v>340.8418210461784</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27552,28 +27622,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01292070200453436</v>
+        <v>-0.00412620736350595</v>
       </c>
       <c r="J21" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K21" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L21" t="n">
-        <v>3.387143396205161e-05</v>
+        <v>3.474707912620723e-06</v>
       </c>
       <c r="M21" t="n">
-        <v>12.45641280991407</v>
+        <v>12.451435446647</v>
       </c>
       <c r="N21" t="n">
-        <v>262.8277948476464</v>
+        <v>262.3380698194462</v>
       </c>
       <c r="O21" t="n">
-        <v>16.21196455854892</v>
+        <v>16.19685370124229</v>
       </c>
       <c r="P21" t="n">
-        <v>343.0411779096888</v>
+        <v>342.9502187201473</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27630,28 +27700,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4852894259791228</v>
+        <v>-0.4778693169222125</v>
       </c>
       <c r="J22" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K22" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05479451580867001</v>
+        <v>0.05356263509297698</v>
       </c>
       <c r="M22" t="n">
-        <v>11.05382755117307</v>
+        <v>11.04353708151165</v>
       </c>
       <c r="N22" t="n">
-        <v>221.071242145204</v>
+        <v>220.45844254689</v>
       </c>
       <c r="O22" t="n">
-        <v>14.86846468688694</v>
+        <v>14.84784302674601</v>
       </c>
       <c r="P22" t="n">
-        <v>355.869895761806</v>
+        <v>355.7931652374299</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27708,28 +27778,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2790427272418042</v>
+        <v>-0.2839592428930902</v>
       </c>
       <c r="J23" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K23" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02140035175408805</v>
+        <v>0.02230267543904652</v>
       </c>
       <c r="M23" t="n">
-        <v>10.3253633360392</v>
+        <v>10.31353667853518</v>
       </c>
       <c r="N23" t="n">
-        <v>196.6776470851735</v>
+        <v>196.0424053284318</v>
       </c>
       <c r="O23" t="n">
-        <v>14.02418079907605</v>
+        <v>14.00151439410866</v>
       </c>
       <c r="P23" t="n">
-        <v>356.0234488180256</v>
+        <v>356.0731693667987</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27767,7 +27837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X327"/>
+  <dimension ref="A1:X328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60414,7 +60484,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>-37.75210241577675,174.82874217738245</t>
+          <t>-37.752102415776754,174.82874217738245</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -60490,6 +60560,92 @@
       <c r="X327" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-37.75697905882103,174.83011202033524</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-37.756253740027425,174.83011175653488</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-37.753392019869594,174.82957573081987</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-37.752665089931675,174.82951613081227</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>-37.75130525150172,174.82897846083978</t>
+        </is>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>-37.75075856753447,174.82814943063144</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="inlineStr"/>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>-37.74799002386094,174.82726648883752</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr"/>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>-37.74605618727733,174.8260736114203</t>
+        </is>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>-37.74539740486489,174.82575201054962</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>-37.74469837428394,174.82564045143053</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>-37.74401337288515,174.82539194138707</t>
+        </is>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>-37.74330910533373,174.82526562152663</t>
+        </is>
+      </c>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>-37.74259270791585,174.82521394158965</t>
+        </is>
+      </c>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X328"/>
+  <dimension ref="A1:X329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22410,16 +22410,24 @@
       <c r="C328" t="n">
         <v>310.8294117647059</v>
       </c>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr"/>
-      <c r="F328" t="inlineStr"/>
+      <c r="D328" t="n">
+        <v>267.66</v>
+      </c>
+      <c r="E328" t="n">
+        <v>266.935</v>
+      </c>
+      <c r="F328" t="n">
+        <v>283.6766666666667</v>
+      </c>
       <c r="G328" t="n">
         <v>286.46</v>
       </c>
       <c r="H328" t="n">
         <v>270.0284210526316</v>
       </c>
-      <c r="I328" t="inlineStr"/>
+      <c r="I328" t="n">
+        <v>272.755</v>
+      </c>
       <c r="J328" t="n">
         <v>274.7304347826087</v>
       </c>
@@ -22427,7 +22435,9 @@
         <v>328.4571428571429</v>
       </c>
       <c r="L328" t="inlineStr"/>
-      <c r="M328" t="inlineStr"/>
+      <c r="M328" t="n">
+        <v>261.72</v>
+      </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="n">
         <v>312.5536363636364</v>
@@ -22455,6 +22465,84 @@
       <c r="X328" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>341.6833333333333</v>
+      </c>
+      <c r="C329" t="n">
+        <v>312.7229411764706</v>
+      </c>
+      <c r="D329" t="n">
+        <v>268.01</v>
+      </c>
+      <c r="E329" t="n">
+        <v>277.01</v>
+      </c>
+      <c r="F329" t="n">
+        <v>281.5033333333333</v>
+      </c>
+      <c r="G329" t="n">
+        <v>288.08</v>
+      </c>
+      <c r="H329" t="n">
+        <v>271.8652631578948</v>
+      </c>
+      <c r="I329" t="n">
+        <v>274.35</v>
+      </c>
+      <c r="J329" t="n">
+        <v>274.2691304347826</v>
+      </c>
+      <c r="K329" t="n">
+        <v>340.4871428571428</v>
+      </c>
+      <c r="L329" t="n">
+        <v>345.66</v>
+      </c>
+      <c r="M329" t="n">
+        <v>261.61</v>
+      </c>
+      <c r="N329" t="n">
+        <v>342.6663636363636</v>
+      </c>
+      <c r="O329" t="n">
+        <v>336.8363636363636</v>
+      </c>
+      <c r="P329" t="n">
+        <v>358.2963636363637</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>346.65</v>
+      </c>
+      <c r="R329" t="n">
+        <v>360.89</v>
+      </c>
+      <c r="S329" t="n">
+        <v>365.5044444444445</v>
+      </c>
+      <c r="T329" t="n">
+        <v>368.8263636363636</v>
+      </c>
+      <c r="U329" t="n">
+        <v>351.6333333333333</v>
+      </c>
+      <c r="V329" t="n">
+        <v>361.4363636363637</v>
+      </c>
+      <c r="W329" t="n">
+        <v>343.3963636363636</v>
+      </c>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22469,7 +22557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25967,6 +26055,16 @@
       </c>
       <c r="B349" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -26140,28 +26238,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4614604447281807</v>
+        <v>-0.453118366778463</v>
       </c>
       <c r="J2" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03812473003990935</v>
+        <v>0.03699717054528262</v>
       </c>
       <c r="M2" t="n">
-        <v>12.93930564171763</v>
+        <v>12.93064981556027</v>
       </c>
       <c r="N2" t="n">
-        <v>299.9407196623023</v>
+        <v>299.3193126150499</v>
       </c>
       <c r="O2" t="n">
-        <v>17.31879671519653</v>
+        <v>17.30084716466364</v>
       </c>
       <c r="P2" t="n">
-        <v>341.7325775610713</v>
+        <v>341.646880703444</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26218,28 +26316,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2813166573431085</v>
+        <v>-0.2888423487885488</v>
       </c>
       <c r="J3" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009107256126056118</v>
+        <v>0.0096554490905294</v>
       </c>
       <c r="M3" t="n">
-        <v>16.42794247389266</v>
+        <v>16.41135549242189</v>
       </c>
       <c r="N3" t="n">
-        <v>471.1070501552857</v>
+        <v>469.7012651399913</v>
       </c>
       <c r="O3" t="n">
-        <v>21.70500057948135</v>
+        <v>21.67259248774801</v>
       </c>
       <c r="P3" t="n">
-        <v>330.6169159033225</v>
+        <v>330.6954450758361</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26296,28 +26394,28 @@
         <v>0.0587</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1951455009499395</v>
+        <v>-0.2928792151733979</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002742196630291516</v>
+        <v>0.006004620998950161</v>
       </c>
       <c r="M4" t="n">
-        <v>19.58671817407263</v>
+        <v>20.05462589353759</v>
       </c>
       <c r="N4" t="n">
-        <v>743.7152469098974</v>
+        <v>768.8425130338665</v>
       </c>
       <c r="O4" t="n">
-        <v>27.27114311703669</v>
+        <v>27.72800953970311</v>
       </c>
       <c r="P4" t="n">
-        <v>335.4760707874165</v>
+        <v>336.4841778804731</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26374,28 +26472,28 @@
         <v>0.101</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4890545601337263</v>
+        <v>-0.5730503650300985</v>
       </c>
       <c r="J5" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02013446520617246</v>
+        <v>0.02690408732949123</v>
       </c>
       <c r="M5" t="n">
-        <v>19.0871659017366</v>
+        <v>19.47671523979379</v>
       </c>
       <c r="N5" t="n">
-        <v>605.0275507349296</v>
+        <v>622.4694839956118</v>
       </c>
       <c r="O5" t="n">
-        <v>24.59730779445038</v>
+        <v>24.94933834785227</v>
       </c>
       <c r="P5" t="n">
-        <v>337.1519129960495</v>
+        <v>338.0413500813601</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26452,28 +26550,28 @@
         <v>0.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8386840357387418</v>
+        <v>-0.8964336985713013</v>
       </c>
       <c r="J6" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04023834902256973</v>
+        <v>0.04591695003589213</v>
       </c>
       <c r="M6" t="n">
-        <v>21.07091833300821</v>
+        <v>21.25109240629945</v>
       </c>
       <c r="N6" t="n">
-        <v>848.6301643402207</v>
+        <v>851.6946852211439</v>
       </c>
       <c r="O6" t="n">
-        <v>29.13125751388396</v>
+        <v>29.18380861404392</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6332971833258</v>
+        <v>340.255572447113</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26530,28 +26628,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08316893856786732</v>
+        <v>0.06175700596868768</v>
       </c>
       <c r="J7" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006175200849306561</v>
+        <v>0.0003414604735990645</v>
       </c>
       <c r="M7" t="n">
-        <v>18.72762288855142</v>
+        <v>18.79003290717049</v>
       </c>
       <c r="N7" t="n">
-        <v>591.168713854192</v>
+        <v>592.0256050619402</v>
       </c>
       <c r="O7" t="n">
-        <v>24.31396129498836</v>
+        <v>24.33157629628504</v>
       </c>
       <c r="P7" t="n">
-        <v>314.6815364648838</v>
+        <v>314.9042451413198</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26608,28 +26706,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4502184721701217</v>
+        <v>-0.4839055011649386</v>
       </c>
       <c r="J8" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01891583142077236</v>
+        <v>0.02169257802583269</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7620111327111</v>
+        <v>18.90203205410478</v>
       </c>
       <c r="N8" t="n">
-        <v>562.1103578588961</v>
+        <v>566.8517399832868</v>
       </c>
       <c r="O8" t="n">
-        <v>23.70886665066249</v>
+        <v>23.80864842831879</v>
       </c>
       <c r="P8" t="n">
-        <v>324.0915653417304</v>
+        <v>324.4469589444615</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26686,28 +26784,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1985767810741718</v>
+        <v>-0.2734823284519153</v>
       </c>
       <c r="J9" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K9" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004159077730405136</v>
+        <v>0.007728732374211456</v>
       </c>
       <c r="M9" t="n">
-        <v>16.42368045592833</v>
+        <v>16.83196351411999</v>
       </c>
       <c r="N9" t="n">
-        <v>507.4971676213257</v>
+        <v>520.6358373646282</v>
       </c>
       <c r="O9" t="n">
-        <v>22.52769778786385</v>
+        <v>22.81744589923746</v>
       </c>
       <c r="P9" t="n">
-        <v>324.4952537102664</v>
+        <v>325.2666974436032</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26764,28 +26862,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2910963382667674</v>
+        <v>-0.3184637230298017</v>
       </c>
       <c r="J10" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K10" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006958802325779723</v>
+        <v>0.008316964347225841</v>
       </c>
       <c r="M10" t="n">
-        <v>22.11683908113156</v>
+        <v>22.19257523358904</v>
       </c>
       <c r="N10" t="n">
-        <v>660.3490958223373</v>
+        <v>662.7266300226352</v>
       </c>
       <c r="O10" t="n">
-        <v>25.69725852736703</v>
+        <v>25.74347742677036</v>
       </c>
       <c r="P10" t="n">
-        <v>316.8710213401849</v>
+        <v>317.1568807622675</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26842,28 +26940,28 @@
         <v>0.0885</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2339858819674988</v>
+        <v>-0.2141840754130855</v>
       </c>
       <c r="J11" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006609726612825995</v>
+        <v>0.005554709002045244</v>
       </c>
       <c r="M11" t="n">
-        <v>17.4493434948069</v>
+        <v>17.46953816656229</v>
       </c>
       <c r="N11" t="n">
-        <v>449.9663558292094</v>
+        <v>450.822590202373</v>
       </c>
       <c r="O11" t="n">
-        <v>21.21241042006329</v>
+        <v>21.23258322019186</v>
       </c>
       <c r="P11" t="n">
-        <v>320.7429339426612</v>
+        <v>320.5387208044264</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26920,28 +27018,28 @@
         <v>0.0554</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4641247355827914</v>
+        <v>-0.4514590088790444</v>
       </c>
       <c r="J12" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K12" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04832828880086926</v>
+        <v>0.04592849057449544</v>
       </c>
       <c r="M12" t="n">
-        <v>11.28515679606578</v>
+        <v>11.30396506289567</v>
       </c>
       <c r="N12" t="n">
-        <v>237.919884807489</v>
+        <v>238.2937519762332</v>
       </c>
       <c r="O12" t="n">
-        <v>15.42465185368827</v>
+        <v>15.4367662409014</v>
       </c>
       <c r="P12" t="n">
-        <v>339.177281907145</v>
+        <v>339.0493628716677</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26998,28 +27096,28 @@
         <v>0.0626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4819971966433078</v>
+        <v>-0.594244478307654</v>
       </c>
       <c r="J13" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K13" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01335333170014419</v>
+        <v>0.01978556866035175</v>
       </c>
       <c r="M13" t="n">
-        <v>22.51182542250652</v>
+        <v>23.11987567352121</v>
       </c>
       <c r="N13" t="n">
-        <v>895.2916324289687</v>
+        <v>921.80456826928</v>
       </c>
       <c r="O13" t="n">
-        <v>29.92142430481826</v>
+        <v>30.36123463018723</v>
       </c>
       <c r="P13" t="n">
-        <v>337.4076106188034</v>
+        <v>338.5691199423546</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27076,28 +27174,28 @@
         <v>0.0672</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6250043233790983</v>
+        <v>-0.6138594432645262</v>
       </c>
       <c r="J14" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0395702526788686</v>
+        <v>0.03845332674026025</v>
       </c>
       <c r="M14" t="n">
-        <v>17.31656007348188</v>
+        <v>17.28647666791584</v>
       </c>
       <c r="N14" t="n">
-        <v>514.3959207909994</v>
+        <v>513.1703827565408</v>
       </c>
       <c r="O14" t="n">
-        <v>22.68029807544423</v>
+        <v>22.65326428478997</v>
       </c>
       <c r="P14" t="n">
-        <v>344.2243956196566</v>
+        <v>344.1090333607162</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27154,28 +27252,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.492776128069486</v>
+        <v>-0.4904561667085192</v>
       </c>
       <c r="J15" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K15" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03408395219363702</v>
+        <v>0.03401639320175542</v>
       </c>
       <c r="M15" t="n">
-        <v>14.72269758480245</v>
+        <v>14.67360010634617</v>
       </c>
       <c r="N15" t="n">
-        <v>386.657825007203</v>
+        <v>385.187817361237</v>
       </c>
       <c r="O15" t="n">
-        <v>19.66361678347101</v>
+        <v>19.62620231632286</v>
       </c>
       <c r="P15" t="n">
-        <v>346.3713692163249</v>
+        <v>346.3479162128252</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27232,28 +27330,28 @@
         <v>0.0634</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6549171964083831</v>
+        <v>-0.6319629460373564</v>
       </c>
       <c r="J16" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K16" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04454761006399832</v>
+        <v>0.0416630797371017</v>
       </c>
       <c r="M16" t="n">
-        <v>17.26657282508697</v>
+        <v>17.27819849503875</v>
       </c>
       <c r="N16" t="n">
-        <v>474.4690707669276</v>
+        <v>475.722977554466</v>
       </c>
       <c r="O16" t="n">
-        <v>21.7823109602018</v>
+        <v>21.81107465381901</v>
       </c>
       <c r="P16" t="n">
-        <v>347.3578092115898</v>
+        <v>347.1115554728948</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27310,28 +27408,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4592048882511543</v>
+        <v>-0.4510373211796737</v>
       </c>
       <c r="J17" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K17" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03604970852611888</v>
+        <v>0.03502663157761621</v>
       </c>
       <c r="M17" t="n">
-        <v>13.41248200849995</v>
+        <v>13.39405156081313</v>
       </c>
       <c r="N17" t="n">
-        <v>301.2604764871271</v>
+        <v>300.5524265217074</v>
       </c>
       <c r="O17" t="n">
-        <v>17.35685675711841</v>
+        <v>17.33644792112004</v>
       </c>
       <c r="P17" t="n">
-        <v>347.530768929135</v>
+        <v>347.4452982188815</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27388,28 +27486,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5237332591442763</v>
+        <v>-0.5049255157371588</v>
       </c>
       <c r="J18" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03962044873042991</v>
+        <v>0.03696462722771121</v>
       </c>
       <c r="M18" t="n">
-        <v>15.01462899723883</v>
+        <v>15.03948206302636</v>
       </c>
       <c r="N18" t="n">
-        <v>367.3828057794257</v>
+        <v>368.4210124518596</v>
       </c>
       <c r="O18" t="n">
-        <v>19.16723260618042</v>
+        <v>19.19429635209011</v>
       </c>
       <c r="P18" t="n">
-        <v>349.2527461298918</v>
+        <v>349.0612127733013</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27466,28 +27564,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1659556997973692</v>
+        <v>-0.1443283257446887</v>
       </c>
       <c r="J19" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K19" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004403303759158428</v>
+        <v>0.003330296323481807</v>
       </c>
       <c r="M19" t="n">
-        <v>14.67206153919782</v>
+        <v>14.71111739707074</v>
       </c>
       <c r="N19" t="n">
-        <v>343.8822135409093</v>
+        <v>345.733495869</v>
       </c>
       <c r="O19" t="n">
-        <v>18.54406140900394</v>
+        <v>18.59391018234196</v>
       </c>
       <c r="P19" t="n">
-        <v>340.9375847697721</v>
+        <v>340.7213957604123</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27544,28 +27642,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01969257994864573</v>
+        <v>0.0410176208404161</v>
       </c>
       <c r="J20" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L20" t="n">
-        <v>5.802437253243919e-05</v>
+        <v>0.0002516491989382752</v>
       </c>
       <c r="M20" t="n">
-        <v>14.93431162732603</v>
+        <v>14.97806178566411</v>
       </c>
       <c r="N20" t="n">
-        <v>368.5279122956698</v>
+        <v>370.0796972721625</v>
       </c>
       <c r="O20" t="n">
-        <v>19.19708082745056</v>
+        <v>19.23745558207121</v>
       </c>
       <c r="P20" t="n">
-        <v>340.8418210461784</v>
+        <v>340.625029653682</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27622,28 +27720,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.00412620736350595</v>
+        <v>0.002401647242356591</v>
       </c>
       <c r="J21" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K21" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L21" t="n">
-        <v>3.474707912620723e-06</v>
+        <v>1.18500739698657e-06</v>
       </c>
       <c r="M21" t="n">
-        <v>12.451435446647</v>
+        <v>12.43605434596406</v>
       </c>
       <c r="N21" t="n">
-        <v>262.3380698194462</v>
+        <v>261.6228153979024</v>
       </c>
       <c r="O21" t="n">
-        <v>16.19685370124229</v>
+        <v>16.17475858855094</v>
       </c>
       <c r="P21" t="n">
-        <v>342.9502187201473</v>
+        <v>342.8826321311379</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27700,28 +27798,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4778693169222125</v>
+        <v>-0.4632891966708079</v>
       </c>
       <c r="J22" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K22" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05356263509297698</v>
+        <v>0.05059903501948992</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04353708151165</v>
+        <v>11.07111676341762</v>
       </c>
       <c r="N22" t="n">
-        <v>220.45844254689</v>
+        <v>220.8967102180757</v>
       </c>
       <c r="O22" t="n">
-        <v>14.84784302674601</v>
+        <v>14.86259432999756</v>
       </c>
       <c r="P22" t="n">
-        <v>355.7931652374299</v>
+        <v>355.6422259177066</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27778,28 +27876,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2839592428930902</v>
+        <v>-0.288007520629446</v>
       </c>
       <c r="J23" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K23" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02230267543904652</v>
+        <v>0.02309597492267301</v>
       </c>
       <c r="M23" t="n">
-        <v>10.31353667853518</v>
+        <v>10.29652822076238</v>
       </c>
       <c r="N23" t="n">
-        <v>196.0424053284318</v>
+        <v>195.3618823088746</v>
       </c>
       <c r="O23" t="n">
-        <v>14.00151439410866</v>
+        <v>13.97719150290481</v>
       </c>
       <c r="P23" t="n">
-        <v>356.0731693667987</v>
+        <v>356.1141540687943</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27837,7 +27935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X328"/>
+  <dimension ref="A1:X329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60579,9 +60677,21 @@
           <t>-37.756253740027425,174.83011175653488</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr"/>
-      <c r="F328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-37.755477622333395,174.83042033684745</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-37.75476055618894,174.83025224484328</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-37.75407977311476,174.829847882306</t>
+        </is>
+      </c>
       <c r="G328" t="inlineStr">
         <is>
           <t>-37.753392019869594,174.82957573081987</t>
@@ -60592,7 +60702,11 @@
           <t>-37.752665089931675,174.82951613081227</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-37.751985175235355,174.82924470576546</t>
+        </is>
+      </c>
       <c r="J328" t="inlineStr">
         <is>
           <t>-37.75130525150172,174.82897846083978</t>
@@ -60604,7 +60718,11 @@
         </is>
       </c>
       <c r="L328" t="inlineStr"/>
-      <c r="M328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>-37.74920496651565,174.82835118257046</t>
+        </is>
+      </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
@@ -60646,6 +60764,128 @@
       <c r="X328" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-37.75700734325743,174.82994002839752</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-37.75625720057359,174.83009071398894</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-37.75547826199234,174.8304164473872</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-37.754781012029234,174.83014084893517</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-37.75407463134435,174.8298716808534</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-37.75339606799683,174.8295580676539</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-37.752669702253854,174.8294961117143</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-37.7519892268069,174.82922733968405</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>-37.75130407186887,174.828983480483</t>
+        </is>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>-37.750789548611195,174.82801860982292</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>-37.750118700183066,174.8277139912645</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>-37.749204659190326,174.82835236929466</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>-37.748753147908694,174.82720996657335</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>-37.74805840694271,174.82700474398817</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>-37.74744199406746,174.82650105212903</t>
+        </is>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>-37.74673309753268,174.82634632862505</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>-37.7460995785031,174.82591361183674</t>
+        </is>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>-37.74543407241994,174.8255824699793</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>-37.74473845181708,174.8253741949874</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>-37.74400895647928,174.8254232605774</t>
+        </is>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>-37.74332427303047,174.82516469350074</t>
+        </is>
+      </c>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t>-37.74259443830403,174.82520289019536</t>
+        </is>
+      </c>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X329"/>
+  <dimension ref="A1:X330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22425,9 +22425,7 @@
       <c r="H328" t="n">
         <v>270.0284210526316</v>
       </c>
-      <c r="I328" t="n">
-        <v>272.755</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>274.7304347826087</v>
       </c>
@@ -22495,9 +22493,7 @@
       <c r="H329" t="n">
         <v>271.8652631578948</v>
       </c>
-      <c r="I329" t="n">
-        <v>274.35</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>274.2691304347826</v>
       </c>
@@ -22543,6 +22539,76 @@
       <c r="X329" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>346.2766666666667</v>
+      </c>
+      <c r="C330" t="n">
+        <v>325.67</v>
+      </c>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="F330" t="n">
+        <v>305.3366666666667</v>
+      </c>
+      <c r="G330" t="n">
+        <v>303.62</v>
+      </c>
+      <c r="H330" t="n">
+        <v>278.9257894736842</v>
+      </c>
+      <c r="I330" t="n">
+        <v>336.89</v>
+      </c>
+      <c r="J330" t="n">
+        <v>287.9860869565218</v>
+      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>344.64</v>
+      </c>
+      <c r="M330" t="n">
+        <v>290.67</v>
+      </c>
+      <c r="N330" t="inlineStr"/>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="n">
+        <v>328.1972727272728</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>336.96</v>
+      </c>
+      <c r="R330" t="n">
+        <v>328.93</v>
+      </c>
+      <c r="S330" t="n">
+        <v>341.0322222222222</v>
+      </c>
+      <c r="T330" t="n">
+        <v>350.2972727272727</v>
+      </c>
+      <c r="U330" t="n">
+        <v>351.6366666666667</v>
+      </c>
+      <c r="V330" t="n">
+        <v>343.1372727272728</v>
+      </c>
+      <c r="W330" t="n">
+        <v>350.1072727272727</v>
+      </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22557,7 +22623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26065,6 +26131,16 @@
       </c>
       <c r="B350" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -26238,28 +26314,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.453118366778463</v>
+        <v>-0.4416178347827335</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03699717054528262</v>
+        <v>0.03533430322847864</v>
       </c>
       <c r="M2" t="n">
-        <v>12.93064981556027</v>
+        <v>12.93727785031817</v>
       </c>
       <c r="N2" t="n">
-        <v>299.3193126150499</v>
+        <v>299.1927237049443</v>
       </c>
       <c r="O2" t="n">
-        <v>17.30084716466364</v>
+        <v>17.29718831790139</v>
       </c>
       <c r="P2" t="n">
-        <v>341.646880703444</v>
+        <v>341.5280512922915</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26316,28 +26392,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2888423487885488</v>
+        <v>-0.2870753159537612</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0096554490905294</v>
+        <v>0.009606374547351693</v>
       </c>
       <c r="M3" t="n">
-        <v>16.41135549242189</v>
+        <v>16.35564744036535</v>
       </c>
       <c r="N3" t="n">
-        <v>469.7012651399913</v>
+        <v>467.8975003118931</v>
       </c>
       <c r="O3" t="n">
-        <v>21.67259248774801</v>
+        <v>21.63093849817647</v>
       </c>
       <c r="P3" t="n">
-        <v>330.6954450758361</v>
+        <v>330.676900760103</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26397,7 +26473,7 @@
         <v>-0.2928792151733979</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
         <v>245</v>
@@ -26472,28 +26548,28 @@
         <v>0.101</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5730503650300985</v>
+        <v>-0.5919404281434387</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02690408732949123</v>
+        <v>0.02878328396384189</v>
       </c>
       <c r="M5" t="n">
-        <v>19.47671523979379</v>
+        <v>19.51816672946462</v>
       </c>
       <c r="N5" t="n">
-        <v>622.4694839956118</v>
+        <v>622.1775473446378</v>
       </c>
       <c r="O5" t="n">
-        <v>24.94933834785227</v>
+        <v>24.94348707267365</v>
       </c>
       <c r="P5" t="n">
-        <v>338.0413500813601</v>
+        <v>338.2425336430776</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26550,28 +26626,28 @@
         <v>0.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8964336985713013</v>
+        <v>-0.9059053532420944</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K6" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04591695003589213</v>
+        <v>0.04719156206849107</v>
       </c>
       <c r="M6" t="n">
-        <v>21.25109240629945</v>
+        <v>21.22062937448431</v>
       </c>
       <c r="N6" t="n">
-        <v>851.6946852211439</v>
+        <v>848.7237789406586</v>
       </c>
       <c r="O6" t="n">
-        <v>29.18380861404392</v>
+        <v>29.13286424196321</v>
       </c>
       <c r="P6" t="n">
-        <v>340.255572447113</v>
+        <v>340.3582011614513</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26628,28 +26704,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06175700596868768</v>
+        <v>0.05216973664778381</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K7" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003414604735990645</v>
+        <v>0.0002453612593080745</v>
       </c>
       <c r="M7" t="n">
-        <v>18.79003290717049</v>
+        <v>18.77871356591352</v>
       </c>
       <c r="N7" t="n">
-        <v>592.0256050619402</v>
+        <v>590.4113915914633</v>
       </c>
       <c r="O7" t="n">
-        <v>24.33157629628504</v>
+        <v>24.29838248920004</v>
       </c>
       <c r="P7" t="n">
-        <v>314.9042451413198</v>
+        <v>315.0044708797891</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26706,28 +26782,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4839055011649386</v>
+        <v>-0.5112014314517126</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K8" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02169257802583269</v>
+        <v>0.02414827484533755</v>
       </c>
       <c r="M8" t="n">
-        <v>18.90203205410478</v>
+        <v>19.00032376849559</v>
       </c>
       <c r="N8" t="n">
-        <v>566.8517399832868</v>
+        <v>569.0902261895152</v>
       </c>
       <c r="O8" t="n">
-        <v>23.80864842831879</v>
+        <v>23.85561204810129</v>
       </c>
       <c r="P8" t="n">
-        <v>324.4469589444615</v>
+        <v>324.7365189258954</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26784,28 +26860,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2734823284519153</v>
+        <v>-0.1838651802861477</v>
       </c>
       <c r="J9" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K9" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007728732374211456</v>
+        <v>0.003590326697707646</v>
       </c>
       <c r="M9" t="n">
-        <v>16.83196351411999</v>
+        <v>16.39622502715772</v>
       </c>
       <c r="N9" t="n">
-        <v>520.6358373646282</v>
+        <v>506.6253805092501</v>
       </c>
       <c r="O9" t="n">
-        <v>22.81744589923746</v>
+        <v>22.50834024332425</v>
       </c>
       <c r="P9" t="n">
-        <v>325.2666974436032</v>
+        <v>324.3428792201906</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26862,28 +26938,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3184637230298017</v>
+        <v>-0.3347457366568188</v>
       </c>
       <c r="J10" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K10" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008316964347225841</v>
+        <v>0.009227655206600627</v>
       </c>
       <c r="M10" t="n">
-        <v>22.19257523358904</v>
+        <v>22.19800392179868</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7266300226352</v>
+        <v>661.7358062408241</v>
       </c>
       <c r="O10" t="n">
-        <v>25.74347742677036</v>
+        <v>25.72422605717856</v>
       </c>
       <c r="P10" t="n">
-        <v>317.1568807622675</v>
+        <v>317.3279234790488</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26943,7 +27019,7 @@
         <v>-0.2141840754130855</v>
       </c>
       <c r="J11" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K11" t="n">
         <v>243</v>
@@ -27018,28 +27094,28 @@
         <v>0.0554</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4514590088790444</v>
+        <v>-0.4395996494059214</v>
       </c>
       <c r="J12" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K12" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04592849057449544</v>
+        <v>0.04375994644406822</v>
       </c>
       <c r="M12" t="n">
-        <v>11.30396506289567</v>
+        <v>11.31867283634518</v>
       </c>
       <c r="N12" t="n">
-        <v>238.2937519762332</v>
+        <v>238.5116302268906</v>
       </c>
       <c r="O12" t="n">
-        <v>15.4367662409014</v>
+        <v>15.44382174938867</v>
       </c>
       <c r="P12" t="n">
-        <v>339.0493628716677</v>
+        <v>338.9289189313094</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27096,28 +27172,28 @@
         <v>0.0626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.594244478307654</v>
+        <v>-0.6229482786772501</v>
       </c>
       <c r="J13" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K13" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01978556866035175</v>
+        <v>0.02179709069416225</v>
       </c>
       <c r="M13" t="n">
-        <v>23.11987567352121</v>
+        <v>23.22584487960946</v>
       </c>
       <c r="N13" t="n">
-        <v>921.80456826928</v>
+        <v>922.3146393054201</v>
       </c>
       <c r="O13" t="n">
-        <v>30.36123463018723</v>
+        <v>30.36963350627432</v>
       </c>
       <c r="P13" t="n">
-        <v>338.5691199423546</v>
+        <v>338.8677541191735</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27177,7 +27253,7 @@
         <v>-0.6138594432645262</v>
       </c>
       <c r="J14" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K14" t="n">
         <v>247</v>
@@ -27255,7 +27331,7 @@
         <v>-0.4904561667085192</v>
       </c>
       <c r="J15" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K15" t="n">
         <v>256</v>
@@ -27330,28 +27406,28 @@
         <v>0.0634</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6319629460373564</v>
+        <v>-0.633991259745311</v>
       </c>
       <c r="J16" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K16" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0416630797371017</v>
+        <v>0.04225390381311311</v>
       </c>
       <c r="M16" t="n">
-        <v>17.27819849503875</v>
+        <v>17.21826480349823</v>
       </c>
       <c r="N16" t="n">
-        <v>475.722977554466</v>
+        <v>473.7327356542453</v>
       </c>
       <c r="O16" t="n">
-        <v>21.81107465381901</v>
+        <v>21.76540226263336</v>
       </c>
       <c r="P16" t="n">
-        <v>347.1115554728948</v>
+        <v>347.1334288429422</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27408,28 +27484,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4510373211796737</v>
+        <v>-0.4501107691560433</v>
       </c>
       <c r="J17" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K17" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03502663157761621</v>
+        <v>0.03514564613042326</v>
       </c>
       <c r="M17" t="n">
-        <v>13.39405156081313</v>
+        <v>13.34572546723697</v>
       </c>
       <c r="N17" t="n">
-        <v>300.5524265217074</v>
+        <v>299.3889807763325</v>
       </c>
       <c r="O17" t="n">
-        <v>17.33644792112004</v>
+        <v>17.30286047959506</v>
       </c>
       <c r="P17" t="n">
-        <v>347.4452982188815</v>
+        <v>347.4355501994215</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27486,28 +27562,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5049255157371588</v>
+        <v>-0.5101359136453214</v>
       </c>
       <c r="J18" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K18" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03696462722771121</v>
+        <v>0.03796937270269019</v>
       </c>
       <c r="M18" t="n">
-        <v>15.03948206302636</v>
+        <v>15.01146330106861</v>
       </c>
       <c r="N18" t="n">
-        <v>368.4210124518596</v>
+        <v>367.1507862274388</v>
       </c>
       <c r="O18" t="n">
-        <v>19.19429635209011</v>
+        <v>19.16117914501712</v>
       </c>
       <c r="P18" t="n">
-        <v>349.0612127733013</v>
+        <v>349.1145644303052</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27564,28 +27640,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1443283257446887</v>
+        <v>-0.1412875526494706</v>
       </c>
       <c r="J19" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K19" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003330296323481807</v>
+        <v>0.003217380551471583</v>
       </c>
       <c r="M19" t="n">
-        <v>14.71111739707074</v>
+        <v>14.66787698851074</v>
       </c>
       <c r="N19" t="n">
-        <v>345.733495869</v>
+        <v>344.4665882494589</v>
       </c>
       <c r="O19" t="n">
-        <v>18.59391018234196</v>
+        <v>18.55981110489703</v>
       </c>
       <c r="P19" t="n">
-        <v>340.7213957604123</v>
+        <v>340.6908420792782</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27642,28 +27718,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0410176208404161</v>
+        <v>0.04768405188614165</v>
       </c>
       <c r="J20" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K20" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002516491989382752</v>
+        <v>0.0003425890230416284</v>
       </c>
       <c r="M20" t="n">
-        <v>14.97806178566411</v>
+        <v>14.95006599055757</v>
       </c>
       <c r="N20" t="n">
-        <v>370.0796972721625</v>
+        <v>368.862726029538</v>
       </c>
       <c r="O20" t="n">
-        <v>19.23745558207121</v>
+        <v>19.20579928119468</v>
       </c>
       <c r="P20" t="n">
-        <v>340.625029653682</v>
+        <v>340.5568915907857</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27720,28 +27796,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002401647242356591</v>
+        <v>0.008848928347703759</v>
       </c>
       <c r="J21" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K21" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L21" t="n">
-        <v>1.18500739698657e-06</v>
+        <v>1.619544745457002e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>12.43605434596406</v>
+        <v>12.4200627636519</v>
       </c>
       <c r="N21" t="n">
-        <v>261.6228153979024</v>
+        <v>260.9065134717241</v>
       </c>
       <c r="O21" t="n">
-        <v>16.17475858855094</v>
+        <v>16.15260082685522</v>
       </c>
       <c r="P21" t="n">
-        <v>342.8826321311379</v>
+        <v>342.8155311055701</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27798,28 +27874,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4632891966708079</v>
+        <v>-0.4636524115859522</v>
       </c>
       <c r="J22" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K22" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05059903501948992</v>
+        <v>0.0510761770473942</v>
       </c>
       <c r="M22" t="n">
-        <v>11.07111676341762</v>
+        <v>11.02493710451119</v>
       </c>
       <c r="N22" t="n">
-        <v>220.8967102180757</v>
+        <v>219.9371587728532</v>
       </c>
       <c r="O22" t="n">
-        <v>14.86259432999756</v>
+        <v>14.83027844556039</v>
       </c>
       <c r="P22" t="n">
-        <v>355.6422259177066</v>
+        <v>355.6460069766563</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27876,28 +27952,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.288007520629446</v>
+        <v>-0.2868775470602078</v>
       </c>
       <c r="J23" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K23" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02309597492267301</v>
+        <v>0.02309961162371654</v>
       </c>
       <c r="M23" t="n">
-        <v>10.29652822076238</v>
+        <v>10.26002828335698</v>
       </c>
       <c r="N23" t="n">
-        <v>195.3618823088746</v>
+        <v>194.5829441761758</v>
       </c>
       <c r="O23" t="n">
-        <v>13.97719150290481</v>
+        <v>13.94929905680482</v>
       </c>
       <c r="P23" t="n">
-        <v>356.1141540687943</v>
+        <v>356.1026519966641</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27935,7 +28011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X329"/>
+  <dimension ref="A1:X330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60702,11 +60778,7 @@
           <t>-37.752665089931675,174.82951613081227</t>
         </is>
       </c>
-      <c r="I328" t="inlineStr">
-        <is>
-          <t>-37.751985175235355,174.82924470576546</t>
-        </is>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
           <t>-37.75130525150172,174.82897846083978</t>
@@ -60808,11 +60880,7 @@
           <t>-37.752669702253854,174.8294961117143</t>
         </is>
       </c>
-      <c r="I329" t="inlineStr">
-        <is>
-          <t>-37.7519892268069,174.82922733968405</t>
-        </is>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
           <t>-37.75130407186887,174.828983480483</t>
@@ -60886,6 +60954,112 @@
       <c r="X329" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-37.75701573777216,174.82988898273393</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-37.75628086205266,174.8299468349526</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-37.754826674369106,174.82989218428474</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-37.75413101706539,174.8296106996606</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-37.75343489989978,174.8293886319956</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-37.75268743124907,174.8294191614896</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-37.75214808707212,174.82854641351813</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>-37.75133914834539,174.82883422054007</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>-37.75011595246738,174.82772503665362</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>-37.74928584854802,174.82803885797983</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>-37.74735544896106,174.82682474200936</t>
+        </is>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>-37.746704878390915,174.82645038280376</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>-37.74600650551862,174.82625680533508</t>
+        </is>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>-37.745376125628425,174.82585039922748</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>-37.744707358256804,174.8255807664744</t>
+        </is>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>-37.744008961730664,174.82542322333697</t>
+        </is>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>-37.743293613114226,174.82536870834048</t>
+        </is>
+      </c>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>-37.74260613582804,174.8251281819458</t>
+        </is>
+      </c>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X330"/>
+  <dimension ref="A1:X332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22410,9 +22410,7 @@
       <c r="C328" t="n">
         <v>310.8294117647059</v>
       </c>
-      <c r="D328" t="n">
-        <v>267.66</v>
-      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="E328" t="n">
         <v>266.935</v>
       </c>
@@ -22478,9 +22476,7 @@
       <c r="C329" t="n">
         <v>312.7229411764706</v>
       </c>
-      <c r="D329" t="n">
-        <v>268.01</v>
-      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="n">
         <v>277.01</v>
       </c>
@@ -22609,6 +22605,128 @@
       <c r="X330" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>344.8833333333333</v>
+      </c>
+      <c r="C331" t="n">
+        <v>316.4105882352941</v>
+      </c>
+      <c r="D331" t="n">
+        <v>310.55</v>
+      </c>
+      <c r="E331" t="n">
+        <v>316.48</v>
+      </c>
+      <c r="F331" t="n">
+        <v>313.0733333333333</v>
+      </c>
+      <c r="G331" t="n">
+        <v>307.43</v>
+      </c>
+      <c r="H331" t="n">
+        <v>292.8868421052632</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>291.6739130434783</v>
+      </c>
+      <c r="K331" t="n">
+        <v>310.14</v>
+      </c>
+      <c r="L331" t="n">
+        <v>336.54</v>
+      </c>
+      <c r="M331" t="n">
+        <v>294.41</v>
+      </c>
+      <c r="N331" t="n">
+        <v>318.6145454545455</v>
+      </c>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="n">
+        <v>323.2945454545454</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>337.06</v>
+      </c>
+      <c r="R331" t="n">
+        <v>325.85</v>
+      </c>
+      <c r="S331" t="n">
+        <v>326.7611111111111</v>
+      </c>
+      <c r="T331" t="n">
+        <v>333.9845454545454</v>
+      </c>
+      <c r="U331" t="n">
+        <v>344.0433333333333</v>
+      </c>
+      <c r="V331" t="n">
+        <v>342.7045454545454</v>
+      </c>
+      <c r="W331" t="n">
+        <v>351.8545454545454</v>
+      </c>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="n">
+        <v>342.67</v>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>336.0385714285715</v>
+      </c>
+      <c r="L332" t="n">
+        <v>339.71</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="n">
+        <v>334.300909090909</v>
+      </c>
+      <c r="O332" t="n">
+        <v>331.1509090909091</v>
+      </c>
+      <c r="P332" t="n">
+        <v>321.6609090909091</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>302.55</v>
+      </c>
+      <c r="R332" t="inlineStr"/>
+      <c r="S332" t="inlineStr"/>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
+      <c r="W332" t="inlineStr"/>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -22623,7 +22741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26141,6 +26259,26 @@
       </c>
       <c r="B351" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26452,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4416178347827335</v>
+        <v>-0.4312753546054873</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03533430322847864</v>
+        <v>0.03389414803265778</v>
       </c>
       <c r="M2" t="n">
-        <v>12.93727785031817</v>
+        <v>12.93794428405912</v>
       </c>
       <c r="N2" t="n">
-        <v>299.1927237049443</v>
+        <v>298.8814610740903</v>
       </c>
       <c r="O2" t="n">
-        <v>17.29718831790139</v>
+        <v>17.28818848445638</v>
       </c>
       <c r="P2" t="n">
-        <v>341.5280512922915</v>
+        <v>341.4209416084371</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26392,28 +26530,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2870753159537612</v>
+        <v>-0.2918567882429324</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009606374547351693</v>
+        <v>0.00999245158671791</v>
       </c>
       <c r="M3" t="n">
-        <v>16.35564744036535</v>
+        <v>16.32263692528914</v>
       </c>
       <c r="N3" t="n">
-        <v>467.8975003118931</v>
+        <v>466.2603658937647</v>
       </c>
       <c r="O3" t="n">
-        <v>21.63093849817647</v>
+        <v>21.59306291135569</v>
       </c>
       <c r="P3" t="n">
-        <v>330.676900760103</v>
+        <v>330.7271943197462</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26470,28 +26608,28 @@
         <v>0.0587</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2928792151733979</v>
+        <v>-0.2110694545043409</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006004620998950161</v>
+        <v>0.003227017690320189</v>
       </c>
       <c r="M4" t="n">
-        <v>20.05462589353759</v>
+        <v>19.60535398930461</v>
       </c>
       <c r="N4" t="n">
-        <v>768.8425130338665</v>
+        <v>742.2601206734445</v>
       </c>
       <c r="O4" t="n">
-        <v>27.72800953970311</v>
+        <v>27.24445119053501</v>
       </c>
       <c r="P4" t="n">
-        <v>336.4841778804731</v>
+        <v>335.6415921422981</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26548,28 +26686,28 @@
         <v>0.101</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5919404281434387</v>
+        <v>-0.5969634588907444</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02878328396384189</v>
+        <v>0.02948508001708794</v>
       </c>
       <c r="M5" t="n">
-        <v>19.51816672946462</v>
+        <v>19.47059152613233</v>
       </c>
       <c r="N5" t="n">
-        <v>622.1775473446378</v>
+        <v>619.7900566110206</v>
       </c>
       <c r="O5" t="n">
-        <v>24.94348707267365</v>
+        <v>24.8955830743331</v>
       </c>
       <c r="P5" t="n">
-        <v>338.2425336430776</v>
+        <v>338.2961404229678</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26626,28 +26764,28 @@
         <v>0.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9059053532420944</v>
+        <v>-0.9088820637108903</v>
       </c>
       <c r="J6" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04719156206849107</v>
+        <v>0.04786029470439057</v>
       </c>
       <c r="M6" t="n">
-        <v>21.22062937448431</v>
+        <v>21.15117907611137</v>
       </c>
       <c r="N6" t="n">
-        <v>848.7237789406586</v>
+        <v>845.2859237875055</v>
       </c>
       <c r="O6" t="n">
-        <v>29.13286424196321</v>
+        <v>29.07380133019254</v>
       </c>
       <c r="P6" t="n">
-        <v>340.3582011614513</v>
+        <v>340.3905197100797</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26704,28 +26842,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05216973664778381</v>
+        <v>0.04557432615066142</v>
       </c>
       <c r="J7" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K7" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002453612593080745</v>
+        <v>0.0001886279625994414</v>
       </c>
       <c r="M7" t="n">
-        <v>18.77871356591352</v>
+        <v>18.74879638176895</v>
       </c>
       <c r="N7" t="n">
-        <v>590.4113915914633</v>
+        <v>588.4884241865889</v>
       </c>
       <c r="O7" t="n">
-        <v>24.29838248920004</v>
+        <v>24.25878035241238</v>
       </c>
       <c r="P7" t="n">
-        <v>315.0044708797891</v>
+        <v>315.0735587286779</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26782,28 +26920,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5112014314517126</v>
+        <v>-0.5264288293917305</v>
       </c>
       <c r="J8" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K8" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02414827484533755</v>
+        <v>0.02571313797205776</v>
       </c>
       <c r="M8" t="n">
-        <v>19.00032376849559</v>
+        <v>19.01802267304129</v>
       </c>
       <c r="N8" t="n">
-        <v>569.0902261895152</v>
+        <v>568.0714305625083</v>
       </c>
       <c r="O8" t="n">
-        <v>23.85561204810129</v>
+        <v>23.83424910842606</v>
       </c>
       <c r="P8" t="n">
-        <v>324.7365189258954</v>
+        <v>324.898408123476</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26860,28 +26998,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1838651802861477</v>
+        <v>-0.1646283317060647</v>
       </c>
       <c r="J9" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K9" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003590326697707646</v>
+        <v>0.002893073641356492</v>
       </c>
       <c r="M9" t="n">
-        <v>16.39622502715772</v>
+        <v>16.3817511792628</v>
       </c>
       <c r="N9" t="n">
-        <v>506.6253805092501</v>
+        <v>506.7154966906195</v>
       </c>
       <c r="O9" t="n">
-        <v>22.50834024332425</v>
+        <v>22.51034199408395</v>
       </c>
       <c r="P9" t="n">
-        <v>324.3428792201906</v>
+        <v>324.1430241261473</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26938,28 +27076,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3347457366568188</v>
+        <v>-0.3478425120012028</v>
       </c>
       <c r="J10" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K10" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009227655206600627</v>
+        <v>0.01001582619216512</v>
       </c>
       <c r="M10" t="n">
-        <v>22.19800392179868</v>
+        <v>22.18484797949184</v>
       </c>
       <c r="N10" t="n">
-        <v>661.7358062408241</v>
+        <v>660.1248002826695</v>
       </c>
       <c r="O10" t="n">
-        <v>25.72422605717856</v>
+        <v>25.69289396472631</v>
       </c>
       <c r="P10" t="n">
-        <v>317.3279234790488</v>
+        <v>317.4658172811532</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27016,28 +27154,28 @@
         <v>0.0885</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2141840754130855</v>
+        <v>-0.2017807039515061</v>
       </c>
       <c r="J11" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K11" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005554709002045244</v>
+        <v>0.004990947419936442</v>
       </c>
       <c r="M11" t="n">
-        <v>17.46953816656229</v>
+        <v>17.42419597150339</v>
       </c>
       <c r="N11" t="n">
-        <v>450.822590202373</v>
+        <v>449.0391233198922</v>
       </c>
       <c r="O11" t="n">
-        <v>21.23258322019186</v>
+        <v>21.1905432521182</v>
       </c>
       <c r="P11" t="n">
-        <v>320.5387208044264</v>
+        <v>320.4096435713996</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27094,28 +27232,28 @@
         <v>0.0554</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4395996494059214</v>
+        <v>-0.4252530813650334</v>
       </c>
       <c r="J12" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K12" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04375994644406822</v>
+        <v>0.04149121291317026</v>
       </c>
       <c r="M12" t="n">
-        <v>11.31867283634518</v>
+        <v>11.30532886839919</v>
       </c>
       <c r="N12" t="n">
-        <v>238.5116302268906</v>
+        <v>237.5973086319924</v>
       </c>
       <c r="O12" t="n">
-        <v>15.44382174938867</v>
+        <v>15.41419179301959</v>
       </c>
       <c r="P12" t="n">
-        <v>338.9289189313094</v>
+        <v>338.7827999657515</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27172,28 +27310,28 @@
         <v>0.0626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6229482786772501</v>
+        <v>-0.647680778968431</v>
       </c>
       <c r="J13" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K13" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02179709069416225</v>
+        <v>0.02365109158625778</v>
       </c>
       <c r="M13" t="n">
-        <v>23.22584487960946</v>
+        <v>23.3015360394525</v>
       </c>
       <c r="N13" t="n">
-        <v>922.3146393054201</v>
+        <v>921.7146171793349</v>
       </c>
       <c r="O13" t="n">
-        <v>30.36963350627432</v>
+        <v>30.35975324635124</v>
       </c>
       <c r="P13" t="n">
-        <v>338.8677541191735</v>
+        <v>339.1255758149612</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27250,28 +27388,28 @@
         <v>0.0672</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6138594432645262</v>
+        <v>-0.6163316652614516</v>
       </c>
       <c r="J14" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K14" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03845332674026025</v>
+        <v>0.03930802159573288</v>
       </c>
       <c r="M14" t="n">
-        <v>17.28647666791584</v>
+        <v>17.21487875126206</v>
       </c>
       <c r="N14" t="n">
-        <v>513.1703827565408</v>
+        <v>509.5646984329644</v>
       </c>
       <c r="O14" t="n">
-        <v>22.65326428478997</v>
+        <v>22.5735397851769</v>
       </c>
       <c r="P14" t="n">
-        <v>344.1090333607162</v>
+        <v>344.1347642820255</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27328,28 +27466,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4904561667085192</v>
+        <v>-0.4921893240476663</v>
       </c>
       <c r="J15" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K15" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03401639320175542</v>
+        <v>0.03450019889038558</v>
       </c>
       <c r="M15" t="n">
-        <v>14.67360010634617</v>
+        <v>14.6288484085</v>
       </c>
       <c r="N15" t="n">
-        <v>385.187817361237</v>
+        <v>383.7112403388115</v>
       </c>
       <c r="O15" t="n">
-        <v>19.62620231632286</v>
+        <v>19.58854870425095</v>
       </c>
       <c r="P15" t="n">
-        <v>346.3479162128252</v>
+        <v>346.3655940517311</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27406,28 +27544,28 @@
         <v>0.0634</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.633991259745311</v>
+        <v>-0.6470768362088073</v>
       </c>
       <c r="J16" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K16" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04225390381311311</v>
+        <v>0.0445854104776674</v>
       </c>
       <c r="M16" t="n">
-        <v>17.21826480349823</v>
+        <v>17.15809382093418</v>
       </c>
       <c r="N16" t="n">
-        <v>473.7327356542453</v>
+        <v>470.298307123214</v>
       </c>
       <c r="O16" t="n">
-        <v>21.76540226263336</v>
+        <v>21.68636223812592</v>
       </c>
       <c r="P16" t="n">
-        <v>347.1334288429422</v>
+        <v>347.2749163410818</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27484,28 +27622,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4501107691560433</v>
+        <v>-0.4732731919452833</v>
       </c>
       <c r="J17" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K17" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03514564613042326</v>
+        <v>0.03875152287380956</v>
       </c>
       <c r="M17" t="n">
-        <v>13.34572546723697</v>
+        <v>13.40321873951538</v>
       </c>
       <c r="N17" t="n">
-        <v>299.3889807763325</v>
+        <v>301.2814145715792</v>
       </c>
       <c r="O17" t="n">
-        <v>17.30286047959506</v>
+        <v>17.35745991127674</v>
       </c>
       <c r="P17" t="n">
-        <v>347.4355501994215</v>
+        <v>347.6800256951417</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27562,28 +27700,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5101359136453214</v>
+        <v>-0.5175072947086906</v>
       </c>
       <c r="J18" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K18" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03796937270269019</v>
+        <v>0.0392848084487325</v>
       </c>
       <c r="M18" t="n">
-        <v>15.01146330106861</v>
+        <v>14.99656696262792</v>
       </c>
       <c r="N18" t="n">
-        <v>367.1507862274388</v>
+        <v>366.0877555129955</v>
       </c>
       <c r="O18" t="n">
-        <v>19.16117914501712</v>
+        <v>19.13341985931934</v>
       </c>
       <c r="P18" t="n">
-        <v>349.1145644303052</v>
+        <v>349.1902071820076</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27640,28 +27778,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1412875526494706</v>
+        <v>-0.1488900096798955</v>
       </c>
       <c r="J19" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K19" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003217380551471583</v>
+        <v>0.003596460252322187</v>
       </c>
       <c r="M19" t="n">
-        <v>14.66787698851074</v>
+        <v>14.65618099872172</v>
       </c>
       <c r="N19" t="n">
-        <v>344.4665882494589</v>
+        <v>343.5443341103796</v>
       </c>
       <c r="O19" t="n">
-        <v>18.55981110489703</v>
+        <v>18.53494899130774</v>
       </c>
       <c r="P19" t="n">
-        <v>340.6908420792782</v>
+        <v>340.7673890859072</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27718,28 +27856,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04768405188614165</v>
+        <v>0.04167813649944719</v>
       </c>
       <c r="J20" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K20" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003425890230416284</v>
+        <v>0.0002637080868317376</v>
       </c>
       <c r="M20" t="n">
-        <v>14.95006599055757</v>
+        <v>14.92217625651598</v>
       </c>
       <c r="N20" t="n">
-        <v>368.862726029538</v>
+        <v>367.6034280903178</v>
       </c>
       <c r="O20" t="n">
-        <v>19.20579928119468</v>
+        <v>19.17298693710288</v>
       </c>
       <c r="P20" t="n">
-        <v>340.5568915907857</v>
+        <v>340.6184103601965</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27796,28 +27934,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.008848928347703759</v>
+        <v>0.009583160208271191</v>
       </c>
       <c r="J21" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K21" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L21" t="n">
-        <v>1.619544745457002e-05</v>
+        <v>1.91420997670555e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>12.4200627636519</v>
+        <v>12.37623439344499</v>
       </c>
       <c r="N21" t="n">
-        <v>260.9065134717241</v>
+        <v>259.9144385438073</v>
       </c>
       <c r="O21" t="n">
-        <v>16.15260082685522</v>
+        <v>16.12186213015752</v>
       </c>
       <c r="P21" t="n">
-        <v>342.8155311055701</v>
+        <v>342.8078736451748</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27874,28 +28012,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4636524115859522</v>
+        <v>-0.4643382585458333</v>
       </c>
       <c r="J22" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K22" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0510761770473942</v>
+        <v>0.05162160111073744</v>
       </c>
       <c r="M22" t="n">
-        <v>11.02493710451119</v>
+        <v>10.98087050197978</v>
       </c>
       <c r="N22" t="n">
-        <v>219.9371587728532</v>
+        <v>218.9881870698031</v>
       </c>
       <c r="O22" t="n">
-        <v>14.83027844556039</v>
+        <v>14.79824945964228</v>
       </c>
       <c r="P22" t="n">
-        <v>355.6460069766563</v>
+        <v>355.6531623853706</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27952,28 +28090,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2868775470602078</v>
+        <v>-0.2844433327550374</v>
       </c>
       <c r="J23" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K23" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02309961162371654</v>
+        <v>0.02289178787931845</v>
       </c>
       <c r="M23" t="n">
-        <v>10.26002828335698</v>
+        <v>10.22960014553808</v>
       </c>
       <c r="N23" t="n">
-        <v>194.5829441761758</v>
+        <v>193.8428633876048</v>
       </c>
       <c r="O23" t="n">
-        <v>13.94929905680482</v>
+        <v>13.92274625882425</v>
       </c>
       <c r="P23" t="n">
-        <v>356.1026519966641</v>
+        <v>356.0778204781837</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28011,7 +28149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X330"/>
+  <dimension ref="A1:X332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60753,11 +60891,7 @@
           <t>-37.756253740027425,174.83011175653488</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>-37.755477622333395,174.83042033684745</t>
-        </is>
-      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
           <t>-37.75476055618894,174.83025224484328</t>
@@ -60855,11 +60989,7 @@
           <t>-37.75625720057359,174.83009071398894</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>-37.75547826199234,174.8304164473872</t>
-        </is>
-      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr">
         <is>
           <t>-37.754781012029234,174.83014084893517</t>
@@ -61060,6 +61190,182 @@
       <c r="X330" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-37.75701319139772,174.82990446683348</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-37.75626393997392,174.83004973364103</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-37.75555600702501,174.82994371073573</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-37.754861149194475,174.82970444170465</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-37.754149320615696,174.82952598106039</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-37.75344442042632,174.82934709079228</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-37.752722487333926,174.8292670047109</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>-37.75134857868151,174.8287940917362</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>-37.75071139479108,174.82834862105463</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>-37.75009413233618,174.82781275000752</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>-37.7492962974975,174.82799850925892</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>-37.74868595236553,174.8274694464953</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>-37.74734135187295,174.8268774665573</t>
+        </is>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>-37.74670516961059,174.82644930897362</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>-37.745997535980294,174.8262898790041</t>
+        </is>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>-37.745342333361386,174.82600664343985</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>-37.74467998366726,174.82576262868625</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>-37.743996999058446,174.82550805698546</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>-37.74329288808043,174.82537353277385</t>
+        </is>
+      </c>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>-37.742609181423326,174.82510873067426</t>
+        </is>
+      </c>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-37.75216276887788,174.82848348158808</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-37.7507780921413,174.82806698603835</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-37.75010267182725,174.82777842268902</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-37.74872977671365,174.8273002162507</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-37.74804239606973,174.82706602785973</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-37.74733665458107,174.8268950348843</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-37.746604669132374,174.82681988722436</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr"/>
+      <c r="S332" t="inlineStr"/>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
+      <c r="W332" t="inlineStr"/>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X332"/>
+  <dimension ref="A1:X333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22691,21 +22691,29 @@
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr"/>
-      <c r="E332" t="inlineStr"/>
+      <c r="E332" t="n">
+        <v>357.64</v>
+      </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr"/>
+      <c r="H332" t="n">
+        <v>341.6342105263158</v>
+      </c>
       <c r="I332" t="n">
         <v>342.67</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>336.3526086956522</v>
+      </c>
       <c r="K332" t="n">
         <v>336.0385714285715</v>
       </c>
       <c r="L332" t="n">
         <v>339.71</v>
       </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="M332" t="n">
+        <v>345.97</v>
+      </c>
       <c r="N332" t="n">
         <v>334.300909090909</v>
       </c>
@@ -22723,10 +22731,90 @@
       <c r="T332" t="inlineStr"/>
       <c r="U332" t="inlineStr"/>
       <c r="V332" t="inlineStr"/>
-      <c r="W332" t="inlineStr"/>
+      <c r="W332" t="n">
+        <v>303.2209090909091</v>
+      </c>
       <c r="X332" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>326.5066666666667</v>
+      </c>
+      <c r="C333" t="n">
+        <v>316.8117647058824</v>
+      </c>
+      <c r="D333" t="n">
+        <v>325.74</v>
+      </c>
+      <c r="E333" t="n">
+        <v>328.985</v>
+      </c>
+      <c r="F333" t="n">
+        <v>321.7466666666667</v>
+      </c>
+      <c r="G333" t="n">
+        <v>309.72</v>
+      </c>
+      <c r="H333" t="n">
+        <v>309.7036842105263</v>
+      </c>
+      <c r="I333" t="n">
+        <v>308.645</v>
+      </c>
+      <c r="J333" t="n">
+        <v>316.1052173913044</v>
+      </c>
+      <c r="K333" t="n">
+        <v>318.5957142857143</v>
+      </c>
+      <c r="L333" t="n">
+        <v>340.95</v>
+      </c>
+      <c r="M333" t="n">
+        <v>354.63</v>
+      </c>
+      <c r="N333" t="n">
+        <v>351.3809090909091</v>
+      </c>
+      <c r="O333" t="n">
+        <v>330.9009090909091</v>
+      </c>
+      <c r="P333" t="n">
+        <v>335.7109090909091</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="R333" t="n">
+        <v>332.45</v>
+      </c>
+      <c r="S333" t="n">
+        <v>329.2688888888889</v>
+      </c>
+      <c r="T333" t="n">
+        <v>331.3309090909091</v>
+      </c>
+      <c r="U333" t="n">
+        <v>336.5166666666667</v>
+      </c>
+      <c r="V333" t="n">
+        <v>335.8409090909091</v>
+      </c>
+      <c r="W333" t="n">
+        <v>337.4509090909091</v>
+      </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -22741,7 +22829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26279,6 +26367,16 @@
       </c>
       <c r="B353" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -26452,28 +26550,28 @@
         <v>0.0716</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4312753546054873</v>
+        <v>-0.4337961164118773</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03389414803265778</v>
+        <v>0.03451139650396928</v>
       </c>
       <c r="M2" t="n">
-        <v>12.93794428405912</v>
+        <v>12.90356649181207</v>
       </c>
       <c r="N2" t="n">
-        <v>298.8814610740903</v>
+        <v>297.781673505619</v>
       </c>
       <c r="O2" t="n">
-        <v>17.28818848445638</v>
+        <v>17.25635168584655</v>
       </c>
       <c r="P2" t="n">
-        <v>341.4209416084371</v>
+        <v>341.4472260025282</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26530,28 +26628,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2918567882429324</v>
+        <v>-0.2962845402051589</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00999245158671791</v>
+        <v>0.01036523935126255</v>
       </c>
       <c r="M3" t="n">
-        <v>16.32263692528914</v>
+        <v>16.28744231137096</v>
       </c>
       <c r="N3" t="n">
-        <v>466.2603658937647</v>
+        <v>464.6102482273249</v>
       </c>
       <c r="O3" t="n">
-        <v>21.59306291135569</v>
+        <v>21.55481960553892</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7271943197462</v>
+        <v>330.7740816836506</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26608,28 +26706,28 @@
         <v>0.0587</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2110694545043409</v>
+        <v>-0.2145777172009386</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003227017690320189</v>
+        <v>0.003363241561547881</v>
       </c>
       <c r="M4" t="n">
-        <v>19.60535398930461</v>
+        <v>19.54679208108289</v>
       </c>
       <c r="N4" t="n">
-        <v>742.2601206734445</v>
+        <v>739.3075367211219</v>
       </c>
       <c r="O4" t="n">
-        <v>27.24445119053501</v>
+        <v>27.19021031035107</v>
       </c>
       <c r="P4" t="n">
-        <v>335.6415921422981</v>
+        <v>335.6782788560471</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26686,28 +26784,28 @@
         <v>0.101</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5969634588907444</v>
+        <v>-0.5649237197839141</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02948508001708794</v>
+        <v>0.02669461153666297</v>
       </c>
       <c r="M5" t="n">
-        <v>19.47059152613233</v>
+        <v>19.43710184758037</v>
       </c>
       <c r="N5" t="n">
-        <v>619.7900566110206</v>
+        <v>619.786954560743</v>
       </c>
       <c r="O5" t="n">
-        <v>24.8955830743331</v>
+        <v>24.89552077303752</v>
       </c>
       <c r="P5" t="n">
-        <v>338.2961404229678</v>
+        <v>337.9535966319942</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26764,28 +26862,28 @@
         <v>0.0725</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9088820637108903</v>
+        <v>-0.9046944409148664</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04786029470439057</v>
+        <v>0.04781426488943452</v>
       </c>
       <c r="M6" t="n">
-        <v>21.15117907611137</v>
+        <v>21.08156255539505</v>
       </c>
       <c r="N6" t="n">
-        <v>845.2859237875055</v>
+        <v>841.9296161976592</v>
       </c>
       <c r="O6" t="n">
-        <v>29.07380133019254</v>
+        <v>29.01602343874259</v>
       </c>
       <c r="P6" t="n">
-        <v>340.3905197100797</v>
+        <v>340.3447817748633</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26842,28 +26940,28 @@
         <v>0.1255</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04557432615066142</v>
+        <v>0.04073701280102261</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K7" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001886279625994414</v>
+        <v>0.0001518678891293535</v>
       </c>
       <c r="M7" t="n">
-        <v>18.74879638176895</v>
+        <v>18.70795570244893</v>
       </c>
       <c r="N7" t="n">
-        <v>588.4884241865889</v>
+        <v>586.4430469629589</v>
       </c>
       <c r="O7" t="n">
-        <v>24.25878035241238</v>
+        <v>24.21658619547683</v>
       </c>
       <c r="P7" t="n">
-        <v>315.0735587286779</v>
+        <v>315.1245348669704</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26920,28 +27018,28 @@
         <v>0.1314</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5264288293917305</v>
+        <v>-0.5030988964366477</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K8" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02571313797205776</v>
+        <v>0.02375290717926826</v>
       </c>
       <c r="M8" t="n">
-        <v>19.01802267304129</v>
+        <v>18.96105953060504</v>
       </c>
       <c r="N8" t="n">
-        <v>568.0714305625083</v>
+        <v>567.1226592321563</v>
       </c>
       <c r="O8" t="n">
-        <v>23.83424910842606</v>
+        <v>23.81433726208135</v>
       </c>
       <c r="P8" t="n">
-        <v>324.898408123476</v>
+        <v>324.6501892143504</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26998,28 +27096,28 @@
         <v>0.1042</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1646283317060647</v>
+        <v>-0.1739073555563979</v>
       </c>
       <c r="J9" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K9" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002893073641356492</v>
+        <v>0.003252659946995196</v>
       </c>
       <c r="M9" t="n">
-        <v>16.3817511792628</v>
+        <v>16.37963576749164</v>
       </c>
       <c r="N9" t="n">
-        <v>506.7154966906195</v>
+        <v>505.084704922831</v>
       </c>
       <c r="O9" t="n">
-        <v>22.51034199408395</v>
+        <v>22.47408963501817</v>
       </c>
       <c r="P9" t="n">
-        <v>324.1430241261473</v>
+        <v>324.2399148242948</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27076,28 +27174,28 @@
         <v>0.1765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3478425120012028</v>
+        <v>-0.3207474561048022</v>
       </c>
       <c r="J10" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K10" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01001582619216512</v>
+        <v>0.008615679956765931</v>
       </c>
       <c r="M10" t="n">
-        <v>22.18484797949184</v>
+        <v>22.1272310841791</v>
       </c>
       <c r="N10" t="n">
-        <v>660.1248002826695</v>
+        <v>658.0428682128598</v>
       </c>
       <c r="O10" t="n">
-        <v>25.69289396472631</v>
+        <v>25.65234625161722</v>
       </c>
       <c r="P10" t="n">
-        <v>317.4658172811532</v>
+        <v>317.1798737485252</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27154,28 +27252,28 @@
         <v>0.0885</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2017807039515061</v>
+        <v>-0.1991396975121127</v>
       </c>
       <c r="J11" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K11" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004990947419936442</v>
+        <v>0.004899966636494835</v>
       </c>
       <c r="M11" t="n">
-        <v>17.42419597150339</v>
+        <v>17.36552558601682</v>
       </c>
       <c r="N11" t="n">
-        <v>449.0391233198922</v>
+        <v>447.2621739732335</v>
       </c>
       <c r="O11" t="n">
-        <v>21.1905432521182</v>
+        <v>21.14857380470923</v>
       </c>
       <c r="P11" t="n">
-        <v>320.4096435713996</v>
+        <v>320.3820199840486</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27232,28 +27330,28 @@
         <v>0.0554</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.4252530813650334</v>
+        <v>-0.4162929630592394</v>
       </c>
       <c r="J12" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K12" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04149121291317026</v>
+        <v>0.04000040499247326</v>
       </c>
       <c r="M12" t="n">
-        <v>11.30532886839919</v>
+        <v>11.30741669296634</v>
       </c>
       <c r="N12" t="n">
-        <v>237.5973086319924</v>
+        <v>237.3694908339128</v>
       </c>
       <c r="O12" t="n">
-        <v>15.41419179301959</v>
+        <v>15.40680014908718</v>
       </c>
       <c r="P12" t="n">
-        <v>338.7827999657515</v>
+        <v>338.6909932984591</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27310,28 +27408,28 @@
         <v>0.0626</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.647680778968431</v>
+        <v>-0.5993611751271459</v>
       </c>
       <c r="J13" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K13" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02365109158625778</v>
+        <v>0.02054512086355675</v>
       </c>
       <c r="M13" t="n">
-        <v>23.3015360394525</v>
+        <v>23.23338243856499</v>
       </c>
       <c r="N13" t="n">
-        <v>921.7146171793349</v>
+        <v>920.549030940257</v>
       </c>
       <c r="O13" t="n">
-        <v>30.35975324635124</v>
+        <v>30.34055093336733</v>
       </c>
       <c r="P13" t="n">
-        <v>339.1255758149612</v>
+        <v>338.6199463014606</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27388,28 +27486,28 @@
         <v>0.0672</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6163316652614516</v>
+        <v>-0.5986680508442933</v>
       </c>
       <c r="J14" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K14" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03930802159573288</v>
+        <v>0.03730118804379723</v>
       </c>
       <c r="M14" t="n">
-        <v>17.21487875126206</v>
+        <v>17.20971541430309</v>
       </c>
       <c r="N14" t="n">
-        <v>509.5646984329644</v>
+        <v>509.689127093957</v>
       </c>
       <c r="O14" t="n">
-        <v>22.5735397851769</v>
+        <v>22.57629569025789</v>
       </c>
       <c r="P14" t="n">
-        <v>344.1347642820255</v>
+        <v>343.949360044291</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27466,28 +27564,28 @@
         <v>0.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4921893240476663</v>
+        <v>-0.4940419030479501</v>
       </c>
       <c r="J15" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K15" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03450019889038558</v>
+        <v>0.03500722382653321</v>
       </c>
       <c r="M15" t="n">
-        <v>14.6288484085</v>
+        <v>14.58516443411689</v>
       </c>
       <c r="N15" t="n">
-        <v>383.7112403388115</v>
+        <v>382.2493216995066</v>
       </c>
       <c r="O15" t="n">
-        <v>19.58854870425095</v>
+        <v>19.55119744924864</v>
       </c>
       <c r="P15" t="n">
-        <v>346.3655940517311</v>
+        <v>346.3845932039719</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27544,28 +27642,28 @@
         <v>0.0634</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.6470768362088073</v>
+        <v>-0.6427412999206036</v>
       </c>
       <c r="J16" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K16" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0445854104776674</v>
+        <v>0.04435232375971832</v>
       </c>
       <c r="M16" t="n">
-        <v>17.15809382093418</v>
+        <v>17.10324164454928</v>
       </c>
       <c r="N16" t="n">
-        <v>470.298307123214</v>
+        <v>468.4504408732165</v>
       </c>
       <c r="O16" t="n">
-        <v>21.68636223812592</v>
+        <v>21.64371596730138</v>
       </c>
       <c r="P16" t="n">
-        <v>347.2749163410818</v>
+        <v>347.2277728460954</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27622,28 +27720,28 @@
         <v>0.0577</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4732731919452833</v>
+        <v>-0.478028941565819</v>
       </c>
       <c r="J17" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K17" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03875152287380956</v>
+        <v>0.03977044189039702</v>
       </c>
       <c r="M17" t="n">
-        <v>13.40321873951538</v>
+        <v>13.38218777873642</v>
       </c>
       <c r="N17" t="n">
-        <v>301.2814145715792</v>
+        <v>300.2848955358946</v>
       </c>
       <c r="O17" t="n">
-        <v>17.35745991127674</v>
+        <v>17.32873034979466</v>
       </c>
       <c r="P17" t="n">
-        <v>347.6800256951417</v>
+        <v>347.7304863990052</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27700,28 +27798,28 @@
         <v>0.0501</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5175072947086906</v>
+        <v>-0.5198632089254958</v>
       </c>
       <c r="J18" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K18" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0392848084487325</v>
+        <v>0.03992543390467929</v>
       </c>
       <c r="M18" t="n">
-        <v>14.99656696262792</v>
+        <v>14.95150198415619</v>
       </c>
       <c r="N18" t="n">
-        <v>366.0877555129955</v>
+        <v>364.6859021703208</v>
       </c>
       <c r="O18" t="n">
-        <v>19.13341985931934</v>
+        <v>19.09675108939531</v>
       </c>
       <c r="P18" t="n">
-        <v>349.1902071820076</v>
+        <v>349.2145390980229</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27778,28 +27876,28 @@
         <v>0.0518</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1488900096798955</v>
+        <v>-0.1545275755293196</v>
       </c>
       <c r="J19" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K19" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003596460252322187</v>
+        <v>0.003902057511020018</v>
       </c>
       <c r="M19" t="n">
-        <v>14.65618099872172</v>
+        <v>14.63272993523684</v>
       </c>
       <c r="N19" t="n">
-        <v>343.5443341103796</v>
+        <v>342.4508240410344</v>
       </c>
       <c r="O19" t="n">
-        <v>18.53494899130774</v>
+        <v>18.50542688081078</v>
       </c>
       <c r="P19" t="n">
-        <v>340.7673890859072</v>
+        <v>340.8245011596978</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27856,28 +27954,28 @@
         <v>0.0679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04167813649944719</v>
+        <v>0.0337006182556906</v>
       </c>
       <c r="J20" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K20" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002637080868317376</v>
+        <v>0.0001736503259178734</v>
       </c>
       <c r="M20" t="n">
-        <v>14.92217625651598</v>
+        <v>14.90552658621989</v>
       </c>
       <c r="N20" t="n">
-        <v>367.6034280903178</v>
+        <v>366.5416833545929</v>
       </c>
       <c r="O20" t="n">
-        <v>19.17298693710288</v>
+        <v>19.14527835667565</v>
       </c>
       <c r="P20" t="n">
-        <v>340.6184103601965</v>
+        <v>340.7006475679145</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27934,28 +28032,28 @@
         <v>0.06909999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009583160208271191</v>
+        <v>0.004761831517334591</v>
       </c>
       <c r="J21" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K21" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L21" t="n">
-        <v>1.91420997670555e-05</v>
+        <v>4.760549156213045e-06</v>
       </c>
       <c r="M21" t="n">
-        <v>12.37623439344499</v>
+        <v>12.35524652123547</v>
       </c>
       <c r="N21" t="n">
-        <v>259.9144385438073</v>
+        <v>259.0870288464155</v>
       </c>
       <c r="O21" t="n">
-        <v>16.12186213015752</v>
+        <v>16.09618056702942</v>
       </c>
       <c r="P21" t="n">
-        <v>342.8078736451748</v>
+        <v>342.8584666512783</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -28012,28 +28110,28 @@
         <v>0.0601</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4643382585458333</v>
+        <v>-0.470462456055569</v>
       </c>
       <c r="J22" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K22" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05162160111073744</v>
+        <v>0.053280995736673</v>
       </c>
       <c r="M22" t="n">
-        <v>10.98087050197978</v>
+        <v>10.96592781055781</v>
       </c>
       <c r="N22" t="n">
-        <v>218.9881870698031</v>
+        <v>218.2932610728197</v>
       </c>
       <c r="O22" t="n">
-        <v>14.79824945964228</v>
+        <v>14.77475079562494</v>
       </c>
       <c r="P22" t="n">
-        <v>355.6531623853706</v>
+        <v>355.7174760876429</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -28090,28 +28188,28 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2844433327550374</v>
+        <v>-0.3262838899870641</v>
       </c>
       <c r="J23" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K23" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02289178787931845</v>
+        <v>0.02911072728498143</v>
       </c>
       <c r="M23" t="n">
-        <v>10.22960014553808</v>
+        <v>10.40781321458871</v>
       </c>
       <c r="N23" t="n">
-        <v>193.8428633876048</v>
+        <v>200.8711133775507</v>
       </c>
       <c r="O23" t="n">
-        <v>13.92274625882425</v>
+        <v>14.17290066914853</v>
       </c>
       <c r="P23" t="n">
-        <v>356.0778204781837</v>
+        <v>356.5055378663929</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -28149,7 +28247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X332"/>
+  <dimension ref="A1:X333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61316,16 +61414,28 @@
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr"/>
-      <c r="E332" t="inlineStr"/>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-37.754944715921795,174.82924934761135</t>
+        </is>
+      </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr"/>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-37.75284489004926,174.82873572248707</t>
+        </is>
+      </c>
       <c r="I332" t="inlineStr">
         <is>
           <t>-37.75216276887788,174.82848348158808</t>
         </is>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-37.751462827883,174.82830792299922</t>
+        </is>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>-37.7507780921413,174.82806698603835</t>
@@ -61336,7 +61446,11 @@
           <t>-37.75010267182725,174.82777842268902</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-37.749440346340364,174.8274422566998</t>
+        </is>
+      </c>
       <c r="N332" t="inlineStr">
         <is>
           <t>-37.74872977671365,174.8273002162507</t>
@@ -61362,10 +61476,136 @@
       <c r="T332" t="inlineStr"/>
       <c r="U332" t="inlineStr"/>
       <c r="V332" t="inlineStr"/>
-      <c r="W332" t="inlineStr"/>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>-37.74252440905694,174.8256501372492</t>
+        </is>
+      </c>
       <c r="X332" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-37.75697960708945,174.83010868644163</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-37.75626467314758,174.83004527541797</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-37.75558376743274,174.8297749077101</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-37.75488653815143,174.82956617768912</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-37.75416984007825,174.82943100565345</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-37.75345014273063,174.82932212245206</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-37.752764714025645,174.82908372345048</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-37.75207634133722,174.82885394123267</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-37.751411052929654,174.8285282440541</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-37.750733171112635,174.82825666912112</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-37.75010601219333,174.82776499496597</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-37.74946454048236,174.82734882848874</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-37.74877749431302,174.82711595070853</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-37.74804169204116,174.82706872262483</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-37.747377053298436,174.826743939375</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-37.74668096922307,174.82653854422605</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-37.74601675640844,174.82621900684603</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-37.74534827149096,174.82597918758125</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-37.744675530540995,174.8257922127004</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>-37.74398514135447,174.82559214579643</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>-37.74328138804356,174.82545005476007</t>
+        </is>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>-37.7425840749749,174.82526907710886</t>
+        </is>
+      </c>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -26541,13 +26541,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0529</v>
+        <v>0.0667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0716</v>
+        <v>0.0993</v>
       </c>
       <c r="I2" t="n">
         <v>-0.4338414905620895</v>
@@ -26619,13 +26619,13 @@
         <v>0.9523746526487891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0674</v>
+        <v>0.0897</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1118</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2962517020355163</v>
@@ -26700,10 +26700,10 @@
         <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0433</v>
+        <v>0.0437</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0587</v>
+        <v>0.0659</v>
       </c>
       <c r="I4" t="n">
         <v>-0.2145777172009388</v>
@@ -26775,13 +26775,13 @@
         <v>0.8571239579467055</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0824</v>
       </c>
       <c r="H5" t="n">
-        <v>0.101</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-0.5648544423928616</v>
@@ -26853,13 +26853,13 @@
         <v>0.809532365087627</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.052</v>
+        <v>0.0898</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0725</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.9047233476704369</v>
@@ -26931,13 +26931,13 @@
         <v>0.7619070177367845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0861</v>
+        <v>0.1098</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1255</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.04073701280102231</v>
@@ -27009,13 +27009,13 @@
         <v>0.7142816703858988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.095</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0737</v>
+        <v>0.1242</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1314</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.503064457661314</v>
@@ -27090,10 +27090,10 @@
         <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0644</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1042</v>
+        <v>0.099</v>
       </c>
       <c r="I9" t="n">
         <v>-0.173902507063779</v>
@@ -27165,13 +27165,13 @@
         <v>0.619031239855985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.115</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0849</v>
+        <v>0.0597</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1765</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>-0.3207654694589139</v>
@@ -27243,13 +27243,13 @@
         <v>0.5714058925052004</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0568</v>
+        <v>0.0597</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0885</v>
+        <v>0.075</v>
       </c>
       <c r="I11" t="n">
         <v>-0.1991013598017665</v>
@@ -27321,13 +27321,13 @@
         <v>0.5237828920173881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0462</v>
+        <v>0.0649</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0554</v>
+        <v>0.0776</v>
       </c>
       <c r="I12" t="n">
         <v>-0.4162929630592395</v>
@@ -27399,13 +27399,13 @@
         <v>0.4761575446666188</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0439</v>
+        <v>0.0543</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0626</v>
+        <v>0.076</v>
       </c>
       <c r="I13" t="n">
         <v>-0.5993611751271459</v>
@@ -27477,13 +27477,13 @@
         <v>0.4285321973158495</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0488</v>
+        <v>0.0532</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0672</v>
+        <v>0.0814</v>
       </c>
       <c r="I14" t="n">
         <v>-0.5986239746522146</v>
@@ -27555,13 +27555,13 @@
         <v>0.3809068499645511</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0462</v>
+        <v>0.0687</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0672</v>
+        <v>0.1223</v>
       </c>
       <c r="I15" t="n">
         <v>-0.4940029297299466</v>
@@ -27636,10 +27636,10 @@
         <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0455</v>
+        <v>0.0504</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0634</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>-0.6427039125962912</v>
@@ -27711,13 +27711,13 @@
         <v>0.2856572320248476</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0405</v>
+        <v>0.0506</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0577</v>
+        <v>0.0624</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4780289415658193</v>
@@ -27792,10 +27792,10 @@
         <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0364</v>
+        <v>0.0376</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0501</v>
+        <v>0.042</v>
       </c>
       <c r="I18" t="n">
         <v>-0.5198632089254958</v>
@@ -27867,13 +27867,13 @@
         <v>0.1904065373229028</v>
       </c>
       <c r="F19" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0399</v>
+        <v>0.0382</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0518</v>
+        <v>0.0472</v>
       </c>
       <c r="I19" t="n">
         <v>-0.1545359477601722</v>
@@ -27945,13 +27945,13 @@
         <v>0.1428733761331434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0487</v>
+        <v>0.0385</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0679</v>
+        <v>0.0458</v>
       </c>
       <c r="I20" t="n">
         <v>0.03375399381449191</v>
@@ -28023,13 +28023,13 @@
         <v>0.09524802878200531</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0552</v>
+        <v>0.1029</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
         <v>0.004725280245292984</v>
@@ -28101,13 +28101,13 @@
         <v>0.04762534735086416</v>
       </c>
       <c r="F22" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0498</v>
+        <v>0.0444</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0601</v>
+        <v>0.0541</v>
       </c>
       <c r="I22" t="n">
         <v>-0.470403084559477</v>
@@ -28179,13 +28179,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0498</v>
+        <v>0.1369</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
         <v>-0.3262349064886213</v>

--- a/data/nzd0221/nzd0221.xlsx
+++ b/data/nzd0221/nzd0221.xlsx
@@ -570,7 +570,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>290.02</v>
+        <v>290.11</v>
       </c>
       <c r="H2" t="n">
         <v>294.81</v>
@@ -618,7 +618,7 @@
         <v>327.24</v>
       </c>
       <c r="G3" t="n">
-        <v>318.62</v>
+        <v>318.54</v>
       </c>
       <c r="H3" t="n">
         <v>315.48</v>
@@ -627,7 +627,7 @@
         <v>323.28</v>
       </c>
       <c r="J3" t="n">
-        <v>327.09</v>
+        <v>326.58</v>
       </c>
       <c r="K3" t="n">
         <v>333.31</v>
@@ -696,7 +696,7 @@
         <v>341.96</v>
       </c>
       <c r="G4" t="n">
-        <v>329.29</v>
+        <v>329.18</v>
       </c>
       <c r="H4" t="n">
         <v>322.17</v>
@@ -705,7 +705,7 @@
         <v>325.02</v>
       </c>
       <c r="J4" t="n">
-        <v>326.76</v>
+        <v>326.09</v>
       </c>
       <c r="K4" t="n">
         <v>334.52</v>
@@ -774,7 +774,7 @@
         <v>356.33</v>
       </c>
       <c r="G5" t="n">
-        <v>329.86</v>
+        <v>329.88</v>
       </c>
       <c r="H5" t="n">
         <v>336.02</v>
@@ -783,7 +783,7 @@
         <v>339.99</v>
       </c>
       <c r="J5" t="n">
-        <v>330.94</v>
+        <v>331.07</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
@@ -844,7 +844,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>286.25</v>
+        <v>286.15</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -896,7 +896,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>296.44</v>
+        <v>296.54</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -956,7 +956,7 @@
         <v>338.78</v>
       </c>
       <c r="G8" t="n">
-        <v>331.83</v>
+        <v>331.72</v>
       </c>
       <c r="H8" t="n">
         <v>322.45</v>
@@ -965,7 +965,7 @@
         <v>330.63</v>
       </c>
       <c r="J8" t="n">
-        <v>329.62</v>
+        <v>328.93</v>
       </c>
       <c r="K8" t="n">
         <v>329.97</v>
@@ -1039,7 +1039,7 @@
         <v>345.14</v>
       </c>
       <c r="J9" t="n">
-        <v>342.13</v>
+        <v>342.67</v>
       </c>
       <c r="K9" t="n">
         <v>338.35</v>
@@ -1100,14 +1100,14 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>296.3</v>
+        <v>296.08</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>293.23</v>
       </c>
       <c r="J10" t="n">
-        <v>291.14</v>
+        <v>289.71</v>
       </c>
       <c r="K10" t="n">
         <v>304.15</v>
@@ -1166,14 +1166,14 @@
         <v>299.18</v>
       </c>
       <c r="G11" t="n">
-        <v>277.62</v>
+        <v>277.59</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>267.04</v>
       </c>
       <c r="J11" t="n">
-        <v>272.83</v>
+        <v>272.62</v>
       </c>
       <c r="K11" t="n">
         <v>287.57</v>
@@ -1234,14 +1234,14 @@
         <v>284.61</v>
       </c>
       <c r="G12" t="n">
-        <v>296.97</v>
+        <v>297.09</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>273.12</v>
       </c>
       <c r="J12" t="n">
-        <v>265.58</v>
+        <v>266.34</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
@@ -1302,7 +1302,7 @@
         <v>370.95</v>
       </c>
       <c r="G13" t="n">
-        <v>376.72</v>
+        <v>376.81</v>
       </c>
       <c r="H13" t="n">
         <v>380.13</v>
@@ -1311,7 +1311,7 @@
         <v>375.39</v>
       </c>
       <c r="J13" t="n">
-        <v>355.54</v>
+        <v>356.13</v>
       </c>
       <c r="K13" t="n">
         <v>355.77</v>
@@ -1380,7 +1380,7 @@
         <v>368.18</v>
       </c>
       <c r="G14" t="n">
-        <v>374.95</v>
+        <v>375.05</v>
       </c>
       <c r="H14" t="n">
         <v>375.8</v>
@@ -1389,7 +1389,7 @@
         <v>368.62</v>
       </c>
       <c r="J14" t="n">
-        <v>363.19</v>
+        <v>363.85</v>
       </c>
       <c r="K14" t="n">
         <v>363.06</v>
@@ -1458,7 +1458,7 @@
         <v>370.92</v>
       </c>
       <c r="G15" t="n">
-        <v>381.09</v>
+        <v>381.06</v>
       </c>
       <c r="H15" t="n">
         <v>385.85</v>
@@ -1467,7 +1467,7 @@
         <v>381.05</v>
       </c>
       <c r="J15" t="n">
-        <v>366.27</v>
+        <v>366.1</v>
       </c>
       <c r="K15" t="n">
         <v>362.2</v>
@@ -1536,7 +1536,7 @@
         <v>360.29</v>
       </c>
       <c r="G16" t="n">
-        <v>357.63</v>
+        <v>357.7</v>
       </c>
       <c r="H16" t="n">
         <v>331.5</v>
@@ -1545,7 +1545,7 @@
         <v>349.5</v>
       </c>
       <c r="J16" t="n">
-        <v>348.49</v>
+        <v>348.92</v>
       </c>
       <c r="K16" t="n">
         <v>347.22</v>
@@ -1614,7 +1614,7 @@
         <v>293.7</v>
       </c>
       <c r="G17" t="n">
-        <v>292.64</v>
+        <v>292.54</v>
       </c>
       <c r="H17" t="n">
         <v>271.32</v>
@@ -1623,7 +1623,7 @@
         <v>289.64</v>
       </c>
       <c r="J17" t="n">
-        <v>288.82</v>
+        <v>288.2</v>
       </c>
       <c r="K17" t="n">
         <v>295.66</v>
@@ -1686,7 +1686,7 @@
         <v>314.16</v>
       </c>
       <c r="G18" t="n">
-        <v>312.46</v>
+        <v>312.45</v>
       </c>
       <c r="H18" t="n">
         <v>298.1</v>
@@ -1695,7 +1695,7 @@
         <v>325.65</v>
       </c>
       <c r="J18" t="n">
-        <v>291.08</v>
+        <v>291.02</v>
       </c>
       <c r="K18" t="n">
         <v>308.29</v>
@@ -1760,7 +1760,7 @@
         <v>344.32</v>
       </c>
       <c r="G19" t="n">
-        <v>328.71</v>
+        <v>328.63</v>
       </c>
       <c r="H19" t="n">
         <v>322.73</v>
@@ -1769,7 +1769,7 @@
         <v>329.54</v>
       </c>
       <c r="J19" t="n">
-        <v>330.75</v>
+        <v>330.25</v>
       </c>
       <c r="K19" t="n">
         <v>330.86</v>
@@ -1838,7 +1838,7 @@
         <v>342.4</v>
       </c>
       <c r="G20" t="n">
-        <v>328.99</v>
+        <v>328.78</v>
       </c>
       <c r="H20" t="n">
         <v>325.56</v>
@@ -1847,7 +1847,7 @@
         <v>337.93</v>
       </c>
       <c r="J20" t="n">
-        <v>340.06</v>
+        <v>338.73</v>
       </c>
       <c r="K20" t="n">
         <v>337.75</v>
@@ -1914,7 +1914,7 @@
         <v>340.79</v>
       </c>
       <c r="G21" t="n">
-        <v>353.93</v>
+        <v>353.99</v>
       </c>
       <c r="H21" t="n">
         <v>335.04</v>
@@ -1923,7 +1923,7 @@
         <v>333.74</v>
       </c>
       <c r="J21" t="n">
-        <v>347.91</v>
+        <v>348.31</v>
       </c>
       <c r="K21" t="n">
         <v>365.63</v>
@@ -1990,7 +1990,7 @@
         <v>301.96</v>
       </c>
       <c r="G22" t="n">
-        <v>298.74</v>
+        <v>298.83</v>
       </c>
       <c r="H22" t="n">
         <v>331.12</v>
@@ -2058,12 +2058,12 @@
         <v>309.73</v>
       </c>
       <c r="G23" t="n">
-        <v>305.19</v>
+        <v>305.17</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>321.11</v>
+        <v>320.98</v>
       </c>
       <c r="K23" t="n">
         <v>317.56</v>
@@ -2126,7 +2126,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>270.63</v>
+        <v>270.75</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -2176,7 +2176,7 @@
         <v>295.7</v>
       </c>
       <c r="G25" t="n">
-        <v>296.52</v>
+        <v>296.33</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>281.68</v>
+        <v>281.81</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
         <v>321.6</v>
       </c>
       <c r="G27" t="n">
-        <v>314.75</v>
+        <v>314.49</v>
       </c>
       <c r="H27" t="n">
         <v>305.6</v>
@@ -2313,7 +2313,7 @@
         <v>322.69</v>
       </c>
       <c r="J27" t="n">
-        <v>328.64</v>
+        <v>327</v>
       </c>
       <c r="K27" t="n">
         <v>329.99</v>
@@ -2378,7 +2378,7 @@
         <v>336.38</v>
       </c>
       <c r="G28" t="n">
-        <v>335.31</v>
+        <v>335.29</v>
       </c>
       <c r="H28" t="n">
         <v>332.15</v>
@@ -2387,7 +2387,7 @@
         <v>347.92</v>
       </c>
       <c r="J28" t="n">
-        <v>347</v>
+        <v>346.84</v>
       </c>
       <c r="K28" t="n">
         <v>347.7</v>
@@ -2450,7 +2450,7 @@
         <v>333.71</v>
       </c>
       <c r="G29" t="n">
-        <v>314.45</v>
+        <v>314.46</v>
       </c>
       <c r="H29" t="n">
         <v>317.55</v>
@@ -2459,7 +2459,7 @@
         <v>322.38</v>
       </c>
       <c r="J29" t="n">
-        <v>336.82</v>
+        <v>336.91</v>
       </c>
       <c r="K29" t="n">
         <v>338.8</v>
@@ -2528,7 +2528,7 @@
         <v>318.33</v>
       </c>
       <c r="G30" t="n">
-        <v>314.75</v>
+        <v>314.6</v>
       </c>
       <c r="H30" t="n">
         <v>316.47</v>
@@ -2655,7 +2655,7 @@
         <v>315.6</v>
       </c>
       <c r="J32" t="n">
-        <v>319.49</v>
+        <v>319.35</v>
       </c>
       <c r="K32" t="n">
         <v>303.81</v>
@@ -2720,7 +2720,7 @@
         <v>313.29</v>
       </c>
       <c r="G33" t="n">
-        <v>311.1</v>
+        <v>310.89</v>
       </c>
       <c r="H33" t="n">
         <v>299.85</v>
@@ -2729,7 +2729,7 @@
         <v>327.57</v>
       </c>
       <c r="J33" t="n">
-        <v>310.07</v>
+        <v>308.74</v>
       </c>
       <c r="K33" t="n">
         <v>317.26</v>
@@ -2796,7 +2796,7 @@
         <v>289.27</v>
       </c>
       <c r="G34" t="n">
-        <v>291.44</v>
+        <v>291.19</v>
       </c>
       <c r="H34" t="n">
         <v>270.36</v>
@@ -2805,7 +2805,7 @@
         <v>302.75</v>
       </c>
       <c r="J34" t="n">
-        <v>305.68</v>
+        <v>304.09</v>
       </c>
       <c r="K34" t="n">
         <v>314.95</v>
@@ -2872,7 +2872,7 @@
         <v>292.4</v>
       </c>
       <c r="G35" t="n">
-        <v>285.99</v>
+        <v>286.09</v>
       </c>
       <c r="H35" t="n">
         <v>275.95</v>
@@ -2881,7 +2881,7 @@
         <v>319.36</v>
       </c>
       <c r="J35" t="n">
-        <v>273.69</v>
+        <v>274.36</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
@@ -2934,12 +2934,12 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>253.42</v>
+        <v>253.52</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>255.3</v>
+        <v>255.97</v>
       </c>
       <c r="K36" t="n">
         <v>269.27</v>
@@ -2992,12 +2992,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>270.45</v>
+        <v>270.55</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>266.6</v>
+        <v>267.22</v>
       </c>
       <c r="K37" t="n">
         <v>276.73</v>
@@ -3063,7 +3063,7 @@
         <v>299.64</v>
       </c>
       <c r="J38" t="n">
-        <v>298.52</v>
+        <v>297.09</v>
       </c>
       <c r="K38" t="n">
         <v>307.16</v>
@@ -3126,7 +3126,7 @@
         <v>265.48</v>
       </c>
       <c r="G39" t="n">
-        <v>267.83</v>
+        <v>267.95</v>
       </c>
       <c r="H39" t="n">
         <v>247.24</v>
@@ -3135,7 +3135,7 @@
         <v>262.44</v>
       </c>
       <c r="J39" t="n">
-        <v>267.84</v>
+        <v>268.61</v>
       </c>
       <c r="K39" t="n">
         <v>278.76</v>
@@ -3197,7 +3197,7 @@
         <v>336.95</v>
       </c>
       <c r="J40" t="n">
-        <v>351.04</v>
+        <v>351.21</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
@@ -3242,7 +3242,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>237.29</v>
+        <v>237.17</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
         <v>324.96</v>
       </c>
       <c r="G42" t="n">
-        <v>309.15</v>
+        <v>309.08</v>
       </c>
       <c r="H42" t="n">
         <v>302.05</v>
@@ -3297,7 +3297,7 @@
         <v>312.94</v>
       </c>
       <c r="J42" t="n">
-        <v>315.41</v>
+        <v>314.94</v>
       </c>
       <c r="K42" t="n">
         <v>311.28</v>
@@ -3366,7 +3366,7 @@
         <v>330.52</v>
       </c>
       <c r="G43" t="n">
-        <v>317.24</v>
+        <v>317.03</v>
       </c>
       <c r="H43" t="n">
         <v>310.57</v>
@@ -3375,7 +3375,7 @@
         <v>317.97</v>
       </c>
       <c r="J43" t="n">
-        <v>317.71</v>
+        <v>316.4</v>
       </c>
       <c r="K43" t="n">
         <v>320.56</v>
@@ -3442,7 +3442,7 @@
         <v>335.96</v>
       </c>
       <c r="G44" t="n">
-        <v>328.94</v>
+        <v>329.04</v>
       </c>
       <c r="H44" t="n">
         <v>326.99</v>
@@ -3451,7 +3451,7 @@
         <v>338.12</v>
       </c>
       <c r="J44" t="n">
-        <v>335.11</v>
+        <v>335.77</v>
       </c>
       <c r="K44" t="n">
         <v>334.18</v>
@@ -3514,7 +3514,7 @@
         <v>318.35</v>
       </c>
       <c r="G45" t="n">
-        <v>312.03</v>
+        <v>311.78</v>
       </c>
       <c r="H45" t="n">
         <v>303.52</v>
@@ -3523,7 +3523,7 @@
         <v>319.85</v>
       </c>
       <c r="J45" t="n">
-        <v>322.08</v>
+        <v>320.48</v>
       </c>
       <c r="K45" t="n">
         <v>324.15</v>
@@ -3584,7 +3584,7 @@
         <v>324.57</v>
       </c>
       <c r="G46" t="n">
-        <v>317.21</v>
+        <v>317.01</v>
       </c>
       <c r="H46" t="n">
         <v>310.39</v>
@@ -3593,7 +3593,7 @@
         <v>325.56</v>
       </c>
       <c r="J46" t="n">
-        <v>332.46</v>
+        <v>331.17</v>
       </c>
       <c r="K46" t="n">
         <v>333.6</v>
@@ -3656,7 +3656,7 @@
         <v>360.82</v>
       </c>
       <c r="G47" t="n">
-        <v>336.4</v>
+        <v>336.5</v>
       </c>
       <c r="H47" t="n">
         <v>334.62</v>
@@ -3665,7 +3665,7 @@
         <v>330.67</v>
       </c>
       <c r="J47" t="n">
-        <v>342.75</v>
+        <v>343.41</v>
       </c>
       <c r="K47" t="n">
         <v>352.24</v>
@@ -3739,7 +3739,7 @@
         <v>322.02</v>
       </c>
       <c r="J48" t="n">
-        <v>317.88</v>
+        <v>316.97</v>
       </c>
       <c r="K48" t="n">
         <v>326.51</v>
@@ -3802,7 +3802,7 @@
         <v>312.34</v>
       </c>
       <c r="G49" t="n">
-        <v>290.72</v>
+        <v>290.63</v>
       </c>
       <c r="H49" t="n">
         <v>291.7</v>
@@ -3811,7 +3811,7 @@
         <v>322.21</v>
       </c>
       <c r="J49" t="n">
-        <v>308.36</v>
+        <v>307.79</v>
       </c>
       <c r="K49" t="n">
         <v>318.44</v>
@@ -3885,7 +3885,7 @@
         <v>314.69</v>
       </c>
       <c r="J50" t="n">
-        <v>285.63</v>
+        <v>285.59</v>
       </c>
       <c r="K50" t="n">
         <v>295.71</v>
@@ -3946,7 +3946,7 @@
         <v>313.18</v>
       </c>
       <c r="G51" t="n">
-        <v>305.69</v>
+        <v>305.57</v>
       </c>
       <c r="H51" t="n">
         <v>285.36</v>
@@ -3955,7 +3955,7 @@
         <v>304.48</v>
       </c>
       <c r="J51" t="n">
-        <v>290.42</v>
+        <v>289.66</v>
       </c>
       <c r="K51" t="n">
         <v>303.91</v>
@@ -4018,14 +4018,14 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>280.04</v>
+        <v>279.9</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>274.83</v>
       </c>
       <c r="J52" t="n">
-        <v>291.13</v>
+        <v>290.22</v>
       </c>
       <c r="K52" t="n">
         <v>303.18</v>
@@ -4088,7 +4088,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>290.4</v>
+        <v>290.26</v>
       </c>
       <c r="H53" t="n">
         <v>281.79</v>
@@ -4097,7 +4097,7 @@
         <v>284.23</v>
       </c>
       <c r="J53" t="n">
-        <v>283.8</v>
+        <v>282.94</v>
       </c>
       <c r="K53" t="n">
         <v>293.36</v>
@@ -4160,7 +4160,7 @@
         <v>304.87</v>
       </c>
       <c r="G54" t="n">
-        <v>309.41</v>
+        <v>309.17</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
         <v>344.23</v>
       </c>
       <c r="G55" t="n">
-        <v>338.19</v>
+        <v>338.21</v>
       </c>
       <c r="H55" t="n">
         <v>332.74</v>
@@ -4300,7 +4300,7 @@
         <v>324.1</v>
       </c>
       <c r="G56" t="n">
-        <v>315.03</v>
+        <v>314.91</v>
       </c>
       <c r="H56" t="n">
         <v>307.87</v>
@@ -4309,7 +4309,7 @@
         <v>318.23</v>
       </c>
       <c r="J56" t="n">
-        <v>323.98</v>
+        <v>323.27</v>
       </c>
       <c r="K56" t="n">
         <v>328.22</v>
@@ -4378,7 +4378,7 @@
         <v>345.82</v>
       </c>
       <c r="G57" t="n">
-        <v>335.92</v>
+        <v>335.89</v>
       </c>
       <c r="H57" t="n">
         <v>329.24</v>
@@ -4448,7 +4448,7 @@
         <v>328.48</v>
       </c>
       <c r="G58" t="n">
-        <v>328.55</v>
+        <v>328.5</v>
       </c>
       <c r="H58" t="n">
         <v>318.76</v>
@@ -4457,7 +4457,7 @@
         <v>327.07</v>
       </c>
       <c r="J58" t="n">
-        <v>328.78</v>
+        <v>328.45</v>
       </c>
       <c r="K58" t="n">
         <v>327.12</v>
@@ -4525,7 +4525,7 @@
         <v>347.39</v>
       </c>
       <c r="J59" t="n">
-        <v>344.33</v>
+        <v>344.83</v>
       </c>
       <c r="K59" t="n">
         <v>350.6</v>
@@ -4597,7 +4597,7 @@
         <v>348.27</v>
       </c>
       <c r="J60" t="n">
-        <v>339.15</v>
+        <v>339.42</v>
       </c>
       <c r="K60" t="n">
         <v>344.43</v>
@@ -4666,7 +4666,7 @@
         <v>326.35</v>
       </c>
       <c r="G61" t="n">
-        <v>318.37</v>
+        <v>318.11</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -4732,7 +4732,7 @@
         <v>325.08</v>
       </c>
       <c r="G62" t="n">
-        <v>318.67</v>
+        <v>318.47</v>
       </c>
       <c r="H62" t="n">
         <v>316.4</v>
@@ -4741,7 +4741,7 @@
         <v>327.42</v>
       </c>
       <c r="J62" t="n">
-        <v>327.99</v>
+        <v>326.72</v>
       </c>
       <c r="K62" t="n">
         <v>321.5</v>
@@ -4804,7 +4804,7 @@
         <v>318.21</v>
       </c>
       <c r="G63" t="n">
-        <v>316.94</v>
+        <v>316.76</v>
       </c>
       <c r="H63" t="n">
         <v>306.72</v>
@@ -4813,7 +4813,7 @@
         <v>329.79</v>
       </c>
       <c r="J63" t="n">
-        <v>305.41</v>
+        <v>304.27</v>
       </c>
       <c r="K63" t="n">
         <v>313.8</v>
@@ -4870,7 +4870,7 @@
         <v>314.9</v>
       </c>
       <c r="G64" t="n">
-        <v>306.91</v>
+        <v>306.78</v>
       </c>
       <c r="H64" t="n">
         <v>295.26</v>
@@ -4879,7 +4879,7 @@
         <v>328.45</v>
       </c>
       <c r="J64" t="n">
-        <v>297.38</v>
+        <v>296.57</v>
       </c>
       <c r="K64" t="n">
         <v>309.58</v>
@@ -4941,7 +4941,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>271.38</v>
+        <v>271.81</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
@@ -4992,7 +4992,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>295.89</v>
+        <v>295.75</v>
       </c>
       <c r="H66" t="n">
         <v>264.68</v>
@@ -5001,7 +5001,7 @@
         <v>288.46</v>
       </c>
       <c r="J66" t="n">
-        <v>291.31</v>
+        <v>290.4</v>
       </c>
       <c r="K66" t="n">
         <v>306.3</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
-        <v>283.89</v>
+        <v>283.76</v>
       </c>
       <c r="H67" t="n">
         <v>264.15</v>
@@ -5071,7 +5071,7 @@
         <v>277.6</v>
       </c>
       <c r="J67" t="n">
-        <v>283.55</v>
+        <v>282.71</v>
       </c>
       <c r="K67" t="n">
         <v>296.31</v>
@@ -5128,14 +5128,14 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>286.32</v>
+        <v>286.31</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>267.98</v>
       </c>
       <c r="J68" t="n">
-        <v>273.98</v>
+        <v>273.94</v>
       </c>
       <c r="K68" t="n">
         <v>284.47</v>
@@ -5250,7 +5250,7 @@
         <v>343.92</v>
       </c>
       <c r="G70" t="n">
-        <v>329.88</v>
+        <v>329.84</v>
       </c>
       <c r="H70" t="n">
         <v>324.52</v>
@@ -5314,7 +5314,7 @@
         <v>345.47</v>
       </c>
       <c r="G71" t="n">
-        <v>345.36</v>
+        <v>345.29</v>
       </c>
       <c r="H71" t="n">
         <v>339.53</v>
@@ -5323,7 +5323,7 @@
         <v>336.1</v>
       </c>
       <c r="J71" t="n">
-        <v>340.99</v>
+        <v>340.55</v>
       </c>
       <c r="K71" t="n">
         <v>335.64</v>
@@ -5389,7 +5389,7 @@
         <v>335.98</v>
       </c>
       <c r="J72" t="n">
-        <v>335.52</v>
+        <v>334.32</v>
       </c>
       <c r="K72" t="n">
         <v>332.2</v>
@@ -5446,7 +5446,7 @@
         <v>320.01</v>
       </c>
       <c r="G73" t="n">
-        <v>309.03</v>
+        <v>308.85</v>
       </c>
       <c r="H73" t="n">
         <v>300.09</v>
@@ -5455,7 +5455,7 @@
         <v>329.17</v>
       </c>
       <c r="J73" t="n">
-        <v>307.51</v>
+        <v>306.37</v>
       </c>
       <c r="K73" t="n">
         <v>313.42</v>
@@ -5514,7 +5514,9 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>267.71</v>
+      </c>
       <c r="K74" t="n">
         <v>281.22</v>
       </c>
@@ -5562,7 +5564,7 @@
         <v>328.03</v>
       </c>
       <c r="G75" t="n">
-        <v>317.99</v>
+        <v>317.75</v>
       </c>
       <c r="H75" t="n">
         <v>315.58</v>
@@ -5570,9 +5572,7 @@
       <c r="I75" t="n">
         <v>335.96</v>
       </c>
-      <c r="J75" t="n">
-        <v>323.9</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>337.45</v>
@@ -5680,9 +5680,7 @@
       <c r="I77" t="n">
         <v>348.99</v>
       </c>
-      <c r="J77" t="n">
-        <v>336.46</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -5742,7 +5740,7 @@
         <v>288</v>
       </c>
       <c r="G78" t="n">
-        <v>292.12</v>
+        <v>292.04</v>
       </c>
       <c r="H78" t="n">
         <v>274.1</v>
@@ -5751,7 +5749,7 @@
         <v>285.57</v>
       </c>
       <c r="J78" t="n">
-        <v>289.01</v>
+        <v>288.54</v>
       </c>
       <c r="K78" t="n">
         <v>300.64</v>
@@ -5814,7 +5812,7 @@
         <v>296.55</v>
       </c>
       <c r="G79" t="n">
-        <v>297.11</v>
+        <v>297.09</v>
       </c>
       <c r="H79" t="n">
         <v>290.19</v>
@@ -5823,7 +5821,7 @@
         <v>314.83</v>
       </c>
       <c r="J79" t="n">
-        <v>286.48</v>
+        <v>286.38</v>
       </c>
       <c r="K79" t="n">
         <v>292.88</v>
@@ -5863,7 +5861,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>304</v>
+        <v>302.53</v>
       </c>
       <c r="K80" t="n">
         <v>324.7</v>
@@ -5926,7 +5924,7 @@
         <v>332.96</v>
       </c>
       <c r="G81" t="n">
-        <v>331.52</v>
+        <v>331.38</v>
       </c>
       <c r="H81" t="n">
         <v>328.39</v>
@@ -5935,7 +5933,7 @@
         <v>340.64</v>
       </c>
       <c r="J81" t="n">
-        <v>343</v>
+        <v>342.11</v>
       </c>
       <c r="K81" t="n">
         <v>340.01</v>
@@ -6000,7 +5998,7 @@
         <v>321.44</v>
       </c>
       <c r="G82" t="n">
-        <v>308.08</v>
+        <v>307.98</v>
       </c>
       <c r="H82" t="n">
         <v>311.61</v>
@@ -6009,7 +6007,7 @@
         <v>339.62</v>
       </c>
       <c r="J82" t="n">
-        <v>328.15</v>
+        <v>327.53</v>
       </c>
       <c r="K82" t="n">
         <v>311.23</v>
@@ -6066,12 +6064,12 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>269.25</v>
+        <v>269.04</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>280.72</v>
+        <v>279.39</v>
       </c>
       <c r="K83" t="n">
         <v>293.34</v>
@@ -6128,7 +6126,7 @@
         <v>322.01</v>
       </c>
       <c r="G84" t="n">
-        <v>323.18</v>
+        <v>323.17</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -6194,7 +6192,7 @@
         <v>314.54</v>
       </c>
       <c r="G85" t="n">
-        <v>309.06</v>
+        <v>308.86</v>
       </c>
       <c r="H85" t="n">
         <v>302.08</v>
@@ -6203,7 +6201,7 @@
         <v>318.44</v>
       </c>
       <c r="J85" t="n">
-        <v>317.72</v>
+        <v>316.42</v>
       </c>
       <c r="K85" t="n">
         <v>322</v>
@@ -6268,7 +6266,7 @@
         <v>339.72</v>
       </c>
       <c r="G86" t="n">
-        <v>334.03</v>
+        <v>334.13</v>
       </c>
       <c r="H86" t="n">
         <v>331.89</v>
@@ -6277,7 +6275,7 @@
         <v>330.27</v>
       </c>
       <c r="J86" t="n">
-        <v>324.76</v>
+        <v>325.38</v>
       </c>
       <c r="K86" t="n">
         <v>320.37</v>
@@ -6418,7 +6416,7 @@
         <v>356.43</v>
       </c>
       <c r="G88" t="n">
-        <v>348.9</v>
+        <v>348.96</v>
       </c>
       <c r="H88" t="n">
         <v>354.17</v>
@@ -6427,7 +6425,7 @@
         <v>344.34</v>
       </c>
       <c r="J88" t="n">
-        <v>336.98</v>
+        <v>337.4</v>
       </c>
       <c r="K88" t="n">
         <v>334.19</v>
@@ -6488,12 +6486,12 @@
         <v>318.85</v>
       </c>
       <c r="G89" t="n">
-        <v>304.7</v>
+        <v>304.54</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>314.71</v>
+        <v>313.74</v>
       </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
@@ -6560,7 +6558,7 @@
         <v>320.7</v>
       </c>
       <c r="G90" t="n">
-        <v>313.81</v>
+        <v>313.57</v>
       </c>
       <c r="H90" t="n">
         <v>313.57</v>
@@ -6569,7 +6567,7 @@
         <v>326.06</v>
       </c>
       <c r="J90" t="n">
-        <v>327.47</v>
+        <v>325.93</v>
       </c>
       <c r="K90" t="n">
         <v>326.26</v>
@@ -6700,7 +6698,7 @@
         <v>326.34</v>
       </c>
       <c r="G92" t="n">
-        <v>343.35</v>
+        <v>343.25</v>
       </c>
       <c r="H92" t="n">
         <v>339.64</v>
@@ -6709,7 +6707,7 @@
         <v>343.26</v>
       </c>
       <c r="J92" t="n">
-        <v>332.91</v>
+        <v>332.25</v>
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -6768,12 +6766,12 @@
         <v>293.47</v>
       </c>
       <c r="G93" t="n">
-        <v>312.44</v>
+        <v>312.24</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>297.53</v>
+        <v>296.3</v>
       </c>
       <c r="K93" t="n">
         <v>311.41</v>
@@ -6832,12 +6830,12 @@
         <v>273.3</v>
       </c>
       <c r="G94" t="n">
-        <v>298.82</v>
+        <v>298.65</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>287.74</v>
+        <v>286.65</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
@@ -6884,7 +6882,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>265.59</v>
+        <v>265.55</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -6949,7 +6947,7 @@
         <v>334.11</v>
       </c>
       <c r="J96" t="n">
-        <v>309.13</v>
+        <v>309.95</v>
       </c>
       <c r="K96" t="n">
         <v>289.81</v>
@@ -7004,7 +7002,7 @@
         <v>362.16</v>
       </c>
       <c r="G97" t="n">
-        <v>309.61</v>
+        <v>309.63</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -7070,7 +7068,7 @@
         <v>337.92</v>
       </c>
       <c r="G98" t="n">
-        <v>330.32</v>
+        <v>330.36</v>
       </c>
       <c r="H98" t="n">
         <v>335.67</v>
@@ -7079,7 +7077,7 @@
         <v>335.86</v>
       </c>
       <c r="J98" t="n">
-        <v>345.66</v>
+        <v>345.92</v>
       </c>
       <c r="K98" t="n">
         <v>350.07</v>
@@ -7140,7 +7138,7 @@
         <v>329.92</v>
       </c>
       <c r="G99" t="n">
-        <v>323.7</v>
+        <v>323.49</v>
       </c>
       <c r="H99" t="n">
         <v>321.11</v>
@@ -7210,7 +7208,7 @@
         <v>335.2</v>
       </c>
       <c r="G100" t="n">
-        <v>325.9</v>
+        <v>325.71</v>
       </c>
       <c r="H100" t="n">
         <v>316.16</v>
@@ -7219,7 +7217,7 @@
         <v>329.77</v>
       </c>
       <c r="J100" t="n">
-        <v>329.75</v>
+        <v>328.53</v>
       </c>
       <c r="K100" t="n">
         <v>333.08</v>
@@ -7282,7 +7280,7 @@
         <v>336.03</v>
       </c>
       <c r="G101" t="n">
-        <v>333.71</v>
+        <v>333.68</v>
       </c>
       <c r="H101" t="n">
         <v>335.99</v>
@@ -7291,7 +7289,7 @@
         <v>329.39</v>
       </c>
       <c r="J101" t="n">
-        <v>341.6</v>
+        <v>341.37</v>
       </c>
       <c r="K101" t="n">
         <v>347.18</v>
@@ -7350,7 +7348,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>316.79</v>
+        <v>316.83</v>
       </c>
       <c r="H102" t="n">
         <v>310.95</v>
@@ -7359,7 +7357,7 @@
         <v>315.98</v>
       </c>
       <c r="J102" t="n">
-        <v>316.86</v>
+        <v>317.16</v>
       </c>
       <c r="K102" t="n">
         <v>312.89</v>
@@ -7422,7 +7420,7 @@
         <v>344.59</v>
       </c>
       <c r="G103" t="n">
-        <v>338.57</v>
+        <v>338.32</v>
       </c>
       <c r="H103" t="n">
         <v>336.84</v>
@@ -7431,7 +7429,7 @@
         <v>349.29</v>
       </c>
       <c r="J103" t="n">
-        <v>346.93</v>
+        <v>345.37</v>
       </c>
       <c r="K103" t="n">
         <v>354.93</v>
@@ -7496,7 +7494,7 @@
         <v>355.26</v>
       </c>
       <c r="G104" t="n">
-        <v>322.19</v>
+        <v>322.31</v>
       </c>
       <c r="H104" t="n">
         <v>327.68</v>
@@ -7505,7 +7503,7 @@
         <v>327.76</v>
       </c>
       <c r="J104" t="n">
-        <v>336.42</v>
+        <v>337.13</v>
       </c>
       <c r="K104" t="n">
         <v>334.39</v>
@@ -7620,7 +7618,7 @@
         <v>311.55</v>
       </c>
       <c r="G106" t="n">
-        <v>310.51</v>
+        <v>310.38</v>
       </c>
       <c r="H106" t="n">
         <v>301.81</v>
@@ -7629,7 +7627,7 @@
         <v>319.55</v>
       </c>
       <c r="J106" t="n">
-        <v>306.8</v>
+        <v>306</v>
       </c>
       <c r="K106" t="n">
         <v>313.65</v>
@@ -7694,7 +7692,7 @@
         <v>349.38</v>
       </c>
       <c r="G107" t="n">
-        <v>359.9</v>
+        <v>359.97</v>
       </c>
       <c r="H107" t="n">
         <v>334.08</v>
@@ -7758,7 +7756,7 @@
         <v>333.52</v>
       </c>
       <c r="G108" t="n">
-        <v>324.13</v>
+        <v>323.96</v>
       </c>
       <c r="H108" t="n">
         <v>321.25</v>
@@ -7767,7 +7765,7 @@
         <v>332.62</v>
       </c>
       <c r="J108" t="n">
-        <v>331.59</v>
+        <v>330.53</v>
       </c>
       <c r="K108" t="n">
         <v>330.08</v>
@@ -7892,7 +7890,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>305.4</v>
+        <v>305.41</v>
       </c>
       <c r="H110" t="n">
         <v>348.07</v>
@@ -7954,7 +7952,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>286.04</v>
+        <v>285.86</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
@@ -8008,7 +8006,7 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>302.64</v>
+        <v>302.68</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
@@ -8073,9 +8071,7 @@
       <c r="F113" t="n">
         <v>360.36</v>
       </c>
-      <c r="G113" t="n">
-        <v>362.25</v>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
         <v>353.71</v>
       </c>
@@ -8083,7 +8079,7 @@
         <v>354.76</v>
       </c>
       <c r="J113" t="n">
-        <v>345.29</v>
+        <v>346.25</v>
       </c>
       <c r="K113" t="n">
         <v>336.2</v>
@@ -8140,7 +8136,7 @@
         <v>334.37</v>
       </c>
       <c r="G114" t="n">
-        <v>322.26</v>
+        <v>322.37</v>
       </c>
       <c r="H114" t="n">
         <v>327.57</v>
@@ -8149,7 +8145,7 @@
         <v>328.04</v>
       </c>
       <c r="J114" t="n">
-        <v>339.28</v>
+        <v>339.97</v>
       </c>
       <c r="K114" t="n">
         <v>335.82</v>
@@ -8210,7 +8206,7 @@
         <v>336.24</v>
       </c>
       <c r="G115" t="n">
-        <v>326.68</v>
+        <v>326.69</v>
       </c>
       <c r="H115" t="n">
         <v>326.54</v>
@@ -8219,7 +8215,7 @@
         <v>329.65</v>
       </c>
       <c r="J115" t="n">
-        <v>324.9</v>
+        <v>324.97</v>
       </c>
       <c r="K115" t="n">
         <v>321.67</v>
@@ -8282,7 +8278,7 @@
         <v>321.96</v>
       </c>
       <c r="G116" t="n">
-        <v>314.92</v>
+        <v>314.69</v>
       </c>
       <c r="H116" t="n">
         <v>315.81</v>
@@ -8291,7 +8287,7 @@
         <v>331.86</v>
       </c>
       <c r="J116" t="n">
-        <v>329.63</v>
+        <v>328.21</v>
       </c>
       <c r="K116" t="n">
         <v>331.07</v>
@@ -8342,7 +8338,7 @@
         <v>335.78</v>
       </c>
       <c r="G117" t="n">
-        <v>328.74</v>
+        <v>328.55</v>
       </c>
       <c r="H117" t="n">
         <v>326.97</v>
@@ -8351,7 +8347,7 @@
         <v>344.78</v>
       </c>
       <c r="J117" t="n">
-        <v>344.95</v>
+        <v>343.75</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
@@ -8414,7 +8410,7 @@
         <v>300.43</v>
       </c>
       <c r="G118" t="n">
-        <v>303.76</v>
+        <v>303.54</v>
       </c>
       <c r="H118" t="n">
         <v>292.7</v>
@@ -8476,7 +8472,7 @@
         <v>307.52</v>
       </c>
       <c r="G119" t="n">
-        <v>296.44</v>
+        <v>296.23</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -8540,7 +8536,7 @@
         <v>296.4</v>
       </c>
       <c r="G120" t="n">
-        <v>290.01</v>
+        <v>289.81</v>
       </c>
       <c r="H120" t="n">
         <v>269.48</v>
@@ -8610,7 +8606,7 @@
         <v>319.27</v>
       </c>
       <c r="G121" t="n">
-        <v>322.05</v>
+        <v>321.98</v>
       </c>
       <c r="H121" t="n">
         <v>341.23</v>
@@ -8619,7 +8615,7 @@
         <v>348.54</v>
       </c>
       <c r="J121" t="n">
-        <v>338.04</v>
+        <v>337.63</v>
       </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
@@ -8686,12 +8682,12 @@
         <v>356.01</v>
       </c>
       <c r="G122" t="n">
-        <v>329.55</v>
+        <v>329.65</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>332.33</v>
+        <v>332.95</v>
       </c>
       <c r="K122" t="n">
         <v>339.82</v>
@@ -8756,7 +8752,7 @@
         <v>334.95</v>
       </c>
       <c r="G123" t="n">
-        <v>321.3</v>
+        <v>321.09</v>
       </c>
       <c r="H123" t="n">
         <v>306.67</v>
@@ -8765,7 +8761,7 @@
         <v>320.31</v>
       </c>
       <c r="J123" t="n">
-        <v>323.06</v>
+        <v>321.73</v>
       </c>
       <c r="K123" t="n">
         <v>325.99</v>
@@ -8834,7 +8830,7 @@
         <v>352.18</v>
       </c>
       <c r="G124" t="n">
-        <v>327.02</v>
+        <v>327.04</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -8902,7 +8898,7 @@
         <v>343.77</v>
       </c>
       <c r="G125" t="n">
-        <v>332.9</v>
+        <v>332.83</v>
       </c>
       <c r="H125" t="n">
         <v>326.76</v>
@@ -8911,7 +8907,7 @@
         <v>329.6</v>
       </c>
       <c r="J125" t="n">
-        <v>328.41</v>
+        <v>327.92</v>
       </c>
       <c r="K125" t="n">
         <v>333.8</v>
@@ -8978,7 +8974,7 @@
         <v>330.58</v>
       </c>
       <c r="G126" t="n">
-        <v>317.24</v>
+        <v>317.09</v>
       </c>
       <c r="H126" t="n">
         <v>312.36</v>
@@ -9050,7 +9046,7 @@
         <v>316.13</v>
       </c>
       <c r="G127" t="n">
-        <v>286.69</v>
+        <v>286.83</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -9092,7 +9088,7 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>285.36</v>
+        <v>285.49</v>
       </c>
       <c r="H128" t="n">
         <v>330.62</v>
@@ -9101,7 +9097,7 @@
         <v>323.72</v>
       </c>
       <c r="J128" t="n">
-        <v>309.44</v>
+        <v>310.24</v>
       </c>
       <c r="K128" t="n">
         <v>315.65</v>
@@ -9167,7 +9163,7 @@
         <v>322.53</v>
       </c>
       <c r="J129" t="n">
-        <v>324.43</v>
+        <v>323.02</v>
       </c>
       <c r="K129" t="n">
         <v>327.58</v>
@@ -9232,7 +9228,7 @@
         <v>333.45</v>
       </c>
       <c r="G130" t="n">
-        <v>326.64</v>
+        <v>326.68</v>
       </c>
       <c r="H130" t="n">
         <v>325.45</v>
@@ -9241,7 +9237,7 @@
         <v>328.88</v>
       </c>
       <c r="J130" t="n">
-        <v>328.37</v>
+        <v>328.59</v>
       </c>
       <c r="K130" t="n">
         <v>332.13</v>
@@ -9310,7 +9306,7 @@
         <v>334.42</v>
       </c>
       <c r="G131" t="n">
-        <v>326.97</v>
+        <v>326.99</v>
       </c>
       <c r="H131" t="n">
         <v>320.08</v>
@@ -9319,7 +9315,7 @@
         <v>323.17</v>
       </c>
       <c r="J131" t="n">
-        <v>323.41</v>
+        <v>323.55</v>
       </c>
       <c r="K131" t="n">
         <v>329.78</v>
@@ -9388,7 +9384,7 @@
         <v>320.94</v>
       </c>
       <c r="G132" t="n">
-        <v>320.92</v>
+        <v>320.91</v>
       </c>
       <c r="H132" t="n">
         <v>322.11</v>
@@ -9460,7 +9456,7 @@
         <v>325.07</v>
       </c>
       <c r="G133" t="n">
-        <v>318.42</v>
+        <v>318.43</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -9524,7 +9520,7 @@
         <v>361.16</v>
       </c>
       <c r="G134" t="n">
-        <v>357.31</v>
+        <v>357.45</v>
       </c>
       <c r="H134" t="n">
         <v>327.08</v>
@@ -9584,7 +9580,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>277.8</v>
+        <v>277.86</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
@@ -9642,7 +9638,7 @@
         <v>297.78</v>
       </c>
       <c r="G136" t="n">
-        <v>292.58</v>
+        <v>292.4</v>
       </c>
       <c r="H136" t="n">
         <v>268.03</v>
@@ -9712,7 +9708,7 @@
         <v>310.43</v>
       </c>
       <c r="G137" t="n">
-        <v>312.98</v>
+        <v>312.85</v>
       </c>
       <c r="H137" t="n">
         <v>300.78</v>
@@ -9721,7 +9717,7 @@
         <v>325.84</v>
       </c>
       <c r="J137" t="n">
-        <v>317.59</v>
+        <v>316.79</v>
       </c>
       <c r="K137" t="n">
         <v>305.38</v>
@@ -9784,7 +9780,7 @@
         <v>341.6</v>
       </c>
       <c r="G138" t="n">
-        <v>340.11</v>
+        <v>340.13</v>
       </c>
       <c r="H138" t="n">
         <v>317.73</v>
@@ -9854,7 +9850,7 @@
         <v>340.99</v>
       </c>
       <c r="G139" t="n">
-        <v>331.03</v>
+        <v>330.82</v>
       </c>
       <c r="H139" t="n">
         <v>322.9</v>
@@ -9863,7 +9859,7 @@
         <v>335.88</v>
       </c>
       <c r="J139" t="n">
-        <v>333.37</v>
+        <v>332.01</v>
       </c>
       <c r="K139" t="n">
         <v>335.94</v>
@@ -9935,7 +9931,7 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>329.1</v>
+        <v>329.24</v>
       </c>
       <c r="K140" t="n">
         <v>337.72</v>
@@ -10000,7 +9996,7 @@
         <v>342.02</v>
       </c>
       <c r="G141" t="n">
-        <v>330.06</v>
+        <v>330.04</v>
       </c>
       <c r="H141" t="n">
         <v>327.03</v>
@@ -10009,7 +10005,7 @@
         <v>322.66</v>
       </c>
       <c r="J141" t="n">
-        <v>320.91</v>
+        <v>320.8</v>
       </c>
       <c r="K141" t="n">
         <v>324.87</v>
@@ -10072,7 +10068,7 @@
         <v>335.25</v>
       </c>
       <c r="G142" t="n">
-        <v>330.78</v>
+        <v>330.61</v>
       </c>
       <c r="H142" t="n">
         <v>320.72</v>
@@ -10144,7 +10140,7 @@
         <v>341.56</v>
       </c>
       <c r="G143" t="n">
-        <v>322.39</v>
+        <v>322.5</v>
       </c>
       <c r="H143" t="n">
         <v>330.07</v>
@@ -10153,7 +10149,7 @@
         <v>327.19</v>
       </c>
       <c r="J143" t="n">
-        <v>327.3</v>
+        <v>328</v>
       </c>
       <c r="K143" t="n">
         <v>330.7</v>
@@ -10220,7 +10216,7 @@
         <v>337.97</v>
       </c>
       <c r="G144" t="n">
-        <v>329.93</v>
+        <v>329.95</v>
       </c>
       <c r="H144" t="n">
         <v>326.71</v>
@@ -10229,7 +10225,7 @@
         <v>340.81</v>
       </c>
       <c r="J144" t="n">
-        <v>335.61</v>
+        <v>335.75</v>
       </c>
       <c r="K144" t="n">
         <v>339.16</v>
@@ -10290,7 +10286,7 @@
         <v>290.8</v>
       </c>
       <c r="G145" t="n">
-        <v>305.59</v>
+        <v>305.48</v>
       </c>
       <c r="H145" t="n">
         <v>302.03</v>
@@ -10299,7 +10295,7 @@
         <v>317.48</v>
       </c>
       <c r="J145" t="n">
-        <v>311.1</v>
+        <v>310.4</v>
       </c>
       <c r="K145" t="n">
         <v>310.89</v>
@@ -10364,7 +10360,7 @@
         <v>307.02</v>
       </c>
       <c r="G146" t="n">
-        <v>314.31</v>
+        <v>314.41</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -10426,14 +10422,14 @@
         <v>291</v>
       </c>
       <c r="G147" t="n">
-        <v>296.08</v>
+        <v>295.87</v>
       </c>
       <c r="H147" t="n">
         <v>268.84</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>293.95</v>
+        <v>292.59</v>
       </c>
       <c r="K147" t="n">
         <v>309.48</v>
@@ -10496,7 +10492,7 @@
         <v>280.19</v>
       </c>
       <c r="G148" t="n">
-        <v>290.36</v>
+        <v>290.45</v>
       </c>
       <c r="H148" t="n">
         <v>266.17</v>
@@ -10505,7 +10501,7 @@
         <v>275.18</v>
       </c>
       <c r="J148" t="n">
-        <v>264.64</v>
+        <v>265.22</v>
       </c>
       <c r="K148" t="n">
         <v>280.74</v>
@@ -10562,7 +10558,7 @@
         <v>283.62</v>
       </c>
       <c r="G149" t="n">
-        <v>283.44</v>
+        <v>283.26</v>
       </c>
       <c r="H149" t="n">
         <v>258.03</v>
@@ -10571,7 +10567,7 @@
         <v>285.94</v>
       </c>
       <c r="J149" t="n">
-        <v>285.58</v>
+        <v>284.42</v>
       </c>
       <c r="K149" t="n">
         <v>296.77</v>
@@ -10636,7 +10632,7 @@
         <v>276.3</v>
       </c>
       <c r="G150" t="n">
-        <v>276.31</v>
+        <v>276.39</v>
       </c>
       <c r="H150" t="n">
         <v>266.96</v>
@@ -10645,7 +10641,7 @@
         <v>264.69</v>
       </c>
       <c r="J150" t="n">
-        <v>264.34</v>
+        <v>264.81</v>
       </c>
       <c r="K150" t="n">
         <v>279.94</v>
@@ -10708,7 +10704,7 @@
         <v>320.66</v>
       </c>
       <c r="G151" t="n">
-        <v>310.34</v>
+        <v>310.38</v>
       </c>
       <c r="H151" t="n">
         <v>312.77</v>
@@ -10717,7 +10713,7 @@
         <v>320.5</v>
       </c>
       <c r="J151" t="n">
-        <v>319.69</v>
+        <v>319.96</v>
       </c>
       <c r="K151" t="n">
         <v>315.99</v>
@@ -10786,7 +10782,7 @@
         <v>331.52</v>
       </c>
       <c r="G152" t="n">
-        <v>327.43</v>
+        <v>327.23</v>
       </c>
       <c r="H152" t="n">
         <v>318.48</v>
@@ -10795,7 +10791,7 @@
         <v>324.38</v>
       </c>
       <c r="J152" t="n">
-        <v>328.84</v>
+        <v>327.63</v>
       </c>
       <c r="K152" t="n">
         <v>329.45</v>
@@ -10860,7 +10856,7 @@
         <v>332.79</v>
       </c>
       <c r="G153" t="n">
-        <v>328.65</v>
+        <v>328.48</v>
       </c>
       <c r="H153" t="n">
         <v>327.53</v>
@@ -10869,7 +10865,7 @@
         <v>333.02</v>
       </c>
       <c r="J153" t="n">
-        <v>333.61</v>
+        <v>332.51</v>
       </c>
       <c r="K153" t="n">
         <v>336.53</v>
@@ -10934,12 +10930,12 @@
         <v>328.78</v>
       </c>
       <c r="G154" t="n">
-        <v>319.49</v>
+        <v>319.27</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>335.17</v>
+        <v>333.8</v>
       </c>
       <c r="K154" t="n">
         <v>336.62</v>
@@ -11004,7 +11000,7 @@
         <v>320.88</v>
       </c>
       <c r="G155" t="n">
-        <v>322.77</v>
+        <v>322.64</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -11123,7 +11119,7 @@
         <v>262.26</v>
       </c>
       <c r="J157" t="n">
-        <v>262.88</v>
+        <v>263.31</v>
       </c>
       <c r="K157" t="n">
         <v>280.97</v>
@@ -11178,14 +11174,14 @@
         <v>280.75</v>
       </c>
       <c r="G158" t="n">
-        <v>279.19</v>
+        <v>279.16</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
         <v>273.16</v>
       </c>
       <c r="J158" t="n">
-        <v>270.67</v>
+        <v>270.5</v>
       </c>
       <c r="K158" t="n">
         <v>277.68</v>
@@ -11254,7 +11250,7 @@
         <v>278.85</v>
       </c>
       <c r="G159" t="n">
-        <v>290.36</v>
+        <v>290.2</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -11320,7 +11316,7 @@
         <v>298.44</v>
       </c>
       <c r="G160" t="n">
-        <v>307.55</v>
+        <v>307.37</v>
       </c>
       <c r="H160" t="n">
         <v>297.18</v>
@@ -11329,7 +11325,7 @@
         <v>317.19</v>
       </c>
       <c r="J160" t="n">
-        <v>301.75</v>
+        <v>300.56</v>
       </c>
       <c r="K160" t="n">
         <v>314.25</v>
@@ -11392,7 +11388,7 @@
         <v>351.87</v>
       </c>
       <c r="G161" t="n">
-        <v>360.37</v>
+        <v>360.48</v>
       </c>
       <c r="H161" t="n">
         <v>352.9</v>
@@ -11401,7 +11397,7 @@
         <v>336.96</v>
       </c>
       <c r="J161" t="n">
-        <v>327.95</v>
+        <v>328.65</v>
       </c>
       <c r="K161" t="n">
         <v>333.33</v>
@@ -11470,7 +11466,7 @@
         <v>343.54</v>
       </c>
       <c r="G162" t="n">
-        <v>343.99</v>
+        <v>344.13</v>
       </c>
       <c r="H162" t="n">
         <v>337.47</v>
@@ -11479,7 +11475,7 @@
         <v>329.55</v>
       </c>
       <c r="J162" t="n">
-        <v>340.06</v>
+        <v>340.95</v>
       </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
@@ -11542,7 +11538,7 @@
         <v>324.29</v>
       </c>
       <c r="G163" t="n">
-        <v>326.24</v>
+        <v>326.04</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -11610,7 +11606,7 @@
         <v>318.93</v>
       </c>
       <c r="G164" t="n">
-        <v>318.98</v>
+        <v>318.77</v>
       </c>
       <c r="H164" t="n">
         <v>309.72</v>
@@ -11619,7 +11615,7 @@
         <v>323.04</v>
       </c>
       <c r="J164" t="n">
-        <v>322.27</v>
+        <v>320.97</v>
       </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
@@ -11684,7 +11680,7 @@
         <v>322.39</v>
       </c>
       <c r="G165" t="n">
-        <v>342.37</v>
+        <v>342.51</v>
       </c>
       <c r="H165" t="n">
         <v>320.72</v>
@@ -11693,7 +11689,7 @@
         <v>319.52</v>
       </c>
       <c r="J165" t="n">
-        <v>316.66</v>
+        <v>317.53</v>
       </c>
       <c r="K165" t="n">
         <v>327.31</v>
@@ -11752,7 +11748,7 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>310.04</v>
+        <v>310.13</v>
       </c>
       <c r="H166" t="n">
         <v>301.83</v>
@@ -11761,7 +11757,7 @@
         <v>307.44</v>
       </c>
       <c r="J166" t="n">
-        <v>310.82</v>
+        <v>311.35</v>
       </c>
       <c r="K166" t="n">
         <v>287.9</v>
@@ -11830,7 +11826,7 @@
         <v>307.74</v>
       </c>
       <c r="G167" t="n">
-        <v>311.99</v>
+        <v>312.01</v>
       </c>
       <c r="H167" t="n">
         <v>329.93</v>
@@ -11904,7 +11900,7 @@
         <v>289.9</v>
       </c>
       <c r="G168" t="n">
-        <v>297.57</v>
+        <v>297.38</v>
       </c>
       <c r="H168" t="n">
         <v>285.99</v>
@@ -11913,7 +11909,7 @@
         <v>297.89</v>
       </c>
       <c r="J168" t="n">
-        <v>290.54</v>
+        <v>289.32</v>
       </c>
       <c r="K168" t="n">
         <v>306.27</v>
@@ -11982,7 +11978,7 @@
         <v>292.81</v>
       </c>
       <c r="G169" t="n">
-        <v>300.81</v>
+        <v>300.63</v>
       </c>
       <c r="H169" t="n">
         <v>290.4</v>
@@ -11991,7 +11987,7 @@
         <v>302.2</v>
       </c>
       <c r="J169" t="n">
-        <v>295.9</v>
+        <v>294.76</v>
       </c>
       <c r="K169" t="n">
         <v>319.9</v>
@@ -12054,7 +12050,7 @@
         <v>275.71</v>
       </c>
       <c r="G170" t="n">
-        <v>284</v>
+        <v>283.78</v>
       </c>
       <c r="H170" t="n">
         <v>275.37</v>
@@ -12063,7 +12059,7 @@
         <v>286.44</v>
       </c>
       <c r="J170" t="n">
-        <v>288.59</v>
+        <v>287.2</v>
       </c>
       <c r="K170" t="n">
         <v>301.28</v>
@@ -12132,7 +12128,7 @@
         <v>285.03</v>
       </c>
       <c r="G171" t="n">
-        <v>288.12</v>
+        <v>287.98</v>
       </c>
       <c r="H171" t="n">
         <v>273.12</v>
@@ -12141,7 +12137,7 @@
         <v>285.47</v>
       </c>
       <c r="J171" t="n">
-        <v>285.24</v>
+        <v>284.34</v>
       </c>
       <c r="K171" t="n">
         <v>295.94</v>
@@ -12208,7 +12204,7 @@
         <v>295.82</v>
       </c>
       <c r="G172" t="n">
-        <v>310.83</v>
+        <v>310.78</v>
       </c>
       <c r="H172" t="n">
         <v>289.1</v>
@@ -12281,7 +12277,7 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>298.91</v>
+        <v>297.78</v>
       </c>
       <c r="K173" t="n">
         <v>308.22</v>
@@ -12344,14 +12340,14 @@
         <v>313.56</v>
       </c>
       <c r="G174" t="n">
-        <v>295.41</v>
+        <v>295.51</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
         <v>335.06</v>
       </c>
       <c r="J174" t="n">
-        <v>320.91</v>
+        <v>321.55</v>
       </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
@@ -12412,7 +12408,7 @@
         <v>280.42</v>
       </c>
       <c r="G175" t="n">
-        <v>279.29</v>
+        <v>279.3</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -12461,7 +12457,7 @@
         <v>347.88</v>
       </c>
       <c r="J176" t="n">
-        <v>352.06</v>
+        <v>350.83</v>
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
@@ -12531,7 +12527,7 @@
         <v>328.15</v>
       </c>
       <c r="J177" t="n">
-        <v>297.04</v>
+        <v>296.48</v>
       </c>
       <c r="K177" t="n">
         <v>304</v>
@@ -12589,7 +12585,7 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>282.79</v>
+        <v>282.8</v>
       </c>
       <c r="K178" t="n">
         <v>294.71</v>
@@ -12644,14 +12640,14 @@
         <v>278.11</v>
       </c>
       <c r="G179" t="n">
-        <v>271.75</v>
+        <v>271.57</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
         <v>283.07</v>
       </c>
       <c r="J179" t="n">
-        <v>282.45</v>
+        <v>281.31</v>
       </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
@@ -12710,7 +12706,7 @@
         <v>276.31</v>
       </c>
       <c r="G180" t="n">
-        <v>287.05</v>
+        <v>287.12</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -12770,7 +12766,7 @@
         <v>310.16</v>
       </c>
       <c r="G181" t="n">
-        <v>305.16</v>
+        <v>305.07</v>
       </c>
       <c r="H181" t="n">
         <v>303.37</v>
@@ -12842,7 +12838,7 @@
         <v>310.86</v>
       </c>
       <c r="G182" t="n">
-        <v>312.87</v>
+        <v>312.86</v>
       </c>
       <c r="H182" t="n">
         <v>294.8</v>
@@ -12851,7 +12847,7 @@
         <v>317.4</v>
       </c>
       <c r="J182" t="n">
-        <v>288.76</v>
+        <v>288.73</v>
       </c>
       <c r="K182" t="n">
         <v>293.61</v>
@@ -12894,7 +12890,7 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
-        <v>309.46</v>
+        <v>309.26</v>
       </c>
       <c r="H183" t="n">
         <v>305.91</v>
@@ -12903,7 +12899,7 @@
         <v>324.76</v>
       </c>
       <c r="J183" t="n">
-        <v>320.56</v>
+        <v>319.29</v>
       </c>
       <c r="K183" t="n">
         <v>318.48</v>
@@ -12992,7 +12988,7 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>361.75</v>
+        <v>361.85</v>
       </c>
       <c r="H185" t="n">
         <v>364.76</v>
@@ -13001,7 +12997,7 @@
         <v>356.55</v>
       </c>
       <c r="J185" t="n">
-        <v>350.76</v>
+        <v>351.43</v>
       </c>
       <c r="K185" t="n">
         <v>351.63</v>
@@ -13056,7 +13052,7 @@
         <v>372.07</v>
       </c>
       <c r="G186" t="n">
-        <v>363.91</v>
+        <v>363.99</v>
       </c>
       <c r="H186" t="n">
         <v>361.4</v>
@@ -13065,7 +13061,7 @@
         <v>357.64</v>
       </c>
       <c r="J186" t="n">
-        <v>350.36</v>
+        <v>350.92</v>
       </c>
       <c r="K186" t="n">
         <v>347.99</v>
@@ -13134,7 +13130,7 @@
         <v>335.88</v>
       </c>
       <c r="G187" t="n">
-        <v>327.24</v>
+        <v>327.06</v>
       </c>
       <c r="H187" t="n">
         <v>331.31</v>
@@ -13143,7 +13139,7 @@
         <v>345.32</v>
       </c>
       <c r="J187" t="n">
-        <v>343.25</v>
+        <v>342.09</v>
       </c>
       <c r="K187" t="n">
         <v>343.91</v>
@@ -13256,7 +13252,7 @@
         <v>344.35</v>
       </c>
       <c r="G189" t="n">
-        <v>330.91</v>
+        <v>330.72</v>
       </c>
       <c r="H189" t="n">
         <v>334.93</v>
@@ -13265,7 +13261,7 @@
         <v>346.85</v>
       </c>
       <c r="J189" t="n">
-        <v>345.5</v>
+        <v>344.26</v>
       </c>
       <c r="K189" t="n">
         <v>342.29</v>
@@ -13332,7 +13328,7 @@
         <v>299.92</v>
       </c>
       <c r="G190" t="n">
-        <v>295.51</v>
+        <v>295.24</v>
       </c>
       <c r="H190" t="n">
         <v>286.15</v>
@@ -13398,7 +13394,7 @@
         <v>325.05</v>
       </c>
       <c r="G191" t="n">
-        <v>323.83</v>
+        <v>323.59</v>
       </c>
       <c r="H191" t="n">
         <v>319.08</v>
@@ -13407,7 +13403,7 @@
         <v>328.58</v>
       </c>
       <c r="J191" t="n">
-        <v>334.8</v>
+        <v>333.29</v>
       </c>
       <c r="K191" t="n">
         <v>335.6</v>
@@ -13454,7 +13450,7 @@
         <v>322.02</v>
       </c>
       <c r="G192" t="n">
-        <v>323.52</v>
+        <v>323.56</v>
       </c>
       <c r="H192" t="n">
         <v>330.05</v>
@@ -13463,7 +13459,7 @@
         <v>328</v>
       </c>
       <c r="J192" t="n">
-        <v>334.55</v>
+        <v>334.77</v>
       </c>
       <c r="K192" t="n">
         <v>336.32</v>
@@ -13524,7 +13520,7 @@
         <v>336.78</v>
       </c>
       <c r="G193" t="n">
-        <v>332.71</v>
+        <v>332.58</v>
       </c>
       <c r="H193" t="n">
         <v>326.83</v>
@@ -13533,7 +13529,7 @@
         <v>349.95</v>
       </c>
       <c r="J193" t="n">
-        <v>354.41</v>
+        <v>353.57</v>
       </c>
       <c r="K193" t="n">
         <v>349.93</v>
@@ -13607,7 +13603,7 @@
         <v>326.46</v>
       </c>
       <c r="J194" t="n">
-        <v>337.28</v>
+        <v>337.49</v>
       </c>
       <c r="K194" t="n">
         <v>315.64</v>
@@ -13670,7 +13666,7 @@
         <v>318.39</v>
       </c>
       <c r="G195" t="n">
-        <v>321.92</v>
+        <v>321.9</v>
       </c>
       <c r="H195" t="n">
         <v>314.11</v>
@@ -13679,7 +13675,7 @@
         <v>316.51</v>
       </c>
       <c r="J195" t="n">
-        <v>318.74</v>
+        <v>318.61</v>
       </c>
       <c r="K195" t="n">
         <v>313.61</v>
@@ -13738,7 +13734,7 @@
         <v>329.52</v>
       </c>
       <c r="G196" t="n">
-        <v>330.92</v>
+        <v>330.8</v>
       </c>
       <c r="H196" t="n">
         <v>328.88</v>
@@ -13747,7 +13743,7 @@
         <v>339.93</v>
       </c>
       <c r="J196" t="n">
-        <v>346.83</v>
+        <v>346.07</v>
       </c>
       <c r="K196" t="n">
         <v>335.62</v>
@@ -13806,7 +13802,7 @@
         <v>320.91</v>
       </c>
       <c r="G197" t="n">
-        <v>315.51</v>
+        <v>315.31</v>
       </c>
       <c r="H197" t="n">
         <v>312.82</v>
@@ -13815,7 +13811,7 @@
         <v>332.1</v>
       </c>
       <c r="J197" t="n">
-        <v>327.92</v>
+        <v>326.63</v>
       </c>
       <c r="K197" t="n">
         <v>322.07</v>
@@ -13878,7 +13874,7 @@
         <v>356.51</v>
       </c>
       <c r="G198" t="n">
-        <v>325.12</v>
+        <v>325.24</v>
       </c>
       <c r="H198" t="n">
         <v>339.72</v>
@@ -13887,7 +13883,7 @@
         <v>345.48</v>
       </c>
       <c r="J198" t="n">
-        <v>346.31</v>
+        <v>347.08</v>
       </c>
       <c r="K198" t="n">
         <v>339.1</v>
@@ -13952,7 +13948,7 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>311.88</v>
+        <v>311.64</v>
       </c>
       <c r="H199" t="n">
         <v>294.4</v>
@@ -13961,7 +13957,7 @@
         <v>327.82</v>
       </c>
       <c r="J199" t="n">
-        <v>304.35</v>
+        <v>302.88</v>
       </c>
       <c r="K199" t="n">
         <v>319</v>
@@ -14022,7 +14018,7 @@
         <v>279.48</v>
       </c>
       <c r="G200" t="n">
-        <v>278.49</v>
+        <v>278.54</v>
       </c>
       <c r="H200" t="n">
         <v>269.94</v>
@@ -14031,7 +14027,7 @@
         <v>275.08</v>
       </c>
       <c r="J200" t="n">
-        <v>267.86</v>
+        <v>268.19</v>
       </c>
       <c r="K200" t="n">
         <v>276.29</v>
@@ -14140,7 +14136,7 @@
         <v>295.45</v>
       </c>
       <c r="G202" t="n">
-        <v>297.52</v>
+        <v>297.38</v>
       </c>
       <c r="H202" t="n">
         <v>284.38</v>
@@ -14149,7 +14145,7 @@
         <v>293.32</v>
       </c>
       <c r="J202" t="n">
-        <v>293.72</v>
+        <v>292.86</v>
       </c>
       <c r="K202" t="n">
         <v>305.16</v>
@@ -14210,14 +14206,14 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="n">
-        <v>261.17</v>
+        <v>261.25</v>
       </c>
       <c r="H203" t="n">
         <v>362.87</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>268.02</v>
+        <v>268.53</v>
       </c>
       <c r="K203" t="n">
         <v>277.24</v>
@@ -14298,14 +14294,14 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>263.74</v>
+        <v>263.87</v>
       </c>
       <c r="H205" t="n">
         <v>328.18</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>255.24</v>
+        <v>256.04</v>
       </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
@@ -14354,7 +14350,7 @@
         <v>300.19</v>
       </c>
       <c r="G206" t="n">
-        <v>303.57</v>
+        <v>303.46</v>
       </c>
       <c r="H206" t="n">
         <v>288.25</v>
@@ -14363,7 +14359,7 @@
         <v>324.74</v>
       </c>
       <c r="J206" t="n">
-        <v>291.69</v>
+        <v>290.95</v>
       </c>
       <c r="K206" t="n">
         <v>306.57</v>
@@ -14460,7 +14456,7 @@
         <v>328.62</v>
       </c>
       <c r="G208" t="n">
-        <v>322.56</v>
+        <v>322.68</v>
       </c>
       <c r="H208" t="n">
         <v>324.36</v>
@@ -14469,7 +14465,7 @@
         <v>339.63</v>
       </c>
       <c r="J208" t="n">
-        <v>322.45</v>
+        <v>323.21</v>
       </c>
       <c r="K208" t="n">
         <v>328.54</v>
@@ -14534,7 +14530,7 @@
         <v>292.43</v>
       </c>
       <c r="G209" t="n">
-        <v>295.6</v>
+        <v>295.38</v>
       </c>
       <c r="H209" t="n">
         <v>296.68</v>
@@ -14543,7 +14539,7 @@
         <v>313.35</v>
       </c>
       <c r="J209" t="n">
-        <v>308.14</v>
+        <v>306.73</v>
       </c>
       <c r="K209" t="n">
         <v>316.72</v>
@@ -14604,7 +14600,7 @@
         <v>344.39</v>
       </c>
       <c r="G210" t="n">
-        <v>331.14</v>
+        <v>331.22</v>
       </c>
       <c r="H210" t="n">
         <v>343.48</v>
@@ -14613,7 +14609,7 @@
         <v>337.81</v>
       </c>
       <c r="J210" t="n">
-        <v>332.39</v>
+        <v>332.89</v>
       </c>
       <c r="K210" t="n">
         <v>337.69</v>
@@ -14682,7 +14678,7 @@
         <v>336.58</v>
       </c>
       <c r="G211" t="n">
-        <v>326.78</v>
+        <v>326.84</v>
       </c>
       <c r="H211" t="n">
         <v>327.41</v>
@@ -14691,7 +14687,7 @@
         <v>321.74</v>
       </c>
       <c r="J211" t="n">
-        <v>319.12</v>
+        <v>319.54</v>
       </c>
       <c r="K211" t="n">
         <v>326.99</v>
@@ -14760,7 +14756,7 @@
         <v>330.11</v>
       </c>
       <c r="G212" t="n">
-        <v>324.17</v>
+        <v>324.15</v>
       </c>
       <c r="H212" t="n">
         <v>326.94</v>
@@ -14769,7 +14765,7 @@
         <v>318.63</v>
       </c>
       <c r="J212" t="n">
-        <v>316.54</v>
+        <v>316.41</v>
       </c>
       <c r="K212" t="n">
         <v>318.85</v>
@@ -14883,7 +14879,7 @@
         <v>324.56</v>
       </c>
       <c r="J214" t="n">
-        <v>338.38</v>
+        <v>339.4</v>
       </c>
       <c r="K214" t="n">
         <v>343.92</v>
@@ -14940,7 +14936,7 @@
         <v>316.51</v>
       </c>
       <c r="G215" t="n">
-        <v>322.44</v>
+        <v>322.23</v>
       </c>
       <c r="H215" t="n">
         <v>318.61</v>
@@ -15004,7 +15000,7 @@
         <v>326.06</v>
       </c>
       <c r="G216" t="n">
-        <v>324.38</v>
+        <v>324.17</v>
       </c>
       <c r="H216" t="n">
         <v>319.77</v>
@@ -15013,7 +15009,7 @@
         <v>330.84</v>
       </c>
       <c r="J216" t="n">
-        <v>331.83</v>
+        <v>330.53</v>
       </c>
       <c r="K216" t="n">
         <v>334.42</v>
@@ -15075,7 +15071,7 @@
         <v>316.31</v>
       </c>
       <c r="J217" t="n">
-        <v>318.33</v>
+        <v>316.73</v>
       </c>
       <c r="K217" t="n">
         <v>319.06</v>
@@ -15132,7 +15128,7 @@
         <v>324.8</v>
       </c>
       <c r="G218" t="n">
-        <v>322.01</v>
+        <v>321.77</v>
       </c>
       <c r="H218" t="n">
         <v>317.74</v>
@@ -15141,7 +15137,7 @@
         <v>329.58</v>
       </c>
       <c r="J218" t="n">
-        <v>336.47</v>
+        <v>334.94</v>
       </c>
       <c r="K218" t="n">
         <v>339.02</v>
@@ -15207,7 +15203,7 @@
         <v>315.43</v>
       </c>
       <c r="J219" t="n">
-        <v>313.71</v>
+        <v>312.77</v>
       </c>
       <c r="K219" t="n">
         <v>315.18</v>
@@ -15264,7 +15260,7 @@
         <v>316.13</v>
       </c>
       <c r="G220" t="n">
-        <v>312.39</v>
+        <v>312.38</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -15390,7 +15386,7 @@
         <v>320.65</v>
       </c>
       <c r="G222" t="n">
-        <v>324.96</v>
+        <v>324.93</v>
       </c>
       <c r="H222" t="n">
         <v>321.55</v>
@@ -15399,7 +15395,7 @@
         <v>323.32</v>
       </c>
       <c r="J222" t="n">
-        <v>325.66</v>
+        <v>325.48</v>
       </c>
       <c r="K222" t="n">
         <v>319.54</v>
@@ -15458,7 +15454,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>306.37</v>
+        <v>306.33</v>
       </c>
       <c r="H223" t="n">
         <v>286.79</v>
@@ -15522,7 +15518,7 @@
         <v>319.73</v>
       </c>
       <c r="G224" t="n">
-        <v>316.36</v>
+        <v>316.13</v>
       </c>
       <c r="H224" t="n">
         <v>297.7</v>
@@ -15531,7 +15527,7 @@
         <v>326.83</v>
       </c>
       <c r="J224" t="n">
-        <v>312.33</v>
+        <v>310.83</v>
       </c>
       <c r="K224" t="n">
         <v>317.33</v>
@@ -15588,7 +15584,7 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>274.78</v>
+        <v>274.57</v>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
@@ -15688,14 +15684,14 @@
         <v>283.84</v>
       </c>
       <c r="G227" t="n">
-        <v>288.35</v>
+        <v>288.42</v>
       </c>
       <c r="H227" t="n">
         <v>330.66</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>269.6</v>
+        <v>270.04</v>
       </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
@@ -15754,7 +15750,7 @@
         <v>174.93</v>
       </c>
       <c r="G228" t="n">
-        <v>244.66</v>
+        <v>244.67</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -15808,12 +15804,12 @@
         <v>173.39</v>
       </c>
       <c r="G229" t="n">
-        <v>217.68</v>
+        <v>217.73</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>255.29</v>
+        <v>255.56</v>
       </c>
       <c r="K229" t="n">
         <v>268.27</v>
@@ -15864,12 +15860,12 @@
         <v>193.79</v>
       </c>
       <c r="G230" t="n">
-        <v>247.06</v>
+        <v>246.96</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>271.77</v>
+        <v>271.11</v>
       </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
@@ -15974,12 +15970,12 @@
         <v>286</v>
       </c>
       <c r="G232" t="n">
-        <v>282.79</v>
+        <v>282.64</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>287.26</v>
+        <v>286.28</v>
       </c>
       <c r="K232" t="n">
         <v>304.05</v>
@@ -16043,7 +16039,7 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>260.73</v>
+        <v>261.4</v>
       </c>
       <c r="K233" t="n">
         <v>265.32</v>
@@ -16098,7 +16094,7 @@
         <v>316.42</v>
       </c>
       <c r="G234" t="n">
-        <v>309.89</v>
+        <v>309.67</v>
       </c>
       <c r="H234" t="n">
         <v>303.18</v>
@@ -16107,7 +16103,7 @@
         <v>321.65</v>
       </c>
       <c r="J234" t="n">
-        <v>309.78</v>
+        <v>308.35</v>
       </c>
       <c r="K234" t="n">
         <v>319.22</v>
@@ -16176,7 +16172,7 @@
         <v>299.84</v>
       </c>
       <c r="G235" t="n">
-        <v>309.64</v>
+        <v>309.57</v>
       </c>
       <c r="H235" t="n">
         <v>321.01</v>
@@ -16240,7 +16236,7 @@
         <v>329.65</v>
       </c>
       <c r="G236" t="n">
-        <v>320.48</v>
+        <v>320.49</v>
       </c>
       <c r="H236" t="n">
         <v>317.23</v>
@@ -16249,7 +16245,7 @@
         <v>325.86</v>
       </c>
       <c r="J236" t="n">
-        <v>328.28</v>
+        <v>328.32</v>
       </c>
       <c r="K236" t="n">
         <v>321.64</v>
@@ -16318,7 +16314,7 @@
         <v>321.3</v>
       </c>
       <c r="G237" t="n">
-        <v>314.76</v>
+        <v>314.53</v>
       </c>
       <c r="H237" t="n">
         <v>309.29</v>
@@ -16327,7 +16323,7 @@
         <v>323.23</v>
       </c>
       <c r="J237" t="n">
-        <v>330.57</v>
+        <v>329.11</v>
       </c>
       <c r="K237" t="n">
         <v>319.79</v>
@@ -16382,7 +16378,7 @@
         <v>326.96</v>
       </c>
       <c r="G238" t="n">
-        <v>316.78</v>
+        <v>316.58</v>
       </c>
       <c r="H238" t="n">
         <v>313.02</v>
@@ -16452,7 +16448,7 @@
         <v>346.48</v>
       </c>
       <c r="G239" t="n">
-        <v>338.31</v>
+        <v>338.39</v>
       </c>
       <c r="H239" t="n">
         <v>330.93</v>
@@ -16461,7 +16457,7 @@
         <v>329.92</v>
       </c>
       <c r="J239" t="n">
-        <v>327.73</v>
+        <v>328.23</v>
       </c>
       <c r="K239" t="n">
         <v>328.73</v>
@@ -16530,7 +16526,7 @@
         <v>358.21</v>
       </c>
       <c r="G240" t="n">
-        <v>333.12</v>
+        <v>333.19</v>
       </c>
       <c r="H240" t="n">
         <v>330.1</v>
@@ -16539,7 +16535,7 @@
         <v>343.63</v>
       </c>
       <c r="J240" t="n">
-        <v>338.46</v>
+        <v>338.89</v>
       </c>
       <c r="K240" t="n">
         <v>336.65</v>
@@ -16602,7 +16598,7 @@
         <v>333.6</v>
       </c>
       <c r="G241" t="n">
-        <v>325.78</v>
+        <v>325.56</v>
       </c>
       <c r="H241" t="n">
         <v>322.77</v>
@@ -16611,7 +16607,7 @@
         <v>335.63</v>
       </c>
       <c r="J241" t="n">
-        <v>338.88</v>
+        <v>337.49</v>
       </c>
       <c r="K241" t="n">
         <v>337.42</v>
@@ -16680,7 +16676,7 @@
         <v>349.43</v>
       </c>
       <c r="G242" t="n">
-        <v>344.5</v>
+        <v>344.57</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="n">
@@ -16744,7 +16740,7 @@
         <v>290.79</v>
       </c>
       <c r="G243" t="n">
-        <v>279.92</v>
+        <v>279.87</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -16798,7 +16794,7 @@
         <v>312.85</v>
       </c>
       <c r="G244" t="n">
-        <v>316.65</v>
+        <v>316.62</v>
       </c>
       <c r="H244" t="n">
         <v>304.97</v>
@@ -16807,7 +16803,7 @@
         <v>331.9</v>
       </c>
       <c r="J244" t="n">
-        <v>336.48</v>
+        <v>336.24</v>
       </c>
       <c r="K244" t="n">
         <v>325.96</v>
@@ -16868,14 +16864,14 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="n">
-        <v>300.52</v>
+        <v>300.28</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="n">
         <v>278.14</v>
       </c>
       <c r="J245" t="n">
-        <v>291.95</v>
+        <v>290.45</v>
       </c>
       <c r="K245" t="n">
         <v>305.1</v>
@@ -16970,7 +16966,7 @@
         <v>286.91</v>
       </c>
       <c r="G247" t="n">
-        <v>304.66</v>
+        <v>304.78</v>
       </c>
       <c r="H247" t="n">
         <v>342.43</v>
@@ -17078,14 +17074,14 @@
         <v>298.88</v>
       </c>
       <c r="G249" t="n">
-        <v>298.79</v>
+        <v>298.63</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="n">
         <v>305.49</v>
       </c>
       <c r="J249" t="n">
-        <v>298.05</v>
+        <v>297.04</v>
       </c>
       <c r="K249" t="n">
         <v>309.48</v>
@@ -17149,7 +17145,7 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>291.95</v>
+        <v>291.82</v>
       </c>
       <c r="K250" t="n">
         <v>296.56</v>
@@ -17204,14 +17200,14 @@
         <v>312.28</v>
       </c>
       <c r="G251" t="n">
-        <v>309.49</v>
+        <v>309.3</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
         <v>311.68</v>
       </c>
       <c r="J251" t="n">
-        <v>303.58</v>
+        <v>302.4</v>
       </c>
       <c r="K251" t="n">
         <v>312.72</v>
@@ -17262,7 +17258,7 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>382.22</v>
+        <v>382.37</v>
       </c>
       <c r="H252" t="n">
         <v>356.27</v>
@@ -17271,7 +17267,7 @@
         <v>341.79</v>
       </c>
       <c r="J252" t="n">
-        <v>357.67</v>
+        <v>358.67</v>
       </c>
       <c r="K252" t="n">
         <v>353.36</v>
@@ -17333,7 +17329,7 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>331.63</v>
+        <v>330.56</v>
       </c>
       <c r="K253" t="n">
         <v>328.33</v>
@@ -17388,7 +17384,7 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>358.75</v>
+        <v>358.87</v>
       </c>
       <c r="H254" t="n">
         <v>352.88</v>
@@ -17397,7 +17393,7 @@
         <v>346.5</v>
       </c>
       <c r="J254" t="n">
-        <v>347.41</v>
+        <v>348.18</v>
       </c>
       <c r="K254" t="n">
         <v>345.01</v>
@@ -17494,7 +17490,7 @@
         <v>304.18</v>
       </c>
       <c r="G256" t="n">
-        <v>323.18</v>
+        <v>323.02</v>
       </c>
       <c r="H256" t="n">
         <v>316.12</v>
@@ -17550,7 +17546,7 @@
         <v>308.58</v>
       </c>
       <c r="G257" t="n">
-        <v>311.44</v>
+        <v>311.27</v>
       </c>
       <c r="H257" t="n">
         <v>294.62</v>
@@ -17559,7 +17555,7 @@
         <v>327.1</v>
       </c>
       <c r="J257" t="n">
-        <v>303.3</v>
+        <v>302.23</v>
       </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
@@ -17675,7 +17671,7 @@
         <v>329.32</v>
       </c>
       <c r="J259" t="n">
-        <v>328.81</v>
+        <v>329.54</v>
       </c>
       <c r="K259" t="n">
         <v>336.75</v>
@@ -17734,14 +17730,14 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>310.63</v>
+        <v>310.44</v>
       </c>
       <c r="H260" t="n">
         <v>299.6</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>300.74</v>
+        <v>299.48</v>
       </c>
       <c r="K260" t="n">
         <v>309.68</v>
@@ -17794,14 +17790,14 @@
         <v>270.39</v>
       </c>
       <c r="G261" t="n">
-        <v>279.66</v>
+        <v>279.59</v>
       </c>
       <c r="H261" t="n">
         <v>269.93</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>284.99</v>
+        <v>284.52</v>
       </c>
       <c r="K261" t="n">
         <v>294.36</v>
@@ -17857,7 +17853,7 @@
         <v>330.23</v>
       </c>
       <c r="J262" t="n">
-        <v>322.94</v>
+        <v>323.15</v>
       </c>
       <c r="K262" t="n">
         <v>309.85</v>
@@ -18002,7 +17998,7 @@
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="n">
-        <v>300.17</v>
+        <v>300.19</v>
       </c>
       <c r="H265" t="n">
         <v>290.5</v>
@@ -18071,7 +18067,7 @@
         <v>252.88</v>
       </c>
       <c r="J266" t="n">
-        <v>251.7</v>
+        <v>252.57</v>
       </c>
       <c r="K266" t="n">
         <v>262.26</v>
@@ -18126,7 +18122,7 @@
         <v>296.54</v>
       </c>
       <c r="G267" t="n">
-        <v>288.59</v>
+        <v>288.71</v>
       </c>
       <c r="H267" t="n">
         <v>282.15</v>
@@ -18135,7 +18131,7 @@
         <v>278.01</v>
       </c>
       <c r="J267" t="n">
-        <v>270.75</v>
+        <v>271.51</v>
       </c>
       <c r="K267" t="n">
         <v>270.71</v>
@@ -18280,7 +18276,7 @@
         <v>285.22</v>
       </c>
       <c r="G270" t="n">
-        <v>289.17</v>
+        <v>289.16</v>
       </c>
       <c r="H270" t="n">
         <v>270.7</v>
@@ -18289,7 +18285,7 @@
         <v>283.15</v>
       </c>
       <c r="J270" t="n">
-        <v>276.71</v>
+        <v>276.64</v>
       </c>
       <c r="K270" t="n">
         <v>289.55</v>
@@ -18346,7 +18342,7 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>315.27</v>
+        <v>315.07</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -18400,7 +18396,7 @@
         <v>298.08</v>
       </c>
       <c r="G272" t="n">
-        <v>317.84</v>
+        <v>317.67</v>
       </c>
       <c r="H272" t="n">
         <v>307.99</v>
@@ -18409,7 +18405,7 @@
         <v>322.16</v>
       </c>
       <c r="J272" t="n">
-        <v>297.12</v>
+        <v>296.05</v>
       </c>
       <c r="K272" t="n">
         <v>309.52</v>
@@ -18526,7 +18522,7 @@
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>274.44</v>
+        <v>274.6</v>
       </c>
       <c r="H274" t="n">
         <v>256.82</v>
@@ -18584,14 +18580,14 @@
         <v>275.57</v>
       </c>
       <c r="G275" t="n">
-        <v>296.27</v>
+        <v>296.32</v>
       </c>
       <c r="H275" t="n">
         <v>289.23</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>321.13</v>
+        <v>321.46</v>
       </c>
       <c r="K275" t="n">
         <v>287.57</v>
@@ -18733,7 +18729,7 @@
         <v>302.12</v>
       </c>
       <c r="J277" t="n">
-        <v>294.37</v>
+        <v>293.54</v>
       </c>
       <c r="K277" t="n">
         <v>294.26</v>
@@ -18850,7 +18846,7 @@
         <v>363.39</v>
       </c>
       <c r="G279" t="n">
-        <v>346.51</v>
+        <v>346.56</v>
       </c>
       <c r="H279" t="n">
         <v>335.98</v>
@@ -18859,7 +18855,7 @@
         <v>333.52</v>
       </c>
       <c r="J279" t="n">
-        <v>339.6</v>
+        <v>339.9</v>
       </c>
       <c r="K279" t="n">
         <v>343.49</v>
@@ -18922,7 +18918,7 @@
         <v>340.94</v>
       </c>
       <c r="G280" t="n">
-        <v>324.58</v>
+        <v>324.73</v>
       </c>
       <c r="H280" t="n">
         <v>336.65</v>
@@ -18931,7 +18927,7 @@
         <v>323.86</v>
       </c>
       <c r="J280" t="n">
-        <v>315.5</v>
+        <v>316.46</v>
       </c>
       <c r="K280" t="n">
         <v>320.04</v>
@@ -18998,7 +18994,7 @@
         <v>327.75</v>
       </c>
       <c r="G281" t="n">
-        <v>328.3</v>
+        <v>328.06</v>
       </c>
       <c r="H281" t="n">
         <v>322.81</v>
@@ -19007,7 +19003,7 @@
         <v>325.04</v>
       </c>
       <c r="J281" t="n">
-        <v>332.78</v>
+        <v>331.31</v>
       </c>
       <c r="K281" t="n">
         <v>338.21</v>
@@ -19073,7 +19069,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>334.67</v>
+        <v>334.86</v>
       </c>
       <c r="K282" t="n">
         <v>341.47</v>
@@ -19128,14 +19124,14 @@
         <v>347.94</v>
       </c>
       <c r="G283" t="n">
-        <v>339.52</v>
+        <v>339.55</v>
       </c>
       <c r="H283" t="n">
         <v>340.29</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>335.9</v>
+        <v>336.07</v>
       </c>
       <c r="K283" t="n">
         <v>343.13</v>
@@ -19250,7 +19246,7 @@
         <v>326.49</v>
       </c>
       <c r="G285" t="n">
-        <v>324.18</v>
+        <v>323.99</v>
       </c>
       <c r="H285" t="n">
         <v>306.8</v>
@@ -19259,7 +19255,7 @@
         <v>330.99</v>
       </c>
       <c r="J285" t="n">
-        <v>332</v>
+        <v>330.78</v>
       </c>
       <c r="K285" t="n">
         <v>335.19</v>
@@ -19364,7 +19360,7 @@
         <v>356.64</v>
       </c>
       <c r="G287" t="n">
-        <v>336.44</v>
+        <v>336.53</v>
       </c>
       <c r="H287" t="n">
         <v>323.76</v>
@@ -19373,7 +19369,7 @@
         <v>321.82</v>
       </c>
       <c r="J287" t="n">
-        <v>321.77</v>
+        <v>322.37</v>
       </c>
       <c r="K287" t="n">
         <v>326.62</v>
@@ -19434,7 +19430,9 @@
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>279.96</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>321.63</v>
@@ -19482,7 +19480,7 @@
         <v>323.19</v>
       </c>
       <c r="G289" t="n">
-        <v>317.32</v>
+        <v>317.07</v>
       </c>
       <c r="H289" t="n">
         <v>313.01</v>
@@ -19491,7 +19489,7 @@
         <v>327.21</v>
       </c>
       <c r="J289" t="n">
-        <v>321.2</v>
+        <v>319.58</v>
       </c>
       <c r="K289" t="n">
         <v>325.14</v>
@@ -19597,7 +19595,7 @@
         <v>345.6</v>
       </c>
       <c r="J291" t="n">
-        <v>338.11</v>
+        <v>338.47</v>
       </c>
       <c r="K291" t="n">
         <v>335.51</v>
@@ -19708,7 +19706,7 @@
         <v>320.93</v>
       </c>
       <c r="G293" t="n">
-        <v>321.51</v>
+        <v>321.3</v>
       </c>
       <c r="H293" t="n">
         <v>320.96</v>
@@ -19717,7 +19715,7 @@
         <v>327.66</v>
       </c>
       <c r="J293" t="n">
-        <v>312.31</v>
+        <v>311</v>
       </c>
       <c r="K293" t="n">
         <v>315.6</v>
@@ -19786,7 +19784,7 @@
         <v>282.08</v>
       </c>
       <c r="G294" t="n">
-        <v>282.79</v>
+        <v>282.84</v>
       </c>
       <c r="H294" t="n">
         <v>269.21</v>
@@ -19795,7 +19793,7 @@
         <v>270.83</v>
       </c>
       <c r="J294" t="n">
-        <v>268.73</v>
+        <v>269.06</v>
       </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
@@ -19858,7 +19856,7 @@
         <v>280.4</v>
       </c>
       <c r="G295" t="n">
-        <v>286.99</v>
+        <v>286.81</v>
       </c>
       <c r="H295" t="n">
         <v>275.87</v>
@@ -19867,7 +19865,7 @@
         <v>285.77</v>
       </c>
       <c r="J295" t="n">
-        <v>288.82</v>
+        <v>287.69</v>
       </c>
       <c r="K295" t="n">
         <v>300.39</v>
@@ -19934,7 +19932,7 @@
         <v>278.01</v>
       </c>
       <c r="G296" t="n">
-        <v>285.74</v>
+        <v>285.83</v>
       </c>
       <c r="H296" t="n">
         <v>275.24</v>
@@ -19943,7 +19941,7 @@
         <v>269.75</v>
       </c>
       <c r="J296" t="n">
-        <v>266.29</v>
+        <v>266.83</v>
       </c>
       <c r="K296" t="n">
         <v>279.87</v>
@@ -20008,7 +20006,7 @@
         <v>285.06</v>
       </c>
       <c r="G297" t="n">
-        <v>291.9</v>
+        <v>291.87</v>
       </c>
       <c r="H297" t="n">
         <v>281.1</v>
@@ -20017,7 +20015,7 @@
         <v>281.38</v>
       </c>
       <c r="J297" t="n">
-        <v>277.2</v>
+        <v>277.01</v>
       </c>
       <c r="K297" t="n">
         <v>292.37</v>
@@ -20084,7 +20082,7 @@
         <v>289.77</v>
       </c>
       <c r="G298" t="n">
-        <v>296.43</v>
+        <v>296.42</v>
       </c>
       <c r="H298" t="n">
         <v>277.46</v>
@@ -20093,7 +20091,7 @@
         <v>310.55</v>
       </c>
       <c r="J298" t="n">
-        <v>282.68</v>
+        <v>282.59</v>
       </c>
       <c r="K298" t="n">
         <v>302.59</v>
@@ -20158,7 +20156,7 @@
         <v>308.96</v>
       </c>
       <c r="G299" t="n">
-        <v>308.23</v>
+        <v>308.08</v>
       </c>
       <c r="H299" t="n">
         <v>301.39</v>
@@ -20167,7 +20165,7 @@
         <v>328.06</v>
       </c>
       <c r="J299" t="n">
-        <v>305.22</v>
+        <v>304.26</v>
       </c>
       <c r="K299" t="n">
         <v>310.18</v>
@@ -20272,7 +20270,7 @@
         <v>330.83</v>
       </c>
       <c r="G301" t="n">
-        <v>322.11</v>
+        <v>322.19</v>
       </c>
       <c r="H301" t="n">
         <v>320.85</v>
@@ -20281,7 +20279,7 @@
         <v>324.28</v>
       </c>
       <c r="J301" t="n">
-        <v>328.57</v>
+        <v>329.07</v>
       </c>
       <c r="K301" t="n">
         <v>327.77</v>
@@ -20348,7 +20346,7 @@
         <v>343.34</v>
       </c>
       <c r="G302" t="n">
-        <v>331.63</v>
+        <v>331.61</v>
       </c>
       <c r="H302" t="n">
         <v>340.25</v>
@@ -20357,7 +20355,7 @@
         <v>337.21</v>
       </c>
       <c r="J302" t="n">
-        <v>335.81</v>
+        <v>335.71</v>
       </c>
       <c r="K302" t="n">
         <v>338.03</v>
@@ -20424,7 +20422,7 @@
         <v>330.7</v>
       </c>
       <c r="G303" t="n">
-        <v>325.64</v>
+        <v>325.51</v>
       </c>
       <c r="H303" t="n">
         <v>323.5</v>
@@ -20433,7 +20431,7 @@
         <v>325.59</v>
       </c>
       <c r="J303" t="n">
-        <v>330.81</v>
+        <v>329.99</v>
       </c>
       <c r="K303" t="n">
         <v>322.25</v>
@@ -20555,7 +20553,7 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>290.86</v>
+        <v>290.36</v>
       </c>
       <c r="K305" t="n">
         <v>291.13</v>
@@ -20608,7 +20606,7 @@
         <v>337.21</v>
       </c>
       <c r="G306" t="n">
-        <v>327.18</v>
+        <v>326.95</v>
       </c>
       <c r="H306" t="n">
         <v>323.43</v>
@@ -20617,7 +20615,7 @@
         <v>331.81</v>
       </c>
       <c r="J306" t="n">
-        <v>330.11</v>
+        <v>328.65</v>
       </c>
       <c r="K306" t="n">
         <v>336.65</v>
@@ -20686,7 +20684,7 @@
         <v>344.67</v>
       </c>
       <c r="G307" t="n">
-        <v>338.57</v>
+        <v>338.64</v>
       </c>
       <c r="H307" t="n">
         <v>334.41</v>
@@ -20695,7 +20693,7 @@
         <v>331.12</v>
       </c>
       <c r="J307" t="n">
-        <v>327.94</v>
+        <v>328.35</v>
       </c>
       <c r="K307" t="n">
         <v>329.15</v>
@@ -20764,7 +20762,7 @@
         <v>321.93</v>
       </c>
       <c r="G308" t="n">
-        <v>321.36</v>
+        <v>321.23</v>
       </c>
       <c r="H308" t="n">
         <v>311.62</v>
@@ -20773,7 +20771,7 @@
         <v>323.18</v>
       </c>
       <c r="J308" t="n">
-        <v>318.02</v>
+        <v>317.22</v>
       </c>
       <c r="K308" t="n">
         <v>320.92</v>
@@ -20842,7 +20840,7 @@
         <v>324.1</v>
       </c>
       <c r="G309" t="n">
-        <v>321.6</v>
+        <v>321.55</v>
       </c>
       <c r="H309" t="n">
         <v>321.67</v>
@@ -20851,7 +20849,7 @@
         <v>325.96</v>
       </c>
       <c r="J309" t="n">
-        <v>326.34</v>
+        <v>326</v>
       </c>
       <c r="K309" t="n">
         <v>326.06</v>
@@ -20920,7 +20918,7 @@
         <v>327.79</v>
       </c>
       <c r="G310" t="n">
-        <v>322.22</v>
+        <v>322.19</v>
       </c>
       <c r="H310" t="n">
         <v>322.31</v>
@@ -20929,7 +20927,7 @@
         <v>328.55</v>
       </c>
       <c r="J310" t="n">
-        <v>326.99</v>
+        <v>326.78</v>
       </c>
       <c r="K310" t="n">
         <v>323.83</v>
@@ -20998,7 +20996,7 @@
         <v>316.06</v>
       </c>
       <c r="G311" t="n">
-        <v>332.43</v>
+        <v>332.52</v>
       </c>
       <c r="H311" t="n">
         <v>316.81</v>
@@ -21007,7 +21005,7 @@
         <v>324.74</v>
       </c>
       <c r="J311" t="n">
-        <v>331.65</v>
+        <v>332.21</v>
       </c>
       <c r="K311" t="n">
         <v>329.94</v>
@@ -21076,7 +21074,7 @@
         <v>318.93</v>
       </c>
       <c r="G312" t="n">
-        <v>320.27</v>
+        <v>320.08</v>
       </c>
       <c r="H312" t="n">
         <v>305.72</v>
@@ -21085,7 +21083,7 @@
         <v>329.1</v>
       </c>
       <c r="J312" t="n">
-        <v>316.48</v>
+        <v>315.22</v>
       </c>
       <c r="K312" t="n">
         <v>314.96</v>
@@ -21154,7 +21152,7 @@
         <v>330.71</v>
       </c>
       <c r="G313" t="n">
-        <v>344.21</v>
+        <v>344.3</v>
       </c>
       <c r="H313" t="n">
         <v>342.88</v>
@@ -21163,7 +21161,7 @@
         <v>349.94</v>
       </c>
       <c r="J313" t="n">
-        <v>342.26</v>
+        <v>342.79</v>
       </c>
       <c r="K313" t="n">
         <v>328.45</v>
@@ -21228,14 +21226,14 @@
         <v>308.67</v>
       </c>
       <c r="G314" t="n">
-        <v>311.24</v>
+        <v>311.3</v>
       </c>
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="n">
         <v>321.57</v>
       </c>
       <c r="J314" t="n">
-        <v>321.6</v>
+        <v>321.96</v>
       </c>
       <c r="K314" t="n">
         <v>303.62</v>
@@ -21304,7 +21302,7 @@
         <v>288.04</v>
       </c>
       <c r="G315" t="n">
-        <v>291.55</v>
+        <v>291.63</v>
       </c>
       <c r="H315" t="n">
         <v>281.66</v>
@@ -21372,14 +21370,14 @@
         <v>288.48</v>
       </c>
       <c r="G316" t="n">
-        <v>296.48</v>
+        <v>296.4</v>
       </c>
       <c r="H316" t="n">
         <v>281.19</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>285.59</v>
+        <v>285.12</v>
       </c>
       <c r="K316" t="n">
         <v>297.11</v>
@@ -21446,7 +21444,7 @@
         <v>277.88</v>
       </c>
       <c r="G317" t="n">
-        <v>286.18</v>
+        <v>286.05</v>
       </c>
       <c r="H317" t="n">
         <v>274.37</v>
@@ -21455,7 +21453,7 @@
         <v>282.85</v>
       </c>
       <c r="J317" t="n">
-        <v>284.6</v>
+        <v>283.79</v>
       </c>
       <c r="K317" t="n">
         <v>301.65</v>
@@ -21512,7 +21510,7 @@
         <v>314.96</v>
       </c>
       <c r="G318" t="n">
-        <v>293.27</v>
+        <v>293.36</v>
       </c>
       <c r="H318" t="n">
         <v>278.31</v>
@@ -21521,7 +21519,7 @@
         <v>268.24</v>
       </c>
       <c r="J318" t="n">
-        <v>261.11</v>
+        <v>261.68</v>
       </c>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
@@ -21574,7 +21572,7 @@
         <v>294.29</v>
       </c>
       <c r="G319" t="n">
-        <v>298.29</v>
+        <v>298.2</v>
       </c>
       <c r="H319" t="n">
         <v>287.41</v>
@@ -21583,7 +21581,7 @@
         <v>312.86</v>
       </c>
       <c r="J319" t="n">
-        <v>293.19</v>
+        <v>292.61</v>
       </c>
       <c r="K319" t="n">
         <v>299.66</v>
@@ -21650,7 +21648,7 @@
         <v>315.63</v>
       </c>
       <c r="G320" t="n">
-        <v>322.3</v>
+        <v>322.29</v>
       </c>
       <c r="H320" t="n">
         <v>312.25</v>
@@ -21659,7 +21657,7 @@
         <v>328.32</v>
       </c>
       <c r="J320" t="n">
-        <v>330.34</v>
+        <v>330.3</v>
       </c>
       <c r="K320" t="n">
         <v>308.92</v>
@@ -21728,7 +21726,7 @@
         <v>332.66</v>
       </c>
       <c r="G321" t="n">
-        <v>329.61</v>
+        <v>329.73</v>
       </c>
       <c r="H321" t="n">
         <v>328.46</v>
@@ -21737,7 +21735,7 @@
         <v>322.88</v>
       </c>
       <c r="J321" t="n">
-        <v>319.63</v>
+        <v>320.36</v>
       </c>
       <c r="K321" t="n">
         <v>317.93</v>
@@ -21806,7 +21804,7 @@
         <v>342.91</v>
       </c>
       <c r="G322" t="n">
-        <v>332.72</v>
+        <v>332.8</v>
       </c>
       <c r="H322" t="n">
         <v>338.39</v>
@@ -21815,7 +21813,7 @@
         <v>337.25</v>
       </c>
       <c r="J322" t="n">
-        <v>334.59</v>
+        <v>335.09</v>
       </c>
       <c r="K322" t="n">
         <v>349.1</v>
@@ -21884,7 +21882,7 @@
         <v>336.88</v>
       </c>
       <c r="G323" t="n">
-        <v>328.15</v>
+        <v>328.11</v>
       </c>
       <c r="H323" t="n">
         <v>326.01</v>
@@ -21893,7 +21891,7 @@
         <v>324.07</v>
       </c>
       <c r="J323" t="n">
-        <v>324.48</v>
+        <v>324.26</v>
       </c>
       <c r="K323" t="n">
         <v>325.34</v>
@@ -21952,7 +21950,7 @@
         <v>335.43</v>
       </c>
       <c r="G324" t="n">
-        <v>326.6</v>
+        <v>326.46</v>
       </c>
       <c r="H324" t="n">
         <v>320.08</v>
@@ -21961,7 +21959,7 @@
         <v>328.86</v>
       </c>
       <c r="J324" t="n">
-        <v>332.63</v>
+        <v>331.7</v>
       </c>
       <c r="K324" t="n">
         <v>336.14</v>
@@ -22030,7 +22028,7 @@
         <v>352.36</v>
       </c>
       <c r="G325" t="n">
-        <v>343.1</v>
+        <v>343.24</v>
       </c>
       <c r="H325" t="n">
         <v>353.07</v>
@@ -22039,7 +22037,7 @@
         <v>343.38</v>
       </c>
       <c r="J325" t="n">
-        <v>343.1</v>
+        <v>343.97</v>
       </c>
       <c r="K325" t="n">
         <v>334.98</v>
@@ -22106,7 +22104,7 @@
         <v>326.92</v>
       </c>
       <c r="G326" t="n">
-        <v>327.75</v>
+        <v>327.52</v>
       </c>
       <c r="H326" t="n">
         <v>325.79</v>
@@ -22115,7 +22113,7 @@
         <v>331.23</v>
       </c>
       <c r="J326" t="n">
-        <v>335.02</v>
+        <v>333.56</v>
       </c>
       <c r="K326" t="n">
         <v>334.83</v>
@@ -22180,7 +22178,7 @@
         <v>323.04</v>
       </c>
       <c r="G327" t="n">
-        <v>320.05</v>
+        <v>319.92</v>
       </c>
       <c r="H327" t="n">
         <v>318.62</v>
@@ -22189,7 +22187,7 @@
         <v>324.06</v>
       </c>
       <c r="J327" t="n">
-        <v>324.24</v>
+        <v>323.42</v>
       </c>
       <c r="K327" t="n">
         <v>321.79</v>
@@ -22258,7 +22256,7 @@
         <v>334.04</v>
       </c>
       <c r="G328" t="n">
-        <v>338.93</v>
+        <v>338.95</v>
       </c>
       <c r="H328" t="n">
         <v>333.76</v>
@@ -22267,7 +22265,7 @@
         <v>339.11</v>
       </c>
       <c r="J328" t="n">
-        <v>330.74</v>
+        <v>330.85</v>
       </c>
       <c r="K328" t="n">
         <v>331.11</v>
@@ -22334,7 +22332,7 @@
         <v>316.75</v>
       </c>
       <c r="G329" t="n">
-        <v>319.61</v>
+        <v>319.41</v>
       </c>
       <c r="H329" t="n">
         <v>300.05</v>
@@ -22343,7 +22341,7 @@
         <v>325.25</v>
       </c>
       <c r="J329" t="n">
-        <v>313.2</v>
+        <v>311.96</v>
       </c>
       <c r="K329" t="n">
         <v>320.13</v>
@@ -22412,7 +22410,7 @@
         <v>314.66</v>
       </c>
       <c r="G330" t="n">
-        <v>307.49</v>
+        <v>307.24</v>
       </c>
       <c r="H330" t="n">
         <v>298.9</v>
@@ -22421,7 +22419,7 @@
         <v>318.91</v>
       </c>
       <c r="J330" t="n">
-        <v>304.39</v>
+        <v>302.77</v>
       </c>
       <c r="K330" t="n">
         <v>316.63</v>
@@ -22488,14 +22486,14 @@
         <v>282.27</v>
       </c>
       <c r="G331" t="n">
-        <v>285.88</v>
+        <v>285.86</v>
       </c>
       <c r="H331" t="n">
         <v>269.31</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>275.46</v>
+        <v>275.33</v>
       </c>
       <c r="K331" t="n">
         <v>328.6</v>
@@ -22554,14 +22552,14 @@
         <v>279.35</v>
       </c>
       <c r="G332" t="n">
-        <v>287.19</v>
+        <v>287.16</v>
       </c>
       <c r="H332" t="n">
         <v>270.76</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>275.39</v>
+        <v>275.2</v>
       </c>
       <c r="K332" t="n">
         <v>340.71</v>
@@ -22628,7 +22626,7 @@
         <v>290.67</v>
       </c>
       <c r="G333" t="n">
-        <v>297.58</v>
+        <v>297.37</v>
       </c>
       <c r="H333" t="n">
         <v>271.41</v>
@@ -22637,7 +22635,7 @@
         <v>336.89</v>
       </c>
       <c r="J333" t="n">
-        <v>295.59</v>
+        <v>294.29</v>
       </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
@@ -22700,14 +22698,14 @@
         <v>297.98</v>
       </c>
       <c r="G334" t="n">
-        <v>301.21</v>
+        <v>301</v>
       </c>
       <c r="H334" t="n">
         <v>285.15</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>299.5</v>
+        <v>298.17</v>
       </c>
       <c r="K334" t="n">
         <v>311.68</v>
@@ -22773,7 +22771,7 @@
         <v>342.67</v>
       </c>
       <c r="J335" t="n">
-        <v>333</v>
+        <v>333.57</v>
       </c>
       <c r="K335" t="n">
         <v>335.38</v>
@@ -22834,7 +22832,7 @@
         <v>322.29</v>
       </c>
       <c r="G336" t="n">
-        <v>309.94</v>
+        <v>309.95</v>
       </c>
       <c r="H336" t="n">
         <v>309.98</v>
@@ -22843,7 +22841,7 @@
         <v>308.64</v>
       </c>
       <c r="J336" t="n">
-        <v>315.83</v>
+        <v>315.87</v>
       </c>
       <c r="K336" t="n">
         <v>318.54</v>
@@ -22912,7 +22910,7 @@
         <v>335.55</v>
       </c>
       <c r="G337" t="n">
-        <v>328.92</v>
+        <v>328.67</v>
       </c>
       <c r="H337" t="n">
         <v>324.45</v>
@@ -22921,7 +22919,7 @@
         <v>335.22</v>
       </c>
       <c r="J337" t="n">
-        <v>338.24</v>
+        <v>336.66</v>
       </c>
       <c r="K337" t="n">
         <v>342.84</v>
@@ -27100,28 +27098,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009664629069481024</v>
+        <v>0.01784435892293917</v>
       </c>
       <c r="J7" t="n">
         <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L7" t="n">
-        <v>8.766415014238582e-06</v>
+        <v>3.032200960995102e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>18.71779021356584</v>
+        <v>18.61947714925627</v>
       </c>
       <c r="N7" t="n">
-        <v>584.8983682049529</v>
+        <v>578.3871277810557</v>
       </c>
       <c r="O7" t="n">
-        <v>24.18467217484978</v>
+        <v>24.0496804091251</v>
       </c>
       <c r="P7" t="n">
-        <v>312.4700624912142</v>
+        <v>312.0941699317623</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27334,7 +27332,7 @@
         <v>0.0922</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2298788772672047</v>
+        <v>-0.203038886982402</v>
       </c>
       <c r="J10" t="n">
         <v>336</v>
@@ -27343,19 +27341,19 @@
         <v>242</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004788117723830032</v>
+        <v>0.003668283748559431</v>
       </c>
       <c r="M10" t="n">
-        <v>21.1449651032293</v>
+        <v>21.55695908435533</v>
       </c>
       <c r="N10" t="n">
-        <v>631.8696259859096</v>
+        <v>644.4433643160504</v>
       </c>
       <c r="O10" t="n">
-        <v>25.13701704629866</v>
+        <v>25.38588907869981</v>
       </c>
       <c r="P10" t="n">
-        <v>318.2497316168437</v>
+        <v>316.9951608282782</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28550,7 +28548,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-37.75340091575068,174.82953691546476</t>
+          <t>-37.75340114064639,174.82953593417756</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -28612,7 +28610,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-37.75347238220455,174.82922508388614</t>
+          <t>-37.75347218229952,174.82922595614318</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -28627,7 +28625,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-37.75143914235683,174.8284087136887</t>
+          <t>-37.75143783822735,174.82841426323043</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -28734,7 +28732,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-37.75349904448159,174.82910874655852</t>
+          <t>-37.75349876961334,174.82910994591288</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -28749,7 +28747,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-37.751438298508376,174.82841230456864</t>
+          <t>-37.75143658523996,174.82841959514286</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -28856,7 +28854,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-37.753500468798755,174.82910253172227</t>
+          <t>-37.75350051877478,174.8291023136578</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -28871,7 +28869,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-37.751448987247635,174.82836682008275</t>
+          <t>-37.751449319672254,174.8283654054933</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -28962,7 +28960,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-37.75339149511219,174.82957802048938</t>
+          <t>-37.75339124522768,174.8295791108082</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -29032,7 +29030,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-37.75341695829097,174.82946691696256</t>
+          <t>-37.753417208174454,174.82946582664297</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -29118,7 +29116,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-37.75350539143626,174.82908105237388</t>
+          <t>-37.75350511656828,174.82908225172844</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -29133,7 +29131,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-37.751445611858145,174.82838118360613</t>
+          <t>-37.75144384744933,174.82838869181094</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -29247,7 +29245,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-37.751477601275724,174.82824505652295</t>
+          <t>-37.75147898211041,174.82823918053094</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -29338,7 +29336,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-37.75341660845409,174.82946844340998</t>
+          <t>-37.753416058710364,174.82947084211304</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -29349,7 +29347,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-37.75134721338493,174.82879990147177</t>
+          <t>-37.75134355665675,174.82881546191052</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -29436,7 +29434,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-37.753369930043185,174.82967211497393</t>
+          <t>-37.75336985507757,174.82967244206938</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -29447,7 +29445,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-37.751300391768815,174.82899914025478</t>
+          <t>-37.751299854763104,174.82900142535127</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -29538,7 +29536,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-37.75341828267331,174.82946113826858</t>
+          <t>-37.75341858253343,174.82945982988502</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -29549,7 +29547,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-37.751281852260846,174.82907803047004</t>
+          <t>-37.75128379571516,174.82906976060116</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -29640,7 +29638,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-37.75361756156006,174.82859160590274</t>
+          <t>-37.75361778644804,174.82859062460952</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -29655,7 +29653,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-37.751511891918746,174.82809913598763</t>
+          <t>-37.75151340060068,174.82809271591609</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -29762,7 +29760,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-37.75361313876164,174.8286109046681</t>
+          <t>-37.753613388637355,174.82860981434243</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -29777,7 +29775,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-37.75153145361546,174.82801589266583</t>
+          <t>-37.75153314128856,174.82800871088688</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -29884,7 +29882,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-37.753628481111214,174.8285439586582</t>
+          <t>-37.75362840614871,174.82854428575604</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -29899,7 +29897,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-37.75153932941956,174.82798237769447</t>
+          <t>-37.75153889471631,174.82798422754698</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -30006,7 +30004,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-37.753569860140914,174.82879974895616</t>
+          <t>-37.75357003505512,174.82879898572912</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -30021,7 +30019,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-37.7514938644216,174.82817585038066</t>
+          <t>-37.75149496397248,174.8281711713479</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -30128,7 +30126,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-37.753407462711316,174.82950834910164</t>
+          <t>-37.75340721282744,174.82950943942097</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -30143,7 +30141,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-37.75134128078994,174.82882514637856</t>
+          <t>-37.75133969535417,174.82883189286156</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -30238,7 +30236,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-37.753456989498375,174.8292922476641</t>
+          <t>-37.75345696451019,174.8292923566962</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -30253,7 +30251,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-37.751347059955805,174.82880055435731</t>
+          <t>-37.75134690652669,174.8288012072429</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -30352,7 +30350,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-37.753497595176086,174.82911507042678</t>
+          <t>-37.75349739527185,174.82911594268444</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -30367,7 +30365,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-37.75144850139622,174.8283688875597</t>
+          <t>-37.7514472228397,174.82837432828833</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -30474,7 +30472,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-37.75349829484085,174.8291120175249</t>
+          <t>-37.75349777009228,174.8291143072013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -30489,7 +30487,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-37.7514723080734,174.82826758115672</t>
+          <t>-37.75146890712475,174.82828205350418</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -30592,7 +30590,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-37.753560614669546,174.8288400909507</t>
+          <t>-37.75356076459621,174.82883943675628</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -30607,7 +30605,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-37.751492381306186,174.82818216163395</t>
+          <t>-37.75149340414445,174.8281778090455</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -30710,7 +30708,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-37.75342270560854,174.82944183960979</t>
+          <t>-37.75342293050348,174.82944085832202</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -30812,14 +30810,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-37.75343882305813,174.82937151396828</t>
+          <t>-37.753438773081605,174.82937173203237</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-37.75142385078318,174.82847378477294</t>
+          <t>-37.75142351835728,174.8284751993614</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -30914,7 +30912,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-37.753352463032826,174.82974832819332</t>
+          <t>-37.75335276289607,174.8297470198122</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -30980,7 +30978,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-37.75341715819776,174.8294660447069</t>
+          <t>-37.753416683419125,174.8294681163141</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -31066,7 +31064,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-37.75338007538032,174.82962784805096</t>
+          <t>-37.75338040023074,174.82962643063695</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -31168,7 +31166,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-37.75346271179128,174.82926727931502</t>
+          <t>-37.75346206209888,174.8292701141496</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -31183,7 +31181,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-37.75144310588605,174.82839184743315</t>
+          <t>-37.75143891221636,174.82840969301958</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -31282,7 +31280,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-37.75351408725353,174.82904310915217</t>
+          <t>-37.75351403727758,174.82904332721668</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -31297,7 +31295,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-37.751490054348544,174.8281920637722</t>
+          <t>-37.75148964521307,174.82819380480743</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -31392,7 +31390,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-37.753461962146204,174.829270550278</t>
+          <t>-37.75346198713437,174.8292704412459</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -31407,7 +31405,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-37.751464023052606,174.82830283709848</t>
+          <t>-37.7514642531922,174.82830185776686</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -31514,7 +31512,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-37.75346271179128,174.82926727931502</t>
+          <t>-37.75346233696875,174.8292689147965</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -31697,7 +31695,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-37.75141970824377,174.8284914127207</t>
+          <t>-37.751419350246415,174.82849293612347</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -31796,7 +31794,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-37.75345359110364,174.82930707602674</t>
+          <t>-37.75345306635134,174.82930936570025</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -31811,7 +31809,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-37.75139562009294,174.82859391593144</t>
+          <t>-37.751392219104936,174.8286083882475</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -31914,7 +31912,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-37.75340446410422,174.82952143293275</t>
+          <t>-37.75340383939424,174.82952415873075</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -31929,7 +31927,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-37.751384394268754,174.82864168545058</t>
+          <t>-37.75138032841885,174.82865898693555</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -32032,7 +32030,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-37.75339084541245,174.82958085531826</t>
+          <t>-37.75339109529697,174.8295797649995</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -32047,7 +32045,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-37.7513025909346,174.82898978224028</t>
+          <t>-37.75130430423767,174.82898249169372</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -32122,14 +32120,14 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-37.75330945749764,174.8299359717387</t>
+          <t>-37.75330970738538,174.82993488142242</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-37.75125556442821,174.82918989128365</t>
+          <t>-37.75125727774345,174.82918260074678</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -32204,14 +32202,14 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-37.75335201323793,174.829750290765</t>
+          <t>-37.753352263123986,174.82974920044742</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-37.75128446058096,174.82906693143536</t>
+          <t>-37.751286046029946,174.8290601849629</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -32309,7 +32307,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-37.75136608513883,174.82871959652445</t>
+          <t>-37.75136242842106,174.82873515697153</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -32404,7 +32402,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-37.75334546621967,174.82977885708323</t>
+          <t>-37.753345766083264,174.82977754870237</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -32419,7 +32417,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-37.75128763147856,174.82905343849012</t>
+          <t>-37.7512896005029,174.8290450598058</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -32509,7 +32507,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-37.75150038501134,174.82814810262602</t>
+          <t>-37.751500819717094,174.82814625277553</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -32568,7 +32566,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-37.753269150474424,174.83011183965354</t>
+          <t>-37.75326885060719,174.83011314803156</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -32626,7 +32624,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-37.7534487184021,174.8293283372795</t>
+          <t>-37.753448543484524,174.82932910050388</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -32641,7 +32639,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-37.7514092751701,174.82853580902437</t>
+          <t>-37.75140807331985,174.8285409233036</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -32748,7 +32746,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-37.75346893384182,174.82924013031945</t>
+          <t>-37.753468409090814,174.82924241999396</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -32763,7 +32761,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-37.751415156561684,174.8285107816979</t>
+          <t>-37.751411806726246,174.82852503639305</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -32866,7 +32864,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-37.75349816990072,174.82911256268594</t>
+          <t>-37.75349841978098,174.82911147236382</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -32881,7 +32879,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-37.751459650398544,174.82832144439772</t>
+          <t>-37.751461338089925,174.82831426263337</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -32976,7 +32974,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-37.75345591500612,174.82929693604365</t>
+          <t>-37.75345529030124,174.82929966184562</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -32991,7 +32989,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-37.75142633119133,174.8284632297662</t>
+          <t>-37.75142223979594,174.82848064008618</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -33082,7 +33080,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-37.75346885887739,174.8292404574158</t>
+          <t>-37.75346835911452,174.82924263805822</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -33097,7 +33095,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-37.75145287405763,174.8283502802663</t>
+          <t>-37.75144957538348,174.82836431734748</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -33192,7 +33190,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-37.753516810940944,174.8290312246354</t>
+          <t>-37.75351706082047,174.82903013431272</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -33207,7 +33205,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-37.751479186678495,174.82823831001363</t>
+          <t>-37.7514808743649,174.8282311282453</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -33321,7 +33319,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-37.75141559127303,174.82850893185187</t>
+          <t>-37.75141326428843,174.82851883396862</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -33416,7 +33414,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-37.753402664939294,174.82952928323087</t>
+          <t>-37.75340244004365,174.8295302645181</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -33431,7 +33429,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-37.75139124739376,174.82861252319466</t>
+          <t>-37.751389789826725,174.82861872561526</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -33545,7 +33543,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-37.751333123463155,174.82885985811853</t>
+          <t>-37.75133302117686,174.8288602933754</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -33636,7 +33634,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-37.7534400724711,174.82936606236683</t>
+          <t>-37.75343977261201,174.8293673707512</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -33651,7 +33649,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-37.75134537223531,174.82880773609847</t>
+          <t>-37.75134342879908,174.82881600598176</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -33746,7 +33744,7 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-37.753375977265804,174.8296457292726</t>
+          <t>-37.75337562742665,174.82964725571827</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -33757,7 +33755,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-37.75134718781341,174.82880001028602</t>
+          <t>-37.75134486080478,174.82880991238358</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -33852,7 +33850,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-37.75340186531027,174.82953277225212</t>
+          <t>-37.75340151547254,174.8295342986989</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -33867,7 +33865,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-37.751328443863635,174.82887977111935</t>
+          <t>-37.75132624470643,174.8288891291407</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -33962,7 +33960,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-37.75344936809584,174.82932550244595</t>
+          <t>-37.75344876837853,174.82932811921538</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -34068,7 +34066,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-37.75352128378287,174.82901170785817</t>
+          <t>-37.753521333758734,174.8290114897936</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -34174,7 +34172,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-37.753463411459904,174.82926422641617</t>
+          <t>-37.753463111601924,174.82926553480138</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -34189,7 +34187,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-37.751431189720094,174.8284425550086</t>
+          <t>-37.751429374165035,174.8284502808394</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -34296,7 +34294,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-37.753515611519106,174.82903645818416</t>
+          <t>-37.753515536555234,174.82903678528095</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -34402,7 +34400,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-37.75349719536761,174.8291168149421</t>
+          <t>-37.75349707042747,174.82911736010314</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -34417,7 +34415,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-37.751443463882126,174.82839032402936</t>
+          <t>-37.75144262003422,174.82839391490975</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -34519,7 +34517,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-37.75148322689674,174.82822111729493</t>
+          <t>-37.7514845054463,174.82821567656077</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -34629,7 +34627,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-37.75146998110873,174.82827748328936</t>
+          <t>-37.75147067152692,174.82827454529402</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -34736,7 +34734,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-37.7534717575013,174.8292278096894</t>
+          <t>-37.75347110780984,174.8292306445247</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -34834,7 +34832,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-37.75347250714519,174.82922453872547</t>
+          <t>-37.75347200738261,174.8292267193681</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -34849,7 +34847,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-37.75144144376119,174.82839892037927</t>
+          <t>-37.7514381962237,174.82841273982683</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -34944,7 +34942,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-37.75346818419751,174.82924340128304</t>
+          <t>-37.75346773441086,174.82924536386113</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -34959,7 +34957,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-37.75138370384159,174.82864462343875</t>
+          <t>-37.751380788703855,174.82865702827698</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -35042,7 +35040,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-37.753443121037726,174.82935276045848</t>
+          <t>-37.75344279619052,174.829354177875</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -35057,7 +35055,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-37.75136316999337,174.8287320013565</t>
+          <t>-37.75136109870501,174.82874081531548</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -35147,7 +35145,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-37.75129668387137,174.82901491830117</t>
+          <t>-37.75129778345498,174.82901023929446</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -35218,7 +35216,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-37.75341558393164,174.82947291372022</t>
+          <t>-37.753415234094675,174.8294744401676</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -35233,7 +35231,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-37.751347648100726,174.8287980516293</t>
+          <t>-37.751345321092266,174.828807953727</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -35324,7 +35322,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-37.7533855978353,174.82960375201117</t>
+          <t>-37.753385272985135,174.82960516942535</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -35339,7 +35337,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-37.75132780457382,174.82888249147445</t>
+          <t>-37.75132565655963,174.8288916318672</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -35422,7 +35420,7 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-37.75339167003134,174.8295772572662</t>
+          <t>-37.75339164504288,174.82957736629808</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -35433,7 +35431,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-37.7513033325136,174.8289866266306</t>
+          <t>-37.75130323022684,174.82898706188715</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -35598,7 +35596,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-37.75350051877478,174.8291023136578</t>
+          <t>-37.75350041882271,174.82910274978667</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -35692,7 +35690,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-37.75353920010668,174.82893353169214</t>
+          <t>-37.753539025191635,174.8289342949185</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -35707,7 +35705,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-37.75147468617933,174.82825746139412</t>
+          <t>-37.751473561054055,174.8282622492389</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -35805,7 +35803,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-37.751460698812934,174.8283169829987</t>
+          <t>-37.75145763028254,174.82833004075158</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -35888,7 +35886,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-37.753448418543414,174.82932964566416</t>
+          <t>-37.75344796875537,174.82933160824118</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -35903,7 +35901,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-37.75138907382875,174.82862177241824</t>
+          <t>-37.7513861586934,174.82863417725838</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -35987,7 +35985,11 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-37.75128729904581,174.82905485307316</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>-37.75063691548615,174.82866311208497</t>
@@ -36052,7 +36054,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-37.75347080795225,174.82923195291022</t>
+          <t>-37.753470208236976,174.82923456968123</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -36065,11 +36067,7 @@
           <t>-37.75214572477159,174.82855653924145</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>-37.751430985150535,174.82844342552474</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -36217,11 +36215,7 @@
           <t>-37.75217882230244,174.82841467017442</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>-37.75146310249408,174.82830675442483</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -36310,7 +36304,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-37.75340616331509,174.82951401876196</t>
+          <t>-37.75340596340796,174.82951489101737</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -36325,7 +36319,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-37.751341766649205,174.82882307890793</t>
+          <t>-37.75134056478673,174.8288281931774</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -36420,7 +36414,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-37.753418632510105,174.8294596118211</t>
+          <t>-37.75341858253343,174.82945982988502</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -36435,7 +36429,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-37.75133529704651,174.82885060890962</t>
+          <t>-37.75133504133086,174.82885169705187</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -36481,7 +36475,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-37.751380098276336,174.82865996626484</t>
+          <t>-37.751376339280675,174.82867596197548</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -36576,7 +36570,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-37.75350461680827,174.82908443237307</t>
+          <t>-37.75350426697625,174.82908595882427</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -36591,7 +36585,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-37.751479825953695,174.82823558964685</t>
+          <t>-37.7514775501337,174.82824527415227</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -36690,7 +36684,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-37.7534460446617,174.8293400037092</t>
+          <t>-37.75344579477936,174.8293410940297</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -36705,7 +36699,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-37.75144185289967,174.8283971793464</t>
+          <t>-37.75144026748796,174.8284039258486</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -36788,14 +36782,14 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-37.75334901460447,174.82976337457555</t>
+          <t>-37.75334848984345,174.82976566424227</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-37.75132056780889,174.82891328589074</t>
+          <t>-37.75131716678237,174.82892775817606</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -36878,7 +36872,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-37.753483776780996,174.8291753652264</t>
+          <t>-37.753483751792906,174.8291754742586</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -36976,7 +36970,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-37.75344849350808,174.82932931856797</t>
+          <t>-37.753447993743585,174.8293314992091</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -36991,7 +36985,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-37.751415182132945,174.82851067288345</t>
+          <t>-37.75141185786879,174.82852481876412</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -37090,7 +37084,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-37.753510888793386,174.82905706528078</t>
+          <t>-37.75351113867316,174.82905597495827</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -37105,7 +37099,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-37.75143318427296,174.8284340674757</t>
+          <t>-37.75143476968637,174.82842732097484</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -37322,7 +37316,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-37.75354804580425,174.82889493423988</t>
+          <t>-37.75354819573121,174.82889428004572</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -37337,7 +37331,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-37.75146443218967,174.8283010960645</t>
+          <t>-37.75146550617436,174.82829652585025</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -37428,14 +37422,14 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-37.75343759863318,174.82937685653755</t>
+          <t>-37.7534371988209,174.8293786010499</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-37.75140748518031,174.8285434260359</t>
+          <t>-37.7514050047651,174.82855398103703</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -37538,7 +37532,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-37.75346036290312,174.82927752833217</t>
+          <t>-37.753459763186854,174.8292801451024</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -37553,7 +37547,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-37.75144011406099,174.82840457873587</t>
+          <t>-37.75143617610116,174.82842133617544</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -37750,7 +37744,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-37.75353417754406,174.8289554471904</t>
+          <t>-37.75353392766522,174.8289565375136</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -37765,7 +37759,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-37.75145402475752,174.82834538360976</t>
+          <t>-37.75145233706428,174.82835256537263</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -37852,14 +37846,14 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-37.753456939522,174.8292924657283</t>
+          <t>-37.753456439758175,174.82929464636993</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-37.75136355356521,174.82873036914182</t>
+          <t>-37.75136040827541,174.82874375330172</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -37946,14 +37940,14 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-37.75342290551515,174.82944096735397</t>
+          <t>-37.75342248071361,174.8294428208976</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-37.75133851906288,174.82883689831652</t>
+          <t>-37.7513357317631,174.82884875906777</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -38016,7 +38010,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-37.753339868763554,174.8298032801908</t>
+          <t>-37.75333976880894,174.82980371631768</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -38109,7 +38103,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-37.75139321638731,174.82860414448578</t>
+          <t>-37.751395313236955,174.82859522170438</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -38188,7 +38182,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-37.75344986786023,174.82932332180474</t>
+          <t>-37.753449917836676,174.82932310374062</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
@@ -38286,7 +38280,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-37.75350161824744,174.82909751624015</t>
+          <t>-37.75350171819949,174.82909708011127</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -38301,7 +38295,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-37.75148662783804,174.82820664494162</t>
+          <t>-37.75148729268351,174.82820381575962</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -38392,7 +38386,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-37.753485076161205,174.82916969555367</t>
+          <t>-37.75348455141154,174.82917198522924</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -38498,7 +38492,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-37.75349057353609,174.8291457084744</t>
+          <t>-37.75349009876299,174.82914778008592</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -38513,7 +38507,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-37.75144594428295,174.82837976901675</t>
+          <t>-37.751442824603416,174.8283930443933</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -38608,7 +38602,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-37.753510089178114,174.82906055431272</t>
+          <t>-37.75351001421417,174.82906088140948</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -38623,7 +38617,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-37.75147624601176,174.82825082370002</t>
+          <t>-37.75147565787826,174.82825332643716</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -38710,7 +38704,7 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-37.753467809375316,174.8292450367648</t>
+          <t>-37.75346790932791,174.82924460063634</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -38725,7 +38719,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>-37.75141298300453,174.82852003092773</t>
+          <t>-37.751413750142426,174.82851676649375</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -38820,7 +38814,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-37.753522233324325,174.82900756463138</t>
+          <t>-37.753521608626016,174.82901029043848</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -38835,7 +38829,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>-37.751489875351794,174.82819282547513</t>
+          <t>-37.75148588627956,174.82820980056766</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -38934,7 +38928,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-37.75348130296023,174.8291861594105</t>
+          <t>-37.75348160281733,174.82918485102456</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -38949,7 +38943,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>-37.7514630002098,174.8283071896833</t>
+          <t>-37.75146481575566,174.82829946384513</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -39114,7 +39108,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-37.753452116799465,174.8293135089189</t>
+          <t>-37.75345179195274,174.8293149263358</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -39129,7 +39123,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>-37.75138725826214,174.82862949823985</t>
+          <t>-37.751385212552705,174.82863820339045</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -39228,7 +39222,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-37.75357553235583,174.82877499859208</t>
+          <t>-37.75357570726986,174.82877423536493</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -39322,7 +39316,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-37.753486150648484,174.8291650071703</t>
+          <t>-37.753485725851206,174.82916686071724</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -39337,7 +39331,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>-37.75145064937061,174.82835974713515</t>
+          <t>-37.75144793883138,174.82837128148032</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -39522,7 +39516,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-37.753439347811614,174.8293692242957</t>
+          <t>-37.753439372799875,174.8293691152637</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -39612,7 +39606,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-37.753390970354715,174.82958031015886</t>
+          <t>-37.75339052056257,174.8295822727327</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -39686,7 +39680,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-37.75343245104811,174.82939931713273</t>
+          <t>-37.753432551001254,174.8293988810047</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -39782,11 +39776,7 @@
           <t>-37.754261190991684,174.82900817826538</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>-37.753581404467226,174.82874937596432</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>-37.75287521151564,174.82860411197413</t>
@@ -39799,7 +39789,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>-37.751485681711685,174.82821067108517</t>
+          <t>-37.75148813652572,174.82820022487465</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -39882,7 +39872,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-37.75348147787688,174.82918539618538</t>
+          <t>-37.75348175274589,174.82918419683162</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -39897,7 +39887,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>-37.751470313532316,174.828276068699</t>
+          <t>-37.75147207793408,174.82826856048857</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -39988,7 +39978,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-37.753492522604205,174.82913720396357</t>
+          <t>-37.75349254759225,174.82913709493138</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -40003,7 +39993,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>-37.75143354226958,174.82843254407229</t>
+          <t>-37.75143372126787,174.8284317823706</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -40098,7 +40088,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>-37.75346313659009,174.82926542576928</t>
+          <t>-37.753462561862264,174.82926793350762</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -40113,7 +40103,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>-37.751445637429285,174.82838107479154</t>
+          <t>-37.75144200632658,174.82839652645907</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -40184,7 +40174,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-37.753497670140185,174.82911474333017</t>
+          <t>-37.75349719536761,174.8291168149421</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -40199,7 +40189,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>-37.75148481229817,174.82821437078454</t>
+          <t>-37.751481743778946,174.82822742854634</t>
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
@@ -40294,7 +40284,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>-37.75343524973566,174.8293871055474</t>
+          <t>-37.753434699993555,174.82938950425174</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -40384,7 +40374,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-37.75341695829097,174.82946691696256</t>
+          <t>-37.75341643353562,174.8294692066337</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -40478,7 +40468,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-37.753400890762265,174.8295370244967</t>
+          <t>-37.753400390993995,174.82953920513486</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -40584,7 +40574,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-37.75348095312691,174.8291876858607</t>
+          <t>-37.753480778210246,174.82918844908582</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -40599,7 +40589,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>-37.75146714272214,174.82828956171397</t>
+          <t>-37.75146609430877,174.8282940231138</t>
         </is>
       </c>
       <c r="K121" t="inlineStr"/>
@@ -40702,14 +40692,14 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>-37.75349969417016,174.82910591172094</t>
+          <t>-37.753499944050354,174.82910482139883</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>-37.751452541633164,174.82835169485594</t>
+          <t>-37.751454127041946,174.8283449483514</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -40808,7 +40798,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-37.75347907901953,174.82919586327228</t>
+          <t>-37.75347855426935,174.82919815294744</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -40823,7 +40813,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>-37.751428837169776,174.82845256594422</t>
+          <t>-37.75142543619881,174.82846703827386</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -40930,7 +40920,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>-37.7534933721978,174.82913349686893</t>
+          <t>-37.75349342217389,174.82913327880456</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -41032,7 +41022,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>-37.753508065151465,174.8290693859245</t>
+          <t>-37.75350789023555,174.8290701491502</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -41047,7 +41037,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>-37.75144251774962,174.82839435016797</t>
+          <t>-37.751441264763095,174.8283996820811</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -41150,7 +41140,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>-37.75346893384182,174.82924013031945</t>
+          <t>-37.75346855901968,174.82924176580124</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -41260,7 +41250,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-37.75339259460388,174.82957322308656</t>
+          <t>-37.753392944442105,174.82957169664016</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
@@ -41310,7 +41300,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-37.75338927113978,174.82958772432647</t>
+          <t>-37.75338959598972,174.82958630691212</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -41325,7 +41315,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>-37.75139400909884,174.82860077123922</t>
+          <t>-37.75139605480558,174.82859206608643</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -41423,7 +41413,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>-37.75143234042375,174.82843765835506</t>
+          <t>-37.75142873488495,174.82845300120226</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -41522,7 +41512,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-37.753492422652,174.82913764009234</t>
+          <t>-37.753492522604205,174.82913720396357</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -41537,7 +41527,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>-37.75144241546501,174.8283947854262</t>
+          <t>-37.751442978030305,174.82839239150596</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -41644,7 +41634,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-37.753493247257566,174.82913404202995</t>
+          <t>-37.753493297233675,174.82913382396555</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -41659,7 +41649,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>-37.75142973216184,174.82844875743618</t>
+          <t>-37.75143009015863,174.82844723403292</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -41766,7 +41756,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-37.75347812947156,174.82920000649398</t>
+          <t>-37.753478104483456,174.82920011552613</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -41876,7 +41866,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>-37.75347188244196,174.82922726452873</t>
+          <t>-37.75347190743008,174.82922715549662</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -41970,7 +41960,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-37.753569060533124,174.82880323799395</t>
+          <t>-37.753569410361536,174.8288017115399</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -42056,7 +42046,7 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-37.753370379836795,174.82967015240126</t>
+          <t>-37.753370529768,174.8296694982104</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -42138,7 +42128,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-37.75340731278099,174.82950900329325</t>
+          <t>-37.75340686299,174.82951096586797</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -42244,7 +42234,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-37.753458288884126,174.82928657799567</t>
+          <t>-37.75345796403771,174.8292879954128</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -42259,7 +42249,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>-37.751414849706606,174.82851208747158</t>
+          <t>-37.75141280400567,174.828520792629</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -42354,7 +42344,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>-37.75352608146453,174.8289907736586</t>
+          <t>-37.75352613144037,174.828990555594</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -42460,7 +42450,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-37.75350339239611,174.82908977495225</t>
+          <t>-37.753502867647974,174.82909206462898</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -42475,7 +42465,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>-37.75145520102831,174.82834037813848</t>
+          <t>-37.75145172335753,174.82835517692268</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -42585,7 +42575,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>-37.751444282158786,174.82838684196344</t>
+          <t>-37.751444640154794,174.82838531855953</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -42684,7 +42674,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-37.75350096855908,174.8291003510779</t>
+          <t>-37.75350091858305,174.82910056914233</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -42699,7 +42689,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>-37.7514233393587,174.82847596106288</t>
+          <t>-37.75142305807522,174.82847715802234</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -42794,7 +42784,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-37.753502767695934,174.8290925007579</t>
+          <t>-37.75350234289977,174.8290943543057</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -42904,7 +42894,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-37.75348180272207,174.8291839787673</t>
+          <t>-37.75348207759108,174.82918277941354</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -42919,7 +42909,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>-37.75143967935126,174.8284064285832</t>
+          <t>-37.751441469332335,174.8283988115647</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -43022,7 +43012,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-37.753500643714865,174.8291017684967</t>
+          <t>-37.7535006936909,174.82910155043228</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -43037,7 +43027,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>-37.75146092895266,174.8283160036672</t>
+          <t>-37.751461286947766,174.8283144802626</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -43128,7 +43118,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-37.75343982258853,174.82936715268715</t>
+          <t>-37.75343954771769,174.82936835203947</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -43143,7 +43133,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>-37.751398253939605,174.8285827080466</t>
+          <t>-37.75139646394685,174.8285903250558</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -43242,7 +43232,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>-37.75346161231181,174.8292720767274</t>
+          <t>-37.75346186219353,174.82927098640639</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -43332,7 +43322,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>-37.753416058710364,174.82947084211304</t>
+          <t>-37.753415533954936,174.82947313178414</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -43343,7 +43333,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>-37.75135439897777,174.82876932466084</t>
+          <t>-37.751350921254094,174.82878412340284</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -43438,7 +43428,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-37.75340176535664,174.82953320837976</t>
+          <t>-37.75340199025232,174.82953222709256</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -43453,7 +43443,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>-37.751279448513955,174.82908825899148</t>
+          <t>-37.75128093167703,174.82908194777622</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -43536,7 +43526,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-37.75338447335391,174.8296086584449</t>
+          <t>-37.75338402356129,174.82961062101836</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -43551,7 +43541,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>-37.75133299560528,174.82886040218966</t>
+          <t>-37.75133002930209,174.82887302463848</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -43650,7 +43640,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-37.753366656544216,174.82968639814098</t>
+          <t>-37.75336685645259,174.82968552588653</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -43665,7 +43655,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>-37.7512786813605,174.82909152341304</t>
+          <t>-37.751279883234204,174.82908640915255</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -43760,7 +43750,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>-37.7534516919999,174.82931536246406</t>
+          <t>-37.75345179195274,174.8293149263358</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -43775,7 +43765,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>-37.75142021966853,174.82848923643095</t>
+          <t>-37.75142091009189,174.82848629843974</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -43882,7 +43872,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-37.75349439670759,174.82912902654886</t>
+          <t>-37.75349389694674,174.82913120719283</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -43897,7 +43887,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>-37.751443617309,174.828389671142</t>
+          <t>-37.75144052319955,174.8284028377031</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -43996,7 +43986,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-37.753497445247916,174.82911572462004</t>
+          <t>-37.75349702045139,174.82911757816754</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -44011,7 +44001,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>-37.751455814734726,174.82833776658816</t>
+          <t>-37.75145300191317,174.82834973619336</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -44110,14 +44100,14 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-37.7534745561714,174.82921559809046</t>
+          <t>-37.753474006432725,174.82921799679747</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>-37.75145980382505,174.82832079151007</t>
+          <t>-37.751456300585595,174.8283356991108</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -44216,7 +44206,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-37.753482752269484,174.82917983554518</t>
+          <t>-37.75348242742433,174.82918125296328</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -44383,7 +44373,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>-37.75127494787911,174.82910741026376</t>
+          <t>-37.75127604746631,174.82910273125998</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -44462,7 +44452,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-37.753373853242,174.82965499697815</t>
+          <t>-37.75337377827643,174.8296553240736</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -44473,7 +44463,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>-37.75129486827946,174.82902264410254</t>
+          <t>-37.75129443356019,174.82902449394228</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -44580,7 +44570,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-37.75340176535664,174.82953320837976</t>
+          <t>-37.75340136554209,174.82953495289038</t>
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
@@ -44678,7 +44668,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-37.7534447202852,174.82934578240773</t>
+          <t>-37.753444270496885,174.82934774498455</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -44693,7 +44683,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>-37.75137434471068,174.82868444949472</t>
+          <t>-37.751371301711714,174.82869739840137</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -44788,7 +44778,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-37.753576706778546,174.8287698740669</t>
+          <t>-37.7535769816434,174.8287686747099</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -44803,7 +44793,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>-37.75144134147657,174.82839935563746</t>
+          <t>-37.75144313145721,174.8283917386186</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -44910,7 +44900,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-37.7535357767684,174.82894846912163</t>
+          <t>-37.75353612659868,174.82894694266906</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -44925,7 +44915,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>-37.7514723080734,174.82826758115672</t>
+          <t>-37.75147458389522,174.82825789665276</t>
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
@@ -45020,7 +45010,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-37.75349142312995,174.82914200137998</t>
+          <t>-37.753490923368865,174.82914418202378</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -45122,7 +45112,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-37.753473281777126,174.82922115872935</t>
+          <t>-37.75347275702647,174.82922344840415</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -45137,7 +45127,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>-37.751426817044376,174.82846116229055</t>
+          <t>-37.751423492786046,174.8284753081759</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -45236,7 +45226,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-37.75353172873098,174.82896613235755</t>
+          <t>-37.75353207856148,174.82896460590516</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -45251,7 +45241,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>-37.7514124715792,174.82852220721702</t>
+          <t>-37.751414696279056,174.82851274035838</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -45338,7 +45328,7 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-37.75345094235352,174.82931863342603</t>
+          <t>-37.753451167247434,174.82931765213743</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -45353,7 +45343,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>-37.75139753794255,174.8285857548503</t>
+          <t>-37.751398893222614,174.82857998768608</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -45460,7 +45450,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-37.75345581505335,174.82929737217196</t>
+          <t>-37.75345586502974,174.8292971541078</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -45574,7 +45564,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-37.75341978197375,174.82945459635064</t>
+          <t>-37.75341930719531,174.829456667958</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -45589,7 +45579,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>-37.751345679093625,174.82880643032738</t>
+          <t>-37.7513425593669,174.82881970566626</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -45696,7 +45686,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-37.75342787818988,174.82941926998882</t>
+          <t>-37.75342742840037,174.8294212325647</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -45711,7 +45701,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>-37.75135938541663,174.82874810587379</t>
+          <t>-37.751356470268206,174.8287605107035</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -45806,7 +45796,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-37.753385872708485,174.82960255266065</t>
+          <t>-37.75338532296208,174.82960495136163</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -45821,7 +45811,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>-37.751340692644455,174.8288276491062</t>
+          <t>-37.751337138198906,174.82884277428514</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -45928,7 +45918,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-37.753396167950534,174.8295576315263</t>
+          <t>-37.7533958181125,174.82955915797282</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -45943,7 +45933,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>-37.75133212617173,174.82886410187305</t>
+          <t>-37.75132982472942,174.82887389515219</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -46046,7 +46036,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-37.75345291642211,174.8293100198927</t>
+          <t>-37.753452791481074,174.82931056505302</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -46155,7 +46145,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>-37.75136708242515,174.82871535276587</t>
+          <t>-37.751364192851554,174.82872764878397</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -46250,7 +46240,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-37.75341438449052,174.829478147254</t>
+          <t>-37.75341463437411,174.82947705693448</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -46261,7 +46251,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>-37.7514233393587,174.82847596106288</t>
+          <t>-37.7514249759169,174.82846899693493</t>
         </is>
       </c>
       <c r="K174" t="inlineStr"/>
@@ -46352,7 +46342,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-37.753374103127186,174.82965390665987</t>
+          <t>-37.75337412811571,174.82965379762805</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -46413,7 +46403,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>-37.751502993245445,174.8281370035227</t>
+          <t>-37.751499848021844,174.8281503877354</t>
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
@@ -46519,7 +46509,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>-37.75136230056376,174.82873570104306</t>
+          <t>-37.75136086856182,174.82874179464426</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -46601,7 +46591,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>-37.75132586113243,174.82889076135365</t>
+          <t>-37.75132588670403,174.82889065253946</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -46680,7 +46670,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>-37.75335526175592,174.8297361166357</t>
+          <t>-37.75335481196122,174.82973807920752</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -46691,7 +46681,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>-37.75132499169793,174.8288944610363</t>
+          <t>-37.751322076534386,174.82890686585395</t>
         </is>
       </c>
       <c r="K179" t="inlineStr"/>
@@ -46778,7 +46768,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-37.753393494187854,174.82956929793866</t>
+          <t>-37.753393669106934,174.82956853471546</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -46864,7 +46854,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-37.753438748093345,174.8293718410644</t>
+          <t>-37.75343852319898,174.8293728223526</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -46974,7 +46964,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>-37.75345801401408,174.82928777734864</t>
+          <t>-37.753457989025904,174.8292878863807</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -46989,7 +46979,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>-37.75134112736068,174.82882579926405</t>
+          <t>-37.751341050646054,174.82882612570677</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -47044,7 +47034,7 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-37.75344949303697,174.82932495728565</t>
+          <t>-37.75344899327255,174.82932713792684</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -47059,7 +47049,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>-37.75142244436577,174.82847976957024</t>
+          <t>-37.75141919681898,174.82849358901038</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -47172,7 +47162,7 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>-37.753580155082275,174.8287548275876</t>
+          <t>-37.75358040495928,174.82875373726299</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -47187,7 +47177,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>-37.75149966902533,174.82815114943853</t>
+          <t>-37.75150138227745,174.82814385885132</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -47266,7 +47256,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-37.75358555242344,174.82873127657362</t>
+          <t>-37.753585752324874,174.82873040431377</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -47281,7 +47271,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>-37.75149864618803,174.82815550202776</t>
+          <t>-37.7515000781602,174.82814940840282</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -47388,7 +47378,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>-37.75349392193478,174.82913109816064</t>
+          <t>-37.753493472149984,174.82913306074016</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -47403,7 +47393,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>-37.751480465228845,174.82823286928007</t>
+          <t>-37.751477498991655,174.8282454917816</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -47564,7 +47554,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-37.753503092540036,174.82909108333897</t>
+          <t>-37.753502617767886,174.82909315495124</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -47579,7 +47569,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>-37.75148621870234,174.82820838597667</t>
+          <t>-37.75148304789978,174.8282218789977</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -47682,7 +47672,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-37.75341463437411,174.82947705693448</t>
+          <t>-37.75341395968841,174.82948000079716</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -47780,7 +47770,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-37.753485401006216,174.82916827813546</t>
+          <t>-37.753484801292345,174.82917089490755</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -47795,7 +47785,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>-37.75145885769488,174.82832481765055</t>
+          <t>-37.75145499645949,174.82834124865522</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -47858,7 +47848,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-37.75348462637578,174.82917165813274</t>
+          <t>-37.7534847263281,174.82917122200405</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -47873,7 +47863,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>-37.751458218417646,174.8283275380157</t>
+          <t>-37.7514587809816,174.82832514409438</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -47964,7 +47954,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-37.7535075903797,174.82907145753708</t>
+          <t>-37.753507265535816,174.8290728749562</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -47979,7 +47969,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>-37.751509002408326,174.8281114320561</t>
+          <t>-37.751506854452856,174.82812057249572</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -48093,7 +48083,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>-37.751465199321615,174.82829783162578</t>
+          <t>-37.751465736313925,174.8282955465186</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -48188,7 +48178,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-37.753480628281665,174.82918910327874</t>
+          <t>-37.75348057830548,174.82918932134305</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -48203,7 +48193,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>-37.75141779040058,174.82849957380688</t>
+          <t>-37.75141745797437,174.82850098839512</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -48290,7 +48280,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-37.753503117528034,174.82909097430675</t>
+          <t>-37.75350281767195,174.82909228269344</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -48305,7 +48295,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>-37.75148961964211,174.82819391362213</t>
+          <t>-37.75148767624816,174.8282021835392</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -48392,7 +48382,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-37.75346461089169,174.8292589928751</t>
+          <t>-37.75346411112848,174.82926117351724</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -48407,7 +48397,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>-37.751441264763095,174.8283996820811</t>
+          <t>-37.7514379660832,174.8284137191577</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -48502,7 +48492,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-37.75348862446736,174.82915421298475</t>
+          <t>-37.75348892432412,174.82915290459857</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -48517,7 +48507,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>-37.751488289951574,174.82819957198646</t>
+          <t>-37.7514902589163,174.82819119325458</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -48616,7 +48606,7 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-37.75345554018321,174.82929857152482</t>
+          <t>-37.75345494046649,174.8293011882947</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -48631,7 +48621,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>-37.75138099327498,174.82865615776205</t>
+          <t>-37.751377234279836,174.8286721534731</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -48722,7 +48712,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-37.753372104045376,174.8296626292058</t>
+          <t>-37.753372228988006,174.8296620840467</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -48737,7 +48727,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>-37.751287682622056,174.82905322086197</t>
+          <t>-37.75128852648969,174.82904962999731</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -48890,7 +48880,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-37.753419657032055,174.82945514151046</t>
+          <t>-37.75341930719531,174.829456667958</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -48905,7 +48895,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>-37.75135381083346,174.82877182738935</t>
+          <t>-37.75135161168468,174.8287811854174</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -48996,7 +48986,7 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
-          <t>-37.753328823768584,174.82985147220415</t>
+          <t>-37.75332902367818,174.82985059995065</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -49007,7 +48997,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>-37.75128809177001,174.8290514798367</t>
+          <t>-37.75128939592898,174.82904593031847</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -49104,7 +49094,7 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-37.753335245860775,174.82982345105793</t>
+          <t>-37.75333557071352,174.82982203364574</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -49115,7 +49105,7 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>-37.751255410996976,174.82919054416755</t>
+          <t>-37.7512574567465,174.82918183904889</t>
         </is>
       </c>
       <c r="K205" t="inlineStr"/>
@@ -49182,7 +49172,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-37.75343477495839,174.8293891771557</t>
+          <t>-37.75343450008732,174.82939037650786</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -49197,7 +49187,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>-37.7513486198183,174.82879391668718</t>
+          <t>-37.75134672752605,174.82880196894274</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -49326,7 +49316,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-37.75348222751962,174.82918212522057</t>
+          <t>-37.75348252737669,174.82918081683465</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -49341,7 +49331,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>-37.75142727732616,174.82845920362942</t>
+          <t>-37.751429220737805,174.8284509337265</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -49440,7 +49430,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-37.75341485926933,174.8294760756469</t>
+          <t>-37.753414309525446,174.82947847434986</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -49455,7 +49445,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>-37.75139068482406,174.82861491711142</t>
+          <t>-37.75138707926261,174.82863025994055</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -49546,7 +49536,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>-37.75350366726417,174.82908857559775</t>
+          <t>-37.753503867168206,174.82908770333995</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -49561,7 +49551,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>-37.75145269505984,174.82835104196843</t>
+          <t>-37.7514539736153,174.82834560123894</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -49668,7 +49658,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>-37.753492772484684,174.82913611364162</t>
+          <t>-37.753492922412974,174.82913545944845</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -49683,7 +49673,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>-37.75141876210787,174.8284954388566</t>
+          <t>-37.75141983609997,174.82849086864826</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -49790,7 +49780,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>-37.753486250600794,174.8291645710416</t>
+          <t>-37.753486200624636,174.82916478910593</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -49805,7 +49795,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>-37.75141216472401,174.82852351299059</t>
+          <t>-37.751411832297514,174.82852492757857</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -49965,7 +49955,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>-37.75146801213798,174.82828586201643</t>
+          <t>-37.751470620384815,174.8282747629233</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -50048,7 +50038,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-37.753481927662534,174.82918343360652</t>
+          <t>-37.7534814029126,174.82918572328185</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -50142,7 +50132,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-37.753486775350325,174.8291622813659</t>
+          <t>-37.753486250600794,174.8291645710416</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -50157,7 +50147,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>-37.751451263077435,174.8283571355852</t>
+          <t>-37.75144793883138,174.82837128148032</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -50247,7 +50237,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>-37.7514167419794,174.8285040352005</t>
+          <t>-37.75141265057809,174.82852144551578</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -50330,7 +50320,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-37.75348085317454,174.82918812198932</t>
+          <t>-37.753480253460225,174.82919073876107</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -50345,7 +50335,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>-37.75146312806516,174.82830664561018</t>
+          <t>-37.75145921569009,174.82832329424608</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -50443,7 +50433,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>-37.7514049280512,174.82855430748035</t>
+          <t>-37.751402524348954,174.8285645360374</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -50526,7 +50516,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>-37.75345681458104,174.82929301088868</t>
+          <t>-37.75345678959287,174.82929311992078</t>
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
@@ -50710,7 +50700,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-37.75348822465831,174.82915595749964</t>
+          <t>-37.75348814969411,174.82915628459617</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -50725,7 +50715,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>-37.75143548567939,174.8284242741679</t>
+          <t>-37.751435025398166,174.82842623282954</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -50812,7 +50802,7 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-37.75344177167234,174.82935864818853</t>
+          <t>-37.753441671719344,174.8293590843167</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -50906,7 +50896,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-37.753466734884896,174.82924972514576</t>
+          <t>-37.753466160157394,174.82925223288436</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -50921,7 +50911,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>-37.75140139921143,174.8285693238724</t>
+          <t>-37.75139756351388,174.82858564603592</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -51004,7 +50994,7 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
-          <t>-37.75336283329518,174.82970308000614</t>
+          <t>-37.753362308535316,174.82970536967375</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -51136,7 +51126,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-37.75339674268443,174.82955512379266</t>
+          <t>-37.75339691760344,174.8295543605694</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -51147,7 +51137,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>-37.75129213210478,174.82903428721096</t>
+          <t>-37.75129325726086,174.8290294993908</t>
         </is>
       </c>
       <c r="K227" t="inlineStr"/>
@@ -51234,7 +51224,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>-37.7532875672926,174.83003148341484</t>
+          <t>-37.75328759228146,174.83003137438325</t>
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
@@ -51308,14 +51298,14 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>-37.75322014698229,174.83032565028256</t>
+          <t>-37.75322027192794,174.8303251051258</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>-37.75125553885635,174.8291900000976</t>
+          <t>-37.75125622929686,174.82918706212013</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -51386,14 +51376,14 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>-37.75329356461662,174.83000531583824</t>
+          <t>-37.753293314728225,174.83000640615398</t>
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>-37.75129768116813,174.82901067455091</t>
+          <t>-37.751295993435065,174.829017856282</t>
         </is>
       </c>
       <c r="K230" t="inlineStr"/>
@@ -51538,14 +51528,14 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-37.75338284910265,174.8296157455156</t>
+          <t>-37.75338247427538,174.8296173809934</t>
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>-37.75133729162825,174.82884212139976</t>
+          <t>-37.75133478561519,174.82885278519413</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -51639,7 +51629,7 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>-37.75126944994035,174.8291308052806</t>
+          <t>-37.751271163251985,174.82912351474087</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -51718,7 +51708,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-37.753450567530294,174.829320268907</t>
+          <t>-37.75345001778955,174.82932266761236</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -51733,7 +51723,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>-37.75139487852428,174.82859707154935</t>
+          <t>-37.751391221822416,174.82861263200908</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -51840,7 +51830,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-37.753449942824886,174.82932299470855</t>
+          <t>-37.75344976790735,174.829323757933</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -51934,7 +51924,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-37.7534770299948,174.82920480390845</t>
+          <t>-37.75347705498291,174.82920469487632</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -51949,7 +51939,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>-37.75144218532464,174.8283957647572</t>
+          <t>-37.751442287609244,174.828395329499</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -52056,7 +52046,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-37.753462736779426,174.8292671702829</t>
+          <t>-37.75346216205157,174.8292696780212</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -52071,7 +52061,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>-37.75144804111589,174.82837084622201</t>
+          <t>-37.75144430772993,174.82838673314885</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -52150,7 +52140,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-37.753467784387176,174.8292451457969</t>
+          <t>-37.753467284624215,174.82924732643923</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -52256,7 +52246,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-37.75352158363808,174.82901039947077</t>
+          <t>-37.753521783541544,174.8290095272125</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -52271,7 +52261,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>-37.751440778911125,174.8284017495576</t>
+          <t>-37.751442057468886,174.82839630882995</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -52378,7 +52368,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-37.75350861488716,174.8290669872152</t>
+          <t>-37.75350878980306,174.82906622398949</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -52393,7 +52383,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>-37.7514682167064,174.82828499149934</t>
+          <t>-37.75146931626153,174.82828031246996</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -52488,7 +52478,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-37.7534902736794,174.82914701686062</t>
+          <t>-37.75348972394209,174.8291494155687</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -52503,7 +52493,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>-37.75146929069049,174.8282804212846</t>
+          <t>-37.751465736313925,174.8282955465186</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -52610,7 +52600,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-37.753537051150026,174.82894290847287</t>
+          <t>-37.753537226065134,174.82894214524654</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -52704,7 +52694,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-37.75337567740366,174.8296470376546</t>
+          <t>-37.7533755524611,174.82964758281378</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -52778,7 +52768,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-37.75346745954125,174.8292465632144</t>
+          <t>-37.753467384576794,174.82924689031077</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -52793,7 +52783,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>-37.75146315363624,174.8283065367956</t>
+          <t>-37.75146253993049,174.82830914834645</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -52884,7 +52874,7 @@
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-37.75342715352898,174.8294224319166</t>
+          <t>-37.75342655380956,174.82942504868436</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -52895,7 +52885,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>-37.75134928467761,174.8287910875162</t>
+          <t>-37.7513454489499,174.82880740965567</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -53020,7 +53010,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>-37.75343749868011,174.82937729266564</t>
+          <t>-37.75343779853931,174.82937598428137</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -53168,7 +53158,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-37.75342283055018,174.8294412944499</t>
+          <t>-37.753422430736954,174.82944303896153</t>
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
@@ -53179,7 +53169,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>-37.75136488328077,174.82872471079745</t>
+          <t>-37.75136230056376,174.82873570104306</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -53273,7 +53263,7 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr">
         <is>
-          <t>-37.75134928467761,174.8287910875162</t>
+          <t>-37.75134895224796,174.8287925021017</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -53352,7 +53342,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-37.7534495680016,174.82932463018946</t>
+          <t>-37.75344909322542,174.8293267017986</t>
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
@@ -53363,7 +53353,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>-37.75137902427779,174.82866453646804</t>
+          <t>-37.75137600685238,174.82867737656204</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -53434,7 +53424,7 @@
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
-          <t>-37.75363130469918,174.82853163797242</t>
+          <t>-37.75363167951164,174.82853000248306</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -53449,7 +53439,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>-37.75151733851462,174.8280759584399</t>
+          <t>-37.75151989560034,174.82806507696088</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -53539,7 +53529,7 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr">
         <is>
-          <t>-37.75145075165507,174.82835931187682</t>
+          <t>-37.75144801554476,174.82837095503658</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -53618,7 +53608,7 @@
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr">
         <is>
-          <t>-37.753572658767425,174.82878753732328</t>
+          <t>-37.75357295862018,174.82878622893398</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -53633,7 +53623,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>-37.751491102758145,174.82818760236935</t>
+          <t>-37.75149307172203,174.82817922363677</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -53762,7 +53752,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>-37.753483776780996,174.8291753652264</t>
+          <t>-37.75348337697166,174.82917710974107</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -53840,7 +53830,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>-37.7534544407025,174.8293033689362</t>
+          <t>-37.75345401590309,174.8293052224815</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -53855,7 +53845,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>-37.75137830827865,174.82866758327012</t>
+          <t>-37.75137557213844,174.82867922640602</t>
         </is>
       </c>
       <c r="K257" t="inlineStr"/>
@@ -54019,7 +54009,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>-37.751443540595574,174.82838999758567</t>
+          <t>-37.751445407289026,174.82838205412264</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -54106,7 +54096,7 @@
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>-37.75345241665798,174.82931220053408</t>
+          <t>-37.75345194188199,174.82931427214336</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -54117,7 +54107,7 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>-37.751371761997376,174.82869543974329</t>
+          <t>-37.75136853999717,174.8287091503493</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -54192,7 +54182,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>-37.75337502770231,174.8296498724822</t>
+          <t>-37.753374852782706,174.82965063570504</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -54203,7 +54193,7 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr">
         <is>
-          <t>-37.751331486882286,174.8288668222284</t>
+          <t>-37.751330285017936,174.8288719364964</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -54281,7 +54271,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>-37.75142853031533,174.82845387171838</t>
+          <t>-37.751429067310596,174.8284515866136</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -54472,7 +54462,7 @@
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-37.753426278938136,174.82942624803624</t>
+          <t>-37.753426328914756,174.82942602997227</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -54573,7 +54563,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>-37.75124635854778,174.82922906431156</t>
+          <t>-37.751248583303386,174.8292195974974</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -54652,7 +54642,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-37.7533973424067,174.82955250702713</t>
+          <t>-37.75339764226781,174.8295511986443</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -54667,7 +54657,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>-37.75129507285321,174.82902177358974</t>
+          <t>-37.75129701630364,174.82901350371773</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -54858,7 +54848,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>-37.75339879173527,174.82954618317686</t>
+          <t>-37.75339876674685,174.82954629220876</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -54873,7 +54863,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>-37.75131031358074,174.82895692037087</t>
+          <t>-37.75131013457911,174.8289576820699</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -54956,7 +54946,7 @@
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-37.75346401117582,174.82926160964567</t>
+          <t>-37.753463511412576,174.82926379028774</t>
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
@@ -55030,7 +55020,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-37.7534704331302,174.82923358839213</t>
+          <t>-37.75347000833186,174.8292354419382</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -55045,7 +55035,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>-37.75136250513543,174.8287348305286</t>
+          <t>-37.75135976898869,174.8287464736593</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -55214,7 +55204,7 @@
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-37.753361983683966,174.829706787087</t>
+          <t>-37.75336238350103,174.82970504257835</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -55296,7 +55286,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>-37.75341653348903,174.82946877050585</t>
+          <t>-37.75341665843078,174.82946822534606</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -55307,7 +55297,7 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>-37.75142390192563,174.82847356714393</t>
+          <t>-37.75142474577592,174.82846997626544</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -55523,7 +55513,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>-37.75135547298031,174.8287647544608</t>
+          <t>-37.751353350546566,174.82877378604644</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -55692,7 +55682,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>-37.75354207371036,174.82892099297285</t>
+          <t>-37.753542198649626,174.8289204478111</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -55707,7 +55697,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>-37.75147113180565,174.82827258663045</t>
+          <t>-37.75147189893683,174.82826932219106</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -55802,7 +55792,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-37.75348727511173,174.82916010072242</t>
+          <t>-37.75348764993277,174.82915846523974</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -55817,7 +55807,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>-37.7514095053116,174.82853482969426</t>
+          <t>-37.75141196015385,174.82852438350628</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -55920,7 +55910,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-37.75349657066682,174.82911954074726</t>
+          <t>-37.753495970954006,174.82912215752017</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -55935,7 +55925,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>-37.751453692333115,174.82834679819945</t>
+          <t>-37.751449933379206,174.8283627939434</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -56033,7 +56023,7 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr">
         <is>
-          <t>-37.75145852527072,174.82832623224044</t>
+          <t>-37.75145901112139,174.8283241647629</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -56112,7 +56102,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>-37.75352460717734,174.82899720656397</t>
+          <t>-37.7535246821411,174.8289968794671</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -56123,7 +56113,7 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>-37.751461670513926,174.8283128480434</t>
+          <t>-37.751462105222224,174.82831099819492</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -56288,7 +56278,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-37.753486275588855,174.82916446200943</t>
+          <t>-37.753485800815454,174.8291665336207</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -56303,7 +56293,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>-37.751451697786415,174.82835528573727</t>
+          <t>-37.7514485781096,174.82836856111598</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -56448,7 +56438,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-37.75351691089275,174.82903078850632</t>
+          <t>-37.75351713578432,174.8290298072159</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -56463,7 +56453,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>-37.75142553848368,174.82846660301584</t>
+          <t>-37.75142707275648,174.82846007414548</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -56551,7 +56541,11 @@
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>-37.751318624365375,174.82892155576823</t>
+        </is>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -56616,7 +56610,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>-37.753469133746954,174.8292392580625</t>
+          <t>-37.753468509043394,174.8292419838655</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -56631,7 +56625,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>-37.75142408092419,174.82847280544246</t>
+          <t>-37.75141993838493,174.8284904333903</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -56775,7 +56769,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>-37.75146732171954,174.82828880001153</t>
+          <t>-37.751468242277454,174.82828488268473</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -56932,7 +56926,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-37.75347960376965,174.82919357359708</t>
+          <t>-37.75347907901953,174.82919586327228</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -56947,7 +56941,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>-37.75140134806881,174.82856954150122</t>
+          <t>-37.75139799822637,174.8285837961908</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -57054,7 +57048,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-37.75338284910265,174.8296157455156</t>
+          <t>-37.753382974045074,174.8296152003563</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -57069,7 +57063,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>-37.751289907363784,174.82904375403677</t>
+          <t>-37.75129075123115,174.82904016317187</t>
         </is>
       </c>
       <c r="K294" t="inlineStr"/>
@@ -57164,7 +57158,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>-37.7533933442572,174.82956995213</t>
+          <t>-37.753392894465215,174.82957191470393</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -57179,7 +57173,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>-37.75134128078994,174.82882514637856</t>
+          <t>-37.7513383912051,174.8288374423877</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -57282,7 +57276,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>-37.753390220701114,174.82958358111523</t>
+          <t>-37.753390445597205,174.82958259982834</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -57297,7 +57291,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>-37.751283667856335,174.82907030467146</t>
+          <t>-37.751285048731454,174.82906442871175</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -57396,7 +57390,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-37.75340561357044,174.8295164174643</t>
+          <t>-37.75340553860527,174.82951674456007</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -57411,7 +57405,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>-37.75131156659201,174.82895158847745</t>
+          <t>-37.75131108073053,174.82895365594635</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -57514,7 +57508,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>-37.75341693330262,174.82946702599452</t>
+          <t>-37.75341690831428,174.82946713502648</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -57529,7 +57523,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>-37.751325579844824,174.8288919583098</t>
+          <t>-37.75132534970038,174.8288929376376</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -57628,7 +57622,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>-37.75344641948518,174.82933836822846</t>
+          <t>-37.7534460446617,174.8293400037092</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -57643,7 +57637,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>-37.751383217985385,174.82864669091185</t>
+          <t>-37.75138076313249,174.82865713709134</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -57788,7 +57782,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-37.753481103055485,174.82918703166774</t>
+          <t>-37.75348130296023,174.8291861594105</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -57803,7 +57797,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>-37.75144292688801,174.82839260913508</t>
+          <t>-37.75144420544536,174.8283871684071</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -57906,7 +57900,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>-37.753504891676286,174.8290832330185</t>
+          <t>-37.753504841700284,174.829083451083</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -57921,7 +57915,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>-37.75146144037425,174.82831382737493</t>
+          <t>-37.75146118466345,174.82831491552105</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -58024,7 +58018,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>-37.753489923846566,174.82914854331125</t>
+          <t>-37.753489599001796,174.82914996072964</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -58039,7 +58033,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>-37.75144865482297,174.82836823467224</t>
+          <t>-37.75144655799021,174.82837715746714</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -58215,7 +58209,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>-37.75134649738236,174.82880294827106</t>
+          <t>-37.75134521880617,174.82880838898402</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -58290,7 +58284,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>-37.753493772006514,174.82913175235382</t>
+          <t>-37.753493197281486,174.82913426009432</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -58305,7 +58299,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>-37.751446864843835,174.8283758516923</t>
+          <t>-37.75144313145721,174.8283917386186</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -58412,7 +58406,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>-37.753522233324325,174.82900756463138</t>
+          <t>-37.753522408239846,174.8290068014054</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -58427,7 +58421,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>-37.751441315905424,174.82839946445202</t>
+          <t>-37.751442364322706,174.8283950030553</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -58534,7 +58528,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>-37.75347922894812,174.82919520907936</t>
+          <t>-37.75347890410281,174.82919662649732</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -58549,7 +58543,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>-37.75141594927058,174.82850740844924</t>
+          <t>-37.75141390357,174.82851611360695</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -58656,7 +58650,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>-37.75347982866254,174.8291925923077</t>
+          <t>-37.75347970372204,174.82919313746845</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -58671,7 +58665,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>-37.751437224519265,174.82841687477938</t>
+          <t>-37.75143635509938,174.8284205744737</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -58778,7 +58772,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>-37.7534813779245,174.829185832314</t>
+          <t>-37.75348130296023,174.8291861594105</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -58793,7 +58787,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>-37.75143888664519,174.82840980183414</t>
+          <t>-37.75143834965071,174.82841208693958</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -58900,7 +58894,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-37.75350689071596,174.82907451043977</t>
+          <t>-37.75350711560787,174.8290735291496</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -58915,7 +58909,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>-37.75145080279732,174.82835909424767</t>
+          <t>-37.75145223477981,174.82835300063098</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -59022,7 +59016,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-37.753476505244464,174.82920709358348</t>
+          <t>-37.7534760304703,174.82920916519421</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -59037,7 +59031,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>-37.751412011296395,174.82852416587735</t>
+          <t>-37.751408789315775,174.82853787649898</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -59144,7 +59138,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-37.75353632650168,174.82894607041044</t>
+          <t>-37.753536551392564,174.82894508911946</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -59159,7 +59153,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>-37.751477933698915,174.82824364193232</t>
+          <t>-37.75147928896253,174.82823787475493</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -59258,7 +59252,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>-37.75345394093848,174.8293055495777</t>
+          <t>-37.753454090867685,174.82930489538526</t>
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
@@ -59269,7 +59263,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>-37.75142510377299,174.8284684528624</t>
+          <t>-37.75142602433678,174.82846453554026</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -59376,7 +59370,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>-37.753404738976606,174.8295202335816</t>
+          <t>-37.75340493888378,174.82951936132622</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -59478,7 +59472,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>-37.753417058244366,174.82946648083472</t>
+          <t>-37.75341685833757,174.8294673530904</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -59489,7 +59483,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>-37.75133302117686,174.8288602933754</t>
+          <t>-37.75133181931281,174.82886540764363</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -59592,7 +59586,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-37.75339132019303,174.82957878371255</t>
+          <t>-37.75339099534317,174.829580201127</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -59607,7 +59601,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>-37.7513304895906,174.82887106598272</t>
+          <t>-37.75132841829205,174.82887987993357</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -59690,7 +59684,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-37.75340903697945,174.8295014800899</t>
+          <t>-37.75340926187487,174.82950049880247</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -59705,7 +59699,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>-37.75127042166939,174.82912667034768</t>
+          <t>-37.751271879262696,174.82912046794803</t>
         </is>
       </c>
       <c r="K318" t="inlineStr"/>
@@ -59780,7 +59774,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-37.75342158113378,174.82944674604872</t>
+          <t>-37.7534213562388,174.82944772733646</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -59795,7 +59789,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>-37.75135245554417,174.82877759454624</t>
+          <t>-37.751350972397105,174.8287839057743</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -59898,7 +59892,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-37.753481577829255,174.82918496005672</t>
+          <t>-37.75348155284116,174.8291850690889</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -59913,7 +59907,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>-37.75144745297989,174.82837334895717</t>
+          <t>-37.751447350695365,174.82837378421547</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -60020,7 +60014,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>-37.753499844098286,174.82910525752766</t>
+          <t>-37.75350014395451,174.82910394914109</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -60035,7 +60029,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>-37.7514200662411,174.82848988931786</t>
+          <t>-37.75142193294119,174.82848194586012</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -60142,7 +60136,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>-37.75350761536768,174.82907134850484</t>
+          <t>-37.75350781527159,174.82907047624693</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -60157,7 +60151,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>-37.75145832070201,174.82832710275727</t>
+          <t>-37.75145959925637,174.82832166202695</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -60264,7 +60258,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-37.75349619584632,174.82912117623033</t>
+          <t>-37.753496095894185,174.82912161235916</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -60279,7 +60273,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>-37.75143246827969,174.82843711428245</t>
+          <t>-37.7514319057135,174.82843950820197</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -60366,7 +60360,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>-37.7534923226998,174.82913807622108</t>
+          <t>-37.7534919728671,174.8291396026718</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -60381,7 +60375,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>-37.75145330876649,174.82834843041832</t>
+          <t>-37.751450930652915,174.82835855017476</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -60488,7 +60482,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-37.75353355284694,174.8289581729984</t>
+          <t>-37.75353390267733,174.82895664654592</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -60503,7 +60497,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>-37.75148008166376,174.82823450150013</t>
+          <t>-37.751482306340904,174.82822503462342</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -60606,7 +60600,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-37.75349519632486,174.82912553751845</t>
+          <t>-37.75349462159996,174.82912804525907</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -60621,7 +60615,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>-37.751459420258776,174.82832242372922</t>
+          <t>-37.75145568687921,174.82833831066114</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -60720,7 +60714,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-37.75347595550596,174.82920949229063</t>
+          <t>-37.75347563066046,174.82921090970845</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -60735,7 +60729,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>-37.75143185457112,174.828439725831</t>
+          <t>-37.75142975773304,174.82844864862165</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -60842,7 +60836,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>-37.75352313288977,174.82900363946908</t>
+          <t>-37.75352318286564,174.8290034214045</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -60857,7 +60851,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>-37.751448475825086,174.82836899637428</t>
+          <t>-37.75144875710748,174.82836779941394</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -60960,7 +60954,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-37.753474856028824,174.8292142897048</t>
+          <t>-37.753474356266416,174.82921647034755</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -60975,7 +60969,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>-37.75140362391498,174.8285598570167</t>
+          <t>-37.751400453072904,174.82857335000622</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -61082,7 +61076,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>-37.75344457035576,174.82934643660002</t>
+          <t>-37.75344394564975,174.8293491624011</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -61097,7 +61091,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>-37.75138109556054,174.82865572250458</t>
+          <t>-37.751376952994406,174.82867335043102</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -61200,7 +61194,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-37.75339057053948,174.82958205466895</t>
+          <t>-37.75339052056257,174.8295822727327</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -61211,7 +61205,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>-37.75130711712234,174.8289705221389</t>
+          <t>-37.75130678469058,174.8289719367227</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -61298,7 +61292,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-37.75339384402602,174.8295677714922</t>
+          <t>-37.7533937690607,174.82956809858788</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -61309,7 +61303,7 @@
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr">
         <is>
-          <t>-37.751306938120614,174.82897128383786</t>
+          <t>-37.7513064522588,174.82897335130647</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -61412,7 +61406,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-37.75341980696207,174.82945448731866</t>
+          <t>-37.75341928220696,174.82945677698996</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -61427,7 +61421,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>-37.75135859270096,174.82875147911707</t>
+          <t>-37.75135526840841,174.8287656249751</t>
         </is>
       </c>
       <c r="K333" t="inlineStr"/>
@@ -61522,7 +61516,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>-37.753428877722015,174.82941490870903</t>
+          <t>-37.75342835296767,174.82941719838095</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -61533,7 +61527,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>-37.75136859114004,174.82870893272064</t>
+          <t>-37.75136519013815,174.82872340502564</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -61631,7 +61625,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>-37.75145425489745,174.82834440427843</t>
+          <t>-37.75145571245032,174.82833820184655</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -61722,7 +61716,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>-37.75345069247138,174.82931972374666</t>
+          <t>-37.7534507174596,174.8293196147146</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -61737,7 +61731,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>-37.75141034916373,174.82853123881722</t>
+          <t>-37.751410451448834,174.8285308035594</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -61844,7 +61838,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-37.75349811992468,174.82911278075036</t>
+          <t>-37.753497495223975,174.8291155065556</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -61859,7 +61853,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>-37.75146765414324,174.8282873854213</t>
+          <t>-37.75146361391549,174.82830457813242</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
